--- a/data/MDG Data.xlsx
+++ b/data/MDG Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="743" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="743" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Indicators" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Gender Stats'!$A$1:$T$227</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'WDI Data'!$A$1:$R$637</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'WDI Data'!$A$1:$T$637</definedName>
     <definedName name="_ftn1" localSheetId="1">'UNKT Provided'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="1">'UNKT Provided'!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="1">'UNKT Provided'!$B$4</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13678" uniqueCount="2368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13680" uniqueCount="2370">
   <si>
     <t>MCC</t>
   </si>
@@ -6799,9 +6799,6 @@
     <t>Proposed Indicators</t>
   </si>
   <si>
-    <t>http://knoema.com/demo_minfind/infant-mortality-rates</t>
-  </si>
-  <si>
     <t>Download URL:</t>
   </si>
   <si>
@@ -7191,6 +7188,15 @@
   </si>
   <si>
     <t>8D</t>
+  </si>
+  <si>
+    <t>http://appsso.eurostat.ec.europa.eu/nui/show.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>http://www.unaids.org/sites/default/files/country/documents/KOSOVO_narrative_report_2015.pdf</t>
   </si>
 </sst>
 </file>
@@ -7204,7 +7210,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7333,12 +7339,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0077CA"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -7703,7 +7703,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7959,10 +7959,7 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
@@ -7976,8 +7973,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -7985,47 +7982,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="29" fillId="4" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="12" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8033,7 +8030,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8048,23 +8045,37 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8165,19 +8176,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -8894,11 +8894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123765560"/>
-        <c:axId val="2128515176"/>
+        <c:axId val="2022102792"/>
+        <c:axId val="2021348120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2123765560"/>
+        <c:axId val="2022102792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8907,7 +8907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128515176"/>
+        <c:crossAx val="2021348120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8915,7 +8915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128515176"/>
+        <c:axId val="2021348120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -8928,7 +8928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123765560"/>
+        <c:crossAx val="2022102792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9072,11 +9072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127669240"/>
-        <c:axId val="2127666152"/>
+        <c:axId val="2068188680"/>
+        <c:axId val="2068191848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127669240"/>
+        <c:axId val="2068188680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9086,7 +9086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127666152"/>
+        <c:crossAx val="2068191848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9094,7 +9094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127666152"/>
+        <c:axId val="2068191848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9105,7 +9105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127669240"/>
+        <c:crossAx val="2068188680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9244,11 +9244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143614312"/>
-        <c:axId val="2143617384"/>
+        <c:axId val="2068224120"/>
+        <c:axId val="2068227128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143614312"/>
+        <c:axId val="2068224120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9258,7 +9258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143617384"/>
+        <c:crossAx val="2068227128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9266,7 +9266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143617384"/>
+        <c:axId val="2068227128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9277,7 +9277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143614312"/>
+        <c:crossAx val="2068224120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9923,11 +9923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127566664"/>
-        <c:axId val="2127563528"/>
+        <c:axId val="2068280984"/>
+        <c:axId val="2068284104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127566664"/>
+        <c:axId val="2068280984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9937,7 +9937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127563528"/>
+        <c:crossAx val="2068284104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9945,7 +9945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127563528"/>
+        <c:axId val="2068284104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9956,7 +9956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127566664"/>
+        <c:crossAx val="2068280984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10129,11 +10129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128803928"/>
-        <c:axId val="2128806936"/>
+        <c:axId val="2022131064"/>
+        <c:axId val="2022134120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128803928"/>
+        <c:axId val="2022131064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10143,7 +10143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128806936"/>
+        <c:crossAx val="2022134120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10151,7 +10151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128806936"/>
+        <c:axId val="2022134120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10162,7 +10162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128803928"/>
+        <c:crossAx val="2022131064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10705,8 +10705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10723,85 +10723,85 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
-      <c r="B3" s="87" t="s">
-        <v>2319</v>
+      <c r="B3" s="86" t="s">
+        <v>2318</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="76" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C4" s="76" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="104" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="105" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="105" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="105" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="105" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="105" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="105" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="106" t="s">
         <v>310</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="106" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20">
-      <c r="B15" s="87" t="s">
-        <v>2318</v>
+      <c r="B15" s="86" t="s">
+        <v>2317</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10820,8 +10820,8 @@
       <c r="F16" s="76" t="s">
         <v>2229</v>
       </c>
-      <c r="G16" s="120" t="s">
-        <v>2340</v>
+      <c r="G16" s="119" t="s">
+        <v>2339</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="84">
@@ -10849,13 +10849,13 @@
       <c r="C18" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="103" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E18" s="103" t="s">
         <v>2349</v>
       </c>
-      <c r="E18" s="104" t="s">
-        <v>2350</v>
-      </c>
-      <c r="F18" s="124"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="72"/>
       <c r="H18" s="75"/>
     </row>
@@ -10866,14 +10866,14 @@
       <c r="C19" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="D19" s="104" t="s">
-        <v>2348</v>
-      </c>
-      <c r="E19" s="104" t="s">
+      <c r="D19" s="103" t="s">
         <v>2347</v>
       </c>
-      <c r="F19" s="104" t="s">
-        <v>2320</v>
+      <c r="E19" s="103" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>2319</v>
       </c>
       <c r="G19" s="72"/>
     </row>
@@ -10885,13 +10885,13 @@
         <v>334</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E20" s="74" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F20" s="74" t="s">
         <v>2351</v>
-      </c>
-      <c r="F20" s="74" t="s">
-        <v>2352</v>
       </c>
       <c r="G20" s="72"/>
     </row>
@@ -10903,12 +10903,12 @@
         <v>2231</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>2365</v>
-      </c>
-      <c r="F21" s="124"/>
+        <v>2364</v>
+      </c>
+      <c r="F21" s="123"/>
       <c r="G21" s="72"/>
     </row>
     <row r="22" spans="2:8" ht="42">
@@ -10919,12 +10919,12 @@
         <v>2232</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>2364</v>
-      </c>
-      <c r="F22" s="124"/>
+        <v>2363</v>
+      </c>
+      <c r="F22" s="123"/>
       <c r="G22" s="72"/>
     </row>
     <row r="23" spans="2:8" ht="98">
@@ -10935,13 +10935,13 @@
         <v>2233</v>
       </c>
       <c r="D23" s="74" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F23" s="73" t="s">
         <v>2341</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>2339</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>2342</v>
       </c>
       <c r="G23" s="73"/>
     </row>
@@ -10953,13 +10953,13 @@
         <v>2234</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E24" s="73" t="s">
         <v>1437</v>
       </c>
-      <c r="F24" s="124"/>
-      <c r="G24" s="119"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10980,7 +10980,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10990,55 +10990,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="104" customHeight="1">
+      <c r="B4" s="168" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="B6" s="86" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="104" customHeight="1">
-      <c r="B4" s="163" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-    </row>
-    <row r="6" spans="1:10" ht="20">
-      <c r="B6" s="87" t="s">
-        <v>2270</v>
-      </c>
-    </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="86"/>
-      <c r="C7" s="86">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85">
         <v>2004</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="85">
         <v>2005</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="85">
         <v>2006</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="85">
         <v>2007</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="85">
         <v>2008</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="85">
         <v>2009</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="85">
         <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C9">
         <f>C8</f>
@@ -11096,24 +11096,24 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="20">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="86" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="88" t="s">
         <v>2273</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="89" t="s">
+      <c r="D14" s="88" t="s">
         <v>2274</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="E14" s="88" t="s">
         <v>2275</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C15">
         <v>278880</v>
@@ -11145,7 +11145,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11156,103 +11156,103 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28">
       <c r="A1" s="71" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="115"/>
-      <c r="C4" s="112">
+      <c r="B4" s="114"/>
+      <c r="C4" s="111">
         <v>2001</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="111">
         <v>2002</v>
       </c>
-      <c r="E4" s="112">
+      <c r="E4" s="111">
         <v>2003</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="111">
         <v>2004</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="111">
         <v>2005</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="111">
         <v>2006</v>
       </c>
-      <c r="I4" s="112">
+      <c r="I4" s="111">
         <v>2007</v>
       </c>
-      <c r="J4" s="112">
+      <c r="J4" s="111">
         <v>2008</v>
       </c>
-      <c r="K4" s="112">
+      <c r="K4" s="111">
         <v>2009</v>
       </c>
-      <c r="L4" s="112">
+      <c r="L4" s="111">
         <v>2010</v>
       </c>
-      <c r="M4" s="112">
+      <c r="M4" s="111">
         <v>2011</v>
       </c>
-      <c r="N4" s="112">
+      <c r="N4" s="111">
         <v>2012</v>
       </c>
-      <c r="O4" s="112">
+      <c r="O4" s="111">
         <v>2013</v>
       </c>
-      <c r="P4" s="112">
+      <c r="P4" s="111">
         <v>2014</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C5">
         <v>34</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5" s="117">
         <f>C5</f>
         <v>34</v>
       </c>
-      <c r="E5" s="118">
+      <c r="E5" s="117">
         <f>D5</f>
         <v>34</v>
       </c>
       <c r="F5">
         <v>36</v>
       </c>
-      <c r="G5" s="118">
+      <c r="G5" s="117">
         <f t="shared" ref="G5:H5" si="0">F5</f>
         <v>36</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="117">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="I5">
         <v>37</v>
       </c>
-      <c r="J5" s="118">
+      <c r="J5" s="117">
         <f t="shared" ref="J5:K5" si="1">I5</f>
         <v>37</v>
       </c>
-      <c r="K5" s="118">
+      <c r="K5" s="117">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="L5">
         <v>40</v>
       </c>
-      <c r="M5" s="118">
+      <c r="M5" s="117">
         <f t="shared" ref="M5:O5" si="2">L5</f>
         <v>40</v>
       </c>
-      <c r="N5" s="118">
+      <c r="N5" s="117">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="O5" s="118">
+      <c r="O5" s="117">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -11276,13 +11276,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28">
@@ -11290,27 +11290,35 @@
         <v>74</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>2369</v>
+      </c>
+    </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="112"/>
-      <c r="C4" s="112">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111">
         <v>2010</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="111">
         <v>2011</v>
       </c>
-      <c r="E4" s="112">
+      <c r="E4" s="111">
         <v>2012</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="111">
         <v>2013</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="111">
         <v>2014</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11330,7 +11338,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -11350,7 +11358,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C7">
         <f>SUM(C5:C6)</f>
@@ -11374,21 +11382,21 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20">
-      <c r="B9" s="87" t="s">
-        <v>2335</v>
+      <c r="B9" s="86" t="s">
+        <v>2334</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="111" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C10" s="115" t="s">
         <v>2333</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -11396,7 +11404,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -11404,7 +11412,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C13">
         <v>32</v>
@@ -11412,7 +11420,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -11420,7 +11428,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -11428,15 +11436,15 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="86" t="s">
-        <v>2336</v>
+      <c r="B19" s="85" t="s">
+        <v>2335</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -11448,12 +11456,15 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="117">
+      <c r="B21" s="116">
         <f>B20/C20</f>
         <v>4.6999999999999999E-4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -11469,10 +11480,10 @@
   <dimension ref="A3:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12618,42 +12629,42 @@
     </row>
     <row r="49" spans="2:10" s="38" customFormat="1" thickBot="1"/>
     <row r="50" spans="2:10">
-      <c r="B50" s="134"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="136"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="141"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="139"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="144"/>
     </row>
     <row r="52" spans="2:10" ht="16" thickBot="1">
-      <c r="B52" s="140"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="142"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="147"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="148" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="33"/>
@@ -12673,12 +12684,12 @@
       <c r="I53" s="6">
         <v>2.9</v>
       </c>
-      <c r="J53" s="146" t="s">
+      <c r="J53" s="151" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="22">
-      <c r="B54" s="144"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="53" t="s">
@@ -12694,10 +12705,10 @@
       <c r="I54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="147"/>
+      <c r="J54" s="152"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="144"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="53" t="s">
@@ -12709,10 +12720,10 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="147"/>
+      <c r="J55" s="152"/>
     </row>
     <row r="56" spans="2:10" ht="16" thickBot="1">
-      <c r="B56" s="145"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="54"/>
@@ -12722,27 +12733,27 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="148"/>
+      <c r="J56" s="153"/>
     </row>
     <row r="57" spans="2:10" ht="22">
-      <c r="B57" s="131" t="s">
+      <c r="B57" s="136" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
-      <c r="E57" s="149" t="s">
+      <c r="E57" s="154" t="s">
         <v>53</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="152" t="s">
+      <c r="G57" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="152" t="s">
+      <c r="H57" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="I57" s="152">
+      <c r="I57" s="157">
         <v>92.2</v>
       </c>
       <c r="J57" s="4" t="s">
@@ -12750,133 +12761,133 @@
       </c>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="132"/>
+      <c r="B58" s="137"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="150"/>
+      <c r="E58" s="155"/>
       <c r="F58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G58" s="153"/>
-      <c r="H58" s="153"/>
-      <c r="I58" s="153"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="2:10" ht="77">
-      <c r="B59" s="132"/>
+      <c r="B59" s="137"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
-      <c r="E59" s="150"/>
+      <c r="E59" s="155"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="153"/>
-      <c r="I59" s="153"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
       <c r="J59" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="132"/>
+      <c r="B60" s="137"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
-      <c r="E60" s="150"/>
+      <c r="E60" s="155"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
+      <c r="G60" s="158"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
       <c r="J60" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="22">
-      <c r="B61" s="132"/>
+      <c r="B61" s="137"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="150"/>
+      <c r="E61" s="155"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
+      <c r="G61" s="158"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
       <c r="J61" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="132"/>
+      <c r="B62" s="137"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
-      <c r="E62" s="150"/>
+      <c r="E62" s="155"/>
       <c r="F62" s="11"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
+      <c r="G62" s="158"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="2:10" ht="66">
-      <c r="B63" s="132"/>
+      <c r="B63" s="137"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
-      <c r="E63" s="150"/>
+      <c r="E63" s="155"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="153"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
       <c r="J63" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="22">
-      <c r="B64" s="132"/>
+      <c r="B64" s="137"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="150"/>
+      <c r="E64" s="155"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
-      <c r="I64" s="153"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
       <c r="J64" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="132"/>
+      <c r="B65" s="137"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
-      <c r="E65" s="150"/>
+      <c r="E65" s="155"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="153"/>
-      <c r="H65" s="153"/>
-      <c r="I65" s="153"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="2:10" ht="55">
-      <c r="B66" s="132"/>
+      <c r="B66" s="137"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
-      <c r="E66" s="150"/>
+      <c r="E66" s="155"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="153"/>
-      <c r="H66" s="153"/>
-      <c r="I66" s="153"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
       <c r="J66" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="23" thickBot="1">
-      <c r="B67" s="133"/>
+      <c r="B67" s="138"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="151"/>
+      <c r="E67" s="156"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
       <c r="J67" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="131" t="s">
+      <c r="B68" s="136" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="36"/>
@@ -12901,7 +12912,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" ht="55">
-      <c r="B69" s="132"/>
+      <c r="B69" s="137"/>
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
       <c r="E69" s="47"/>
@@ -12922,7 +12933,7 @@
       </c>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="132"/>
+      <c r="B70" s="137"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="47" t="s">
@@ -12935,7 +12946,7 @@
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="132"/>
+      <c r="B71" s="137"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
       <c r="E71" s="47"/>
@@ -12948,7 +12959,7 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="132"/>
+      <c r="B72" s="137"/>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
       <c r="E72" s="52"/>
@@ -12961,7 +12972,7 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="132"/>
+      <c r="B73" s="137"/>
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
       <c r="E73" s="52"/>
@@ -12974,7 +12985,7 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="132"/>
+      <c r="B74" s="137"/>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="52"/>
@@ -12985,7 +12996,7 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="2:10" ht="16" thickBot="1">
-      <c r="B75" s="133"/>
+      <c r="B75" s="138"/>
       <c r="C75" s="31"/>
       <c r="D75" s="31"/>
       <c r="E75" s="48"/>
@@ -12996,7 +13007,7 @@
       <c r="J75" s="12"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="131" t="s">
+      <c r="B76" s="136" t="s">
         <v>105</v>
       </c>
       <c r="C76" s="36"/>
@@ -13021,7 +13032,7 @@
       </c>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="132"/>
+      <c r="B77" s="137"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
       <c r="E77" s="47"/>
@@ -13040,7 +13051,7 @@
       </c>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="132"/>
+      <c r="B78" s="137"/>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
       <c r="E78" s="47" t="s">
@@ -13055,7 +13066,7 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="2:10" ht="16" thickBot="1">
-      <c r="B79" s="133"/>
+      <c r="B79" s="138"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
       <c r="E79" s="48"/>
@@ -13072,7 +13083,7 @@
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="143" t="s">
+      <c r="B80" s="148" t="s">
         <v>110</v>
       </c>
       <c r="C80" s="33"/>
@@ -13083,10 +13094,10 @@
       <c r="F80" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G80" s="146">
+      <c r="G80" s="151">
         <v>96</v>
       </c>
-      <c r="H80" s="146">
+      <c r="H80" s="151">
         <v>92</v>
       </c>
       <c r="I80" s="6" t="s">
@@ -13097,15 +13108,15 @@
       </c>
     </row>
     <row r="81" spans="2:10" ht="55">
-      <c r="B81" s="144"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="49"/>
       <c r="F81" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G81" s="147"/>
-      <c r="H81" s="147"/>
+      <c r="G81" s="152"/>
+      <c r="H81" s="152"/>
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
@@ -13114,37 +13125,37 @@
       </c>
     </row>
     <row r="82" spans="2:10" ht="22">
-      <c r="B82" s="144"/>
+      <c r="B82" s="149"/>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="49" t="s">
         <v>112</v>
       </c>
       <c r="F82" s="6"/>
-      <c r="G82" s="147"/>
-      <c r="H82" s="147"/>
+      <c r="G82" s="152"/>
+      <c r="H82" s="152"/>
       <c r="I82" s="6" t="s">
         <v>117</v>
       </c>
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="144"/>
+      <c r="B83" s="149"/>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="49"/>
       <c r="F83" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147"/>
+      <c r="G83" s="152"/>
+      <c r="H83" s="152"/>
       <c r="I83" s="6" t="s">
         <v>118</v>
       </c>
       <c r="J83" s="7"/>
     </row>
     <row r="84" spans="2:10" ht="22">
-      <c r="B84" s="144"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="49" t="s">
@@ -13153,47 +13164,47 @@
       <c r="F84" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="147"/>
-      <c r="H84" s="147"/>
+      <c r="G84" s="152"/>
+      <c r="H84" s="152"/>
       <c r="I84" s="6" t="s">
         <v>119</v>
       </c>
       <c r="J84" s="7"/>
     </row>
     <row r="85" spans="2:10" ht="33">
-      <c r="B85" s="144"/>
+      <c r="B85" s="149"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="49"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="147"/>
+      <c r="G85" s="152"/>
+      <c r="H85" s="152"/>
       <c r="I85" s="6" t="s">
         <v>120</v>
       </c>
       <c r="J85" s="7"/>
     </row>
     <row r="86" spans="2:10" ht="16" thickBot="1">
-      <c r="B86" s="145"/>
+      <c r="B86" s="150"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="54"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
+      <c r="G86" s="153"/>
+      <c r="H86" s="153"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="131" t="s">
+      <c r="B87" s="136" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
-      <c r="E87" s="149" t="s">
+      <c r="E87" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="F87" s="152" t="s">
+      <c r="F87" s="157" t="s">
         <v>124</v>
       </c>
       <c r="G87" s="4">
@@ -13202,48 +13213,48 @@
       <c r="H87" s="4">
         <v>70</v>
       </c>
-      <c r="I87" s="152" t="s">
+      <c r="I87" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="J87" s="152" t="s">
+      <c r="J87" s="157" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="132"/>
+      <c r="B88" s="137"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
-      <c r="E88" s="150"/>
-      <c r="F88" s="153"/>
+      <c r="E88" s="155"/>
+      <c r="F88" s="158"/>
       <c r="G88" s="4" t="s">
         <v>101</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I88" s="153"/>
-      <c r="J88" s="153"/>
+      <c r="I88" s="158"/>
+      <c r="J88" s="158"/>
     </row>
     <row r="89" spans="2:10" ht="45" thickBot="1">
-      <c r="B89" s="133"/>
+      <c r="B89" s="138"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="151"/>
-      <c r="F89" s="154"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="159"/>
       <c r="G89" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H89" s="12"/>
-      <c r="I89" s="154"/>
-      <c r="J89" s="154"/>
+      <c r="I89" s="159"/>
+      <c r="J89" s="159"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="131" t="s">
+      <c r="B90" s="136" t="s">
         <v>126</v>
       </c>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
-      <c r="E90" s="149" t="s">
+      <c r="E90" s="154" t="s">
         <v>123</v>
       </c>
       <c r="F90" s="4" t="s">
@@ -13255,18 +13266,18 @@
       <c r="H90" s="4">
         <v>10.5</v>
       </c>
-      <c r="I90" s="152" t="s">
+      <c r="I90" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="J90" s="152" t="s">
+      <c r="J90" s="157" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="132"/>
+      <c r="B91" s="137"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
-      <c r="E91" s="150"/>
+      <c r="E91" s="155"/>
       <c r="F91" s="4" t="s">
         <v>127</v>
       </c>
@@ -13274,25 +13285,25 @@
         <v>101</v>
       </c>
       <c r="H91" s="4"/>
-      <c r="I91" s="153"/>
-      <c r="J91" s="153"/>
+      <c r="I91" s="158"/>
+      <c r="J91" s="158"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="132"/>
+      <c r="B92" s="137"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
-      <c r="E92" s="150"/>
+      <c r="E92" s="155"/>
       <c r="F92" s="11"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="153"/>
-      <c r="J92" s="153"/>
+      <c r="I92" s="158"/>
+      <c r="J92" s="158"/>
     </row>
     <row r="93" spans="2:10" ht="16" thickBot="1">
-      <c r="B93" s="133"/>
+      <c r="B93" s="138"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="151"/>
+      <c r="E93" s="156"/>
       <c r="F93" s="12"/>
       <c r="G93" s="2">
         <v>7.2</v>
@@ -13300,8 +13311,8 @@
       <c r="H93" s="2">
         <v>16.2</v>
       </c>
-      <c r="I93" s="154"/>
-      <c r="J93" s="154"/>
+      <c r="I93" s="159"/>
+      <c r="J93" s="159"/>
     </row>
     <row r="94" spans="2:10" ht="16" thickBot="1">
       <c r="B94" s="19" t="s">
@@ -13329,12 +13340,12 @@
       </c>
     </row>
     <row r="95" spans="2:10" ht="66">
-      <c r="B95" s="131" t="s">
+      <c r="B95" s="136" t="s">
         <v>130</v>
       </c>
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
-      <c r="E95" s="149" t="s">
+      <c r="E95" s="154" t="s">
         <v>131</v>
       </c>
       <c r="F95" s="5" t="s">
@@ -13343,10 +13354,10 @@
       <c r="G95" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H95" s="152" t="s">
+      <c r="H95" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="I95" s="152" t="s">
+      <c r="I95" s="157" t="s">
         <v>24</v>
       </c>
       <c r="J95" s="4" t="s">
@@ -13354,150 +13365,150 @@
       </c>
     </row>
     <row r="96" spans="2:10" ht="22">
-      <c r="B96" s="132"/>
+      <c r="B96" s="137"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
-      <c r="E96" s="150"/>
+      <c r="E96" s="155"/>
       <c r="F96" s="5" t="s">
         <v>133</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H96" s="153"/>
-      <c r="I96" s="153"/>
+      <c r="H96" s="158"/>
+      <c r="I96" s="158"/>
       <c r="J96" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="132"/>
+      <c r="B97" s="137"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
-      <c r="E97" s="150"/>
+      <c r="E97" s="155"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H97" s="153"/>
-      <c r="I97" s="153"/>
+      <c r="H97" s="158"/>
+      <c r="I97" s="158"/>
       <c r="J97" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="44">
-      <c r="B98" s="132"/>
+      <c r="B98" s="137"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
-      <c r="E98" s="150"/>
+      <c r="E98" s="155"/>
       <c r="F98" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H98" s="153"/>
-      <c r="I98" s="153"/>
+      <c r="H98" s="158"/>
+      <c r="I98" s="158"/>
       <c r="J98" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="99" spans="2:10" ht="22">
-      <c r="B99" s="132"/>
+      <c r="B99" s="137"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
-      <c r="E99" s="150"/>
+      <c r="E99" s="155"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H99" s="153"/>
-      <c r="I99" s="153"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
       <c r="J99" s="11"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="132"/>
+      <c r="B100" s="137"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
-      <c r="E100" s="150"/>
+      <c r="E100" s="155"/>
       <c r="F100" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="153"/>
-      <c r="I100" s="153"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="158"/>
       <c r="J100" s="11"/>
     </row>
     <row r="101" spans="2:10" ht="44">
-      <c r="B101" s="132"/>
+      <c r="B101" s="137"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
-      <c r="E101" s="150"/>
+      <c r="E101" s="155"/>
       <c r="F101" s="11"/>
       <c r="G101" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H101" s="153"/>
-      <c r="I101" s="153"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="158"/>
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="2:10" ht="22">
-      <c r="B102" s="132"/>
+      <c r="B102" s="137"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
-      <c r="E102" s="150"/>
+      <c r="E102" s="155"/>
       <c r="F102" s="11"/>
       <c r="G102" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H102" s="153"/>
-      <c r="I102" s="153"/>
+      <c r="H102" s="158"/>
+      <c r="I102" s="158"/>
       <c r="J102" s="11"/>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="132"/>
+      <c r="B103" s="137"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
-      <c r="E103" s="150"/>
+      <c r="E103" s="155"/>
       <c r="F103" s="11"/>
       <c r="G103" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H103" s="153"/>
-      <c r="I103" s="153"/>
+      <c r="H103" s="158"/>
+      <c r="I103" s="158"/>
       <c r="J103" s="11"/>
     </row>
     <row r="104" spans="2:10" ht="22">
-      <c r="B104" s="132"/>
+      <c r="B104" s="137"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
-      <c r="E104" s="150"/>
+      <c r="E104" s="155"/>
       <c r="F104" s="11"/>
       <c r="G104" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H104" s="153"/>
-      <c r="I104" s="153"/>
+      <c r="H104" s="158"/>
+      <c r="I104" s="158"/>
       <c r="J104" s="11"/>
     </row>
     <row r="105" spans="2:10" ht="16" thickBot="1">
-      <c r="B105" s="133"/>
+      <c r="B105" s="138"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
-      <c r="E105" s="151"/>
+      <c r="E105" s="156"/>
       <c r="F105" s="12"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="154"/>
-      <c r="I105" s="154"/>
+      <c r="H105" s="159"/>
+      <c r="I105" s="159"/>
       <c r="J105" s="12"/>
     </row>
     <row r="106" spans="2:10" ht="22">
-      <c r="B106" s="131" t="s">
+      <c r="B106" s="136" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
-      <c r="E106" s="149" t="s">
+      <c r="E106" s="154" t="s">
         <v>131</v>
       </c>
       <c r="F106" s="4" t="s">
@@ -13517,10 +13528,10 @@
       </c>
     </row>
     <row r="107" spans="2:10" ht="56" thickBot="1">
-      <c r="B107" s="133"/>
+      <c r="B107" s="138"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
-      <c r="E107" s="151"/>
+      <c r="E107" s="156"/>
       <c r="F107" s="13" t="s">
         <v>150</v>
       </c>
@@ -13543,15 +13554,15 @@
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
-      <c r="E108" s="149" t="s">
+      <c r="E108" s="154" t="s">
         <v>131</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G108" s="152"/>
-      <c r="H108" s="152"/>
-      <c r="I108" s="152"/>
+      <c r="G108" s="157"/>
+      <c r="H108" s="157"/>
+      <c r="I108" s="157"/>
       <c r="J108" s="4" t="s">
         <v>156</v>
       </c>
@@ -13562,13 +13573,13 @@
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
-      <c r="E109" s="150"/>
+      <c r="E109" s="155"/>
       <c r="F109" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="153"/>
-      <c r="H109" s="153"/>
-      <c r="I109" s="153"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="158"/>
+      <c r="I109" s="158"/>
       <c r="J109" s="4" t="s">
         <v>157</v>
       </c>
@@ -13577,11 +13588,11 @@
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
-      <c r="E110" s="150"/>
+      <c r="E110" s="155"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="153"/>
-      <c r="H110" s="153"/>
-      <c r="I110" s="153"/>
+      <c r="G110" s="158"/>
+      <c r="H110" s="158"/>
+      <c r="I110" s="158"/>
       <c r="J110" s="4" t="s">
         <v>158</v>
       </c>
@@ -13590,11 +13601,11 @@
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
-      <c r="E111" s="151"/>
+      <c r="E111" s="156"/>
       <c r="F111" s="12"/>
-      <c r="G111" s="154"/>
-      <c r="H111" s="154"/>
-      <c r="I111" s="154"/>
+      <c r="G111" s="159"/>
+      <c r="H111" s="159"/>
+      <c r="I111" s="159"/>
       <c r="J111" s="2" t="s">
         <v>159</v>
       </c>
@@ -13623,75 +13634,75 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="33">
-      <c r="B113" s="131" t="s">
+      <c r="B113" s="136" t="s">
         <v>164</v>
       </c>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
-      <c r="E113" s="149" t="s">
+      <c r="E113" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="F113" s="152" t="s">
+      <c r="F113" s="157" t="s">
         <v>165</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H113" s="152" t="s">
+      <c r="H113" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="I113" s="152" t="s">
+      <c r="I113" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="J113" s="152"/>
+      <c r="J113" s="157"/>
     </row>
     <row r="114" spans="1:10" ht="23" thickBot="1">
-      <c r="B114" s="133"/>
+      <c r="B114" s="138"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
-      <c r="E114" s="151"/>
-      <c r="F114" s="154"/>
+      <c r="E114" s="156"/>
+      <c r="F114" s="159"/>
       <c r="G114" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H114" s="154"/>
-      <c r="I114" s="154"/>
-      <c r="J114" s="154"/>
+      <c r="H114" s="159"/>
+      <c r="I114" s="159"/>
+      <c r="J114" s="159"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="B115" s="134"/>
-      <c r="C115" s="135"/>
-      <c r="D115" s="135"/>
-      <c r="E115" s="135"/>
-      <c r="F115" s="135"/>
-      <c r="G115" s="135"/>
-      <c r="H115" s="135"/>
-      <c r="I115" s="135"/>
-      <c r="J115" s="136"/>
+      <c r="B115" s="139"/>
+      <c r="C115" s="140"/>
+      <c r="D115" s="140"/>
+      <c r="E115" s="140"/>
+      <c r="F115" s="140"/>
+      <c r="G115" s="140"/>
+      <c r="H115" s="140"/>
+      <c r="I115" s="140"/>
+      <c r="J115" s="141"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="B116" s="137" t="s">
+      <c r="B116" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="138"/>
-      <c r="D116" s="138"/>
-      <c r="E116" s="138"/>
-      <c r="F116" s="138"/>
-      <c r="G116" s="138"/>
-      <c r="H116" s="138"/>
-      <c r="I116" s="138"/>
-      <c r="J116" s="139"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="143"/>
+      <c r="E116" s="143"/>
+      <c r="F116" s="143"/>
+      <c r="G116" s="143"/>
+      <c r="H116" s="143"/>
+      <c r="I116" s="143"/>
+      <c r="J116" s="144"/>
     </row>
     <row r="117" spans="1:10" ht="16" thickBot="1">
-      <c r="B117" s="140"/>
-      <c r="C117" s="141"/>
-      <c r="D117" s="141"/>
-      <c r="E117" s="141"/>
-      <c r="F117" s="141"/>
-      <c r="G117" s="141"/>
-      <c r="H117" s="141"/>
-      <c r="I117" s="141"/>
-      <c r="J117" s="142"/>
+      <c r="B117" s="145"/>
+      <c r="C117" s="146"/>
+      <c r="D117" s="146"/>
+      <c r="E117" s="146"/>
+      <c r="F117" s="146"/>
+      <c r="G117" s="146"/>
+      <c r="H117" s="146"/>
+      <c r="I117" s="146"/>
+      <c r="J117" s="147"/>
     </row>
     <row r="118" spans="1:10" ht="33">
       <c r="B118" s="28" t="s">
@@ -13877,47 +13888,47 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="B128" s="134"/>
-      <c r="C128" s="135"/>
-      <c r="D128" s="135"/>
-      <c r="E128" s="135"/>
-      <c r="F128" s="135"/>
-      <c r="G128" s="135"/>
-      <c r="H128" s="135"/>
-      <c r="I128" s="135"/>
-      <c r="J128" s="136"/>
+      <c r="B128" s="139"/>
+      <c r="C128" s="140"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="140"/>
+      <c r="G128" s="140"/>
+      <c r="H128" s="140"/>
+      <c r="I128" s="140"/>
+      <c r="J128" s="141"/>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="137" t="s">
+      <c r="B129" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="C129" s="138"/>
-      <c r="D129" s="138"/>
-      <c r="E129" s="138"/>
-      <c r="F129" s="138"/>
-      <c r="G129" s="138"/>
-      <c r="H129" s="138"/>
-      <c r="I129" s="138"/>
-      <c r="J129" s="139"/>
+      <c r="C129" s="143"/>
+      <c r="D129" s="143"/>
+      <c r="E129" s="143"/>
+      <c r="F129" s="143"/>
+      <c r="G129" s="143"/>
+      <c r="H129" s="143"/>
+      <c r="I129" s="143"/>
+      <c r="J129" s="144"/>
     </row>
     <row r="130" spans="2:10" ht="16" thickBot="1">
-      <c r="B130" s="140"/>
-      <c r="C130" s="141"/>
-      <c r="D130" s="141"/>
-      <c r="E130" s="141"/>
-      <c r="F130" s="141"/>
-      <c r="G130" s="141"/>
-      <c r="H130" s="141"/>
-      <c r="I130" s="141"/>
-      <c r="J130" s="142"/>
+      <c r="B130" s="145"/>
+      <c r="C130" s="146"/>
+      <c r="D130" s="146"/>
+      <c r="E130" s="146"/>
+      <c r="F130" s="146"/>
+      <c r="G130" s="146"/>
+      <c r="H130" s="146"/>
+      <c r="I130" s="146"/>
+      <c r="J130" s="147"/>
     </row>
     <row r="131" spans="2:10">
-      <c r="B131" s="143" t="s">
+      <c r="B131" s="148" t="s">
         <v>189</v>
       </c>
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
-      <c r="E131" s="155" t="s">
+      <c r="E131" s="160" t="s">
         <v>190</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -13926,54 +13937,54 @@
       <c r="G131" s="16">
         <v>0.44</v>
       </c>
-      <c r="H131" s="146" t="s">
+      <c r="H131" s="151" t="s">
         <v>194</v>
       </c>
-      <c r="I131" s="146" t="s">
+      <c r="I131" s="151" t="s">
         <v>194</v>
       </c>
-      <c r="J131" s="146" t="s">
+      <c r="J131" s="151" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="144"/>
+      <c r="B132" s="149"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
-      <c r="E132" s="156"/>
+      <c r="E132" s="161"/>
       <c r="F132" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G132" s="6"/>
-      <c r="H132" s="147"/>
-      <c r="I132" s="147"/>
-      <c r="J132" s="147"/>
+      <c r="H132" s="152"/>
+      <c r="I132" s="152"/>
+      <c r="J132" s="152"/>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="144"/>
+      <c r="B133" s="149"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
-      <c r="E133" s="156"/>
+      <c r="E133" s="161"/>
       <c r="F133" s="6"/>
       <c r="G133" s="16">
         <v>0.41</v>
       </c>
-      <c r="H133" s="147"/>
-      <c r="I133" s="147"/>
-      <c r="J133" s="147"/>
+      <c r="H133" s="152"/>
+      <c r="I133" s="152"/>
+      <c r="J133" s="152"/>
     </row>
     <row r="134" spans="2:10" ht="16" thickBot="1">
-      <c r="B134" s="145"/>
+      <c r="B134" s="150"/>
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
-      <c r="E134" s="157"/>
+      <c r="E134" s="162"/>
       <c r="F134" s="14" t="s">
         <v>193</v>
       </c>
       <c r="G134" s="10"/>
-      <c r="H134" s="148"/>
-      <c r="I134" s="148"/>
-      <c r="J134" s="148"/>
+      <c r="H134" s="153"/>
+      <c r="I134" s="153"/>
+      <c r="J134" s="153"/>
     </row>
     <row r="135" spans="2:10" ht="56" thickBot="1">
       <c r="B135" s="21" t="s">
@@ -14001,43 +14012,43 @@
       </c>
     </row>
     <row r="136" spans="2:10" ht="179" customHeight="1">
-      <c r="B136" s="143" t="s">
+      <c r="B136" s="148" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
-      <c r="E136" s="155" t="s">
+      <c r="E136" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="F136" s="158" t="s">
+      <c r="F136" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="G136" s="146" t="s">
+      <c r="G136" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H136" s="146" t="s">
+      <c r="H136" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="I136" s="146" t="s">
+      <c r="I136" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="J136" s="146" t="s">
+      <c r="J136" s="151" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="137" spans="2:10" ht="16" thickBot="1">
-      <c r="B137" s="145"/>
+      <c r="B137" s="150"/>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
-      <c r="E137" s="157"/>
-      <c r="F137" s="159"/>
-      <c r="G137" s="148"/>
-      <c r="H137" s="148"/>
-      <c r="I137" s="148"/>
-      <c r="J137" s="148"/>
+      <c r="E137" s="162"/>
+      <c r="F137" s="164"/>
+      <c r="G137" s="153"/>
+      <c r="H137" s="153"/>
+      <c r="I137" s="153"/>
+      <c r="J137" s="153"/>
     </row>
     <row r="138" spans="2:10" ht="66">
-      <c r="B138" s="143" t="s">
+      <c r="B138" s="148" t="s">
         <v>202</v>
       </c>
       <c r="C138" s="33"/>
@@ -14051,10 +14062,10 @@
       <c r="G138" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H138" s="146" t="s">
+      <c r="H138" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="I138" s="146" t="s">
+      <c r="I138" s="151" t="s">
         <v>176</v>
       </c>
       <c r="J138" s="6" t="s">
@@ -14062,7 +14073,7 @@
       </c>
     </row>
     <row r="139" spans="2:10" ht="22">
-      <c r="B139" s="144"/>
+      <c r="B139" s="149"/>
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="49" t="s">
@@ -14072,14 +14083,14 @@
       <c r="G139" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H139" s="147"/>
-      <c r="I139" s="147"/>
+      <c r="H139" s="152"/>
+      <c r="I139" s="152"/>
       <c r="J139" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="140" spans="2:10">
-      <c r="B140" s="144"/>
+      <c r="B140" s="149"/>
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="49"/>
@@ -14087,14 +14098,14 @@
         <v>4</v>
       </c>
       <c r="G140" s="7"/>
-      <c r="H140" s="147"/>
-      <c r="I140" s="147"/>
+      <c r="H140" s="152"/>
+      <c r="I140" s="152"/>
       <c r="J140" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="22">
-      <c r="B141" s="144"/>
+      <c r="B141" s="149"/>
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="56"/>
@@ -14102,25 +14113,25 @@
         <v>205</v>
       </c>
       <c r="G141" s="7"/>
-      <c r="H141" s="147"/>
-      <c r="I141" s="147"/>
+      <c r="H141" s="152"/>
+      <c r="I141" s="152"/>
       <c r="J141" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="16" thickBot="1">
-      <c r="B142" s="145"/>
+      <c r="B142" s="150"/>
       <c r="C142" s="34"/>
       <c r="D142" s="34"/>
       <c r="E142" s="50"/>
       <c r="F142" s="10"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="148"/>
-      <c r="I142" s="148"/>
+      <c r="H142" s="153"/>
+      <c r="I142" s="153"/>
       <c r="J142" s="10"/>
     </row>
     <row r="143" spans="2:10" ht="33">
-      <c r="B143" s="143" t="s">
+      <c r="B143" s="148" t="s">
         <v>210</v>
       </c>
       <c r="C143" s="33"/>
@@ -14131,13 +14142,13 @@
       <c r="F143" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G143" s="146" t="s">
+      <c r="G143" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="H143" s="146" t="s">
+      <c r="H143" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="I143" s="146" t="s">
+      <c r="I143" s="151" t="s">
         <v>24</v>
       </c>
       <c r="J143" s="6" t="s">
@@ -14145,7 +14156,7 @@
       </c>
     </row>
     <row r="144" spans="2:10">
-      <c r="B144" s="144"/>
+      <c r="B144" s="149"/>
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="49" t="s">
@@ -14154,37 +14165,37 @@
       <c r="F144" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="147"/>
-      <c r="H144" s="147"/>
-      <c r="I144" s="147"/>
+      <c r="G144" s="152"/>
+      <c r="H144" s="152"/>
+      <c r="I144" s="152"/>
       <c r="J144" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="22">
-      <c r="B145" s="144"/>
+      <c r="B145" s="149"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="49"/>
       <c r="F145" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="G145" s="147"/>
-      <c r="H145" s="147"/>
-      <c r="I145" s="147"/>
+      <c r="G145" s="152"/>
+      <c r="H145" s="152"/>
+      <c r="I145" s="152"/>
       <c r="J145" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16" thickBot="1">
-      <c r="B146" s="145"/>
+      <c r="B146" s="150"/>
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
       <c r="E146" s="50"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="148"/>
-      <c r="H146" s="148"/>
-      <c r="I146" s="148"/>
+      <c r="G146" s="153"/>
+      <c r="H146" s="153"/>
+      <c r="I146" s="153"/>
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="1:10" ht="16" thickBot="1">
@@ -14210,125 +14221,125 @@
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="B148" s="134"/>
-      <c r="C148" s="135"/>
-      <c r="D148" s="135"/>
-      <c r="E148" s="135"/>
-      <c r="F148" s="135"/>
-      <c r="G148" s="135"/>
-      <c r="H148" s="135"/>
-      <c r="I148" s="135"/>
-      <c r="J148" s="136"/>
+      <c r="B148" s="139"/>
+      <c r="C148" s="140"/>
+      <c r="D148" s="140"/>
+      <c r="E148" s="140"/>
+      <c r="F148" s="140"/>
+      <c r="G148" s="140"/>
+      <c r="H148" s="140"/>
+      <c r="I148" s="140"/>
+      <c r="J148" s="141"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="B149" s="137" t="s">
+      <c r="B149" s="142" t="s">
         <v>219</v>
       </c>
-      <c r="C149" s="138"/>
-      <c r="D149" s="138"/>
-      <c r="E149" s="138"/>
-      <c r="F149" s="138"/>
-      <c r="G149" s="138"/>
-      <c r="H149" s="138"/>
-      <c r="I149" s="138"/>
-      <c r="J149" s="139"/>
+      <c r="C149" s="143"/>
+      <c r="D149" s="143"/>
+      <c r="E149" s="143"/>
+      <c r="F149" s="143"/>
+      <c r="G149" s="143"/>
+      <c r="H149" s="143"/>
+      <c r="I149" s="143"/>
+      <c r="J149" s="144"/>
     </row>
     <row r="150" spans="1:10" ht="16" thickBot="1">
-      <c r="B150" s="140"/>
-      <c r="C150" s="141"/>
-      <c r="D150" s="141"/>
-      <c r="E150" s="141"/>
-      <c r="F150" s="141"/>
-      <c r="G150" s="141"/>
-      <c r="H150" s="141"/>
-      <c r="I150" s="141"/>
-      <c r="J150" s="142"/>
+      <c r="B150" s="145"/>
+      <c r="C150" s="146"/>
+      <c r="D150" s="146"/>
+      <c r="E150" s="146"/>
+      <c r="F150" s="146"/>
+      <c r="G150" s="146"/>
+      <c r="H150" s="146"/>
+      <c r="I150" s="146"/>
+      <c r="J150" s="147"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="B151" s="131" t="s">
+      <c r="B151" s="136" t="s">
         <v>15</v>
       </c>
       <c r="C151" s="35"/>
       <c r="D151" s="35"/>
-      <c r="E151" s="149"/>
+      <c r="E151" s="154"/>
       <c r="F151" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G151" s="152" t="s">
+      <c r="G151" s="157" t="s">
         <v>223</v>
       </c>
       <c r="H151" s="17">
         <v>1805853</v>
       </c>
-      <c r="I151" s="152" t="s">
+      <c r="I151" s="157" t="s">
         <v>225</v>
       </c>
-      <c r="J151" s="152" t="s">
+      <c r="J151" s="157" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="B152" s="132"/>
+      <c r="B152" s="137"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
-      <c r="E152" s="150"/>
+      <c r="E152" s="155"/>
       <c r="F152" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G152" s="153"/>
+      <c r="G152" s="158"/>
       <c r="H152" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="I152" s="153"/>
-      <c r="J152" s="153"/>
+      <c r="I152" s="158"/>
+      <c r="J152" s="158"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="B153" s="132"/>
+      <c r="B153" s="137"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
-      <c r="E153" s="150"/>
+      <c r="E153" s="155"/>
       <c r="F153" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G153" s="153"/>
+      <c r="G153" s="158"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="153"/>
-      <c r="J153" s="153"/>
+      <c r="I153" s="158"/>
+      <c r="J153" s="158"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="B154" s="132"/>
+      <c r="B154" s="137"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
-      <c r="E154" s="150"/>
+      <c r="E154" s="155"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="153"/>
+      <c r="G154" s="158"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="153"/>
-      <c r="J154" s="153"/>
+      <c r="I154" s="158"/>
+      <c r="J154" s="158"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="B155" s="132"/>
+      <c r="B155" s="137"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
-      <c r="E155" s="150"/>
+      <c r="E155" s="155"/>
       <c r="F155" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G155" s="153"/>
+      <c r="G155" s="158"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="153"/>
-      <c r="J155" s="153"/>
+      <c r="I155" s="158"/>
+      <c r="J155" s="158"/>
     </row>
     <row r="156" spans="1:10" ht="16" thickBot="1">
-      <c r="B156" s="133"/>
+      <c r="B156" s="138"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="151"/>
+      <c r="E156" s="156"/>
       <c r="F156" s="12"/>
-      <c r="G156" s="154"/>
+      <c r="G156" s="159"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="154"/>
-      <c r="J156" s="154"/>
+      <c r="I156" s="159"/>
+      <c r="J156" s="159"/>
     </row>
     <row r="157" spans="1:10" ht="45" thickBot="1">
       <c r="B157" s="19" t="s">
@@ -14354,128 +14365,128 @@
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="B158" s="131" t="s">
+      <c r="B158" s="136" t="s">
         <v>230</v>
       </c>
       <c r="C158" s="35"/>
       <c r="D158" s="35"/>
-      <c r="E158" s="149"/>
+      <c r="E158" s="154"/>
       <c r="F158" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G158" s="152">
+      <c r="G158" s="157">
         <v>0.86</v>
       </c>
-      <c r="H158" s="152">
+      <c r="H158" s="157">
         <v>0.79</v>
       </c>
-      <c r="I158" s="152">
+      <c r="I158" s="157">
         <v>0.71</v>
       </c>
-      <c r="J158" s="152">
+      <c r="J158" s="157">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16" thickBot="1">
-      <c r="B159" s="133"/>
+      <c r="B159" s="138"/>
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
-      <c r="E159" s="151"/>
+      <c r="E159" s="156"/>
       <c r="F159" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G159" s="154"/>
-      <c r="H159" s="154"/>
-      <c r="I159" s="154"/>
-      <c r="J159" s="154"/>
+      <c r="G159" s="159"/>
+      <c r="H159" s="159"/>
+      <c r="I159" s="159"/>
+      <c r="J159" s="159"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="B160" s="134"/>
-      <c r="C160" s="135"/>
-      <c r="D160" s="135"/>
-      <c r="E160" s="135"/>
-      <c r="F160" s="135"/>
-      <c r="G160" s="135"/>
-      <c r="H160" s="135"/>
-      <c r="I160" s="135"/>
-      <c r="J160" s="136"/>
+      <c r="B160" s="139"/>
+      <c r="C160" s="140"/>
+      <c r="D160" s="140"/>
+      <c r="E160" s="140"/>
+      <c r="F160" s="140"/>
+      <c r="G160" s="140"/>
+      <c r="H160" s="140"/>
+      <c r="I160" s="140"/>
+      <c r="J160" s="141"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="B161" s="137" t="s">
+      <c r="B161" s="142" t="s">
         <v>233</v>
       </c>
-      <c r="C161" s="138"/>
-      <c r="D161" s="138"/>
-      <c r="E161" s="138"/>
-      <c r="F161" s="138"/>
-      <c r="G161" s="138"/>
-      <c r="H161" s="138"/>
-      <c r="I161" s="138"/>
-      <c r="J161" s="139"/>
+      <c r="C161" s="143"/>
+      <c r="D161" s="143"/>
+      <c r="E161" s="143"/>
+      <c r="F161" s="143"/>
+      <c r="G161" s="143"/>
+      <c r="H161" s="143"/>
+      <c r="I161" s="143"/>
+      <c r="J161" s="144"/>
     </row>
     <row r="162" spans="1:10" ht="16" thickBot="1">
-      <c r="B162" s="140"/>
-      <c r="C162" s="141"/>
-      <c r="D162" s="141"/>
-      <c r="E162" s="141"/>
-      <c r="F162" s="141"/>
-      <c r="G162" s="141"/>
-      <c r="H162" s="141"/>
-      <c r="I162" s="141"/>
-      <c r="J162" s="142"/>
+      <c r="B162" s="145"/>
+      <c r="C162" s="146"/>
+      <c r="D162" s="146"/>
+      <c r="E162" s="146"/>
+      <c r="F162" s="146"/>
+      <c r="G162" s="146"/>
+      <c r="H162" s="146"/>
+      <c r="I162" s="146"/>
+      <c r="J162" s="147"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="B163" s="131" t="s">
+      <c r="B163" s="136" t="s">
         <v>234</v>
       </c>
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
-      <c r="E163" s="149" t="s">
+      <c r="E163" s="154" t="s">
         <v>235</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G163" s="152" t="s">
+      <c r="G163" s="157" t="s">
         <v>24</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I163" s="152" t="s">
+      <c r="I163" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="J163" s="160" t="s">
+      <c r="J163" s="165" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="33">
-      <c r="B164" s="132"/>
+      <c r="B164" s="137"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
-      <c r="E164" s="150"/>
+      <c r="E164" s="155"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="153"/>
+      <c r="G164" s="158"/>
       <c r="H164" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I164" s="153"/>
-      <c r="J164" s="161"/>
+      <c r="I164" s="158"/>
+      <c r="J164" s="166"/>
     </row>
     <row r="165" spans="1:10" ht="34" thickBot="1">
-      <c r="B165" s="133"/>
+      <c r="B165" s="138"/>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
-      <c r="E165" s="151"/>
+      <c r="E165" s="156"/>
       <c r="F165" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="G165" s="154"/>
+      <c r="G165" s="159"/>
       <c r="H165" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I165" s="154"/>
-      <c r="J165" s="162"/>
+      <c r="I165" s="159"/>
+      <c r="J165" s="167"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="37"/>
@@ -15797,11 +15808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T642"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C439" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C331" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B442" sqref="B442"/>
+      <selection pane="bottomRight" activeCell="S204" sqref="S204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22261,65 +22272,65 @@
       </c>
     </row>
     <row r="116" spans="1:20">
-      <c r="A116" s="167" t="s">
-        <v>403</v>
-      </c>
-      <c r="B116" s="167" t="s">
+      <c r="A116" s="133" t="s">
+        <v>403</v>
+      </c>
+      <c r="B116" s="133" t="s">
         <v>1445</v>
       </c>
-      <c r="C116" s="167" t="s">
+      <c r="C116" s="133" t="s">
         <v>1444</v>
       </c>
-      <c r="D116" s="168" t="s">
-        <v>399</v>
-      </c>
-      <c r="E116" s="168" t="s">
-        <v>399</v>
-      </c>
-      <c r="F116" s="168" t="s">
-        <v>399</v>
-      </c>
-      <c r="G116" s="168" t="s">
-        <v>399</v>
-      </c>
-      <c r="H116" s="168">
+      <c r="D116" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="E116" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="F116" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="G116" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="H116" s="134">
         <v>0</v>
       </c>
-      <c r="I116" s="168">
+      <c r="I116" s="134">
         <v>0</v>
       </c>
-      <c r="J116" s="168">
+      <c r="J116" s="134">
         <v>0</v>
       </c>
-      <c r="K116" s="168">
+      <c r="K116" s="134">
         <v>6.3108774451547694E-2</v>
       </c>
-      <c r="L116" s="168">
+      <c r="L116" s="134">
         <v>19.702274284054901</v>
       </c>
-      <c r="M116" s="168">
+      <c r="M116" s="134">
         <v>1.9507341812166401</v>
       </c>
-      <c r="N116" s="168">
+      <c r="N116" s="134">
         <v>1.7211844870235999</v>
       </c>
-      <c r="O116" s="168">
+      <c r="O116" s="134">
         <v>1.7895825093030899</v>
       </c>
-      <c r="P116" s="168">
+      <c r="P116" s="134">
         <v>2.11508251609165</v>
       </c>
-      <c r="Q116" s="168" t="s">
-        <v>399</v>
-      </c>
-      <c r="R116" s="168" t="s">
-        <v>399</v>
-      </c>
-      <c r="S116" s="169">
+      <c r="Q116" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="R116" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="S116" s="135">
         <v>1</v>
       </c>
-      <c r="T116" s="169" t="s">
-        <v>2367</v>
+      <c r="T116" s="135" t="s">
+        <v>2366</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -35015,189 +35026,189 @@
       </c>
     </row>
     <row r="343" spans="1:20">
-      <c r="A343" s="164" t="s">
-        <v>403</v>
-      </c>
-      <c r="B343" s="164" t="s">
+      <c r="A343" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="B343" s="130" t="s">
         <v>991</v>
       </c>
-      <c r="C343" s="164" t="s">
+      <c r="C343" s="130" t="s">
         <v>990</v>
       </c>
-      <c r="D343" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="E343" s="165">
+      <c r="D343" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="E343" s="131">
         <v>34.5</v>
       </c>
-      <c r="F343" s="165">
+      <c r="F343" s="131">
         <v>29.5</v>
       </c>
-      <c r="G343" s="165">
+      <c r="G343" s="131">
         <v>25.200000762939499</v>
       </c>
-      <c r="H343" s="165">
+      <c r="H343" s="131">
         <v>29.700000762939499</v>
       </c>
-      <c r="I343" s="165">
+      <c r="I343" s="131">
         <v>30.600000381469702</v>
       </c>
-      <c r="J343" s="165">
+      <c r="J343" s="131">
         <v>28.299999237060501</v>
       </c>
-      <c r="K343" s="165">
+      <c r="K343" s="131">
         <v>26.100000381469702</v>
       </c>
-      <c r="L343" s="165">
+      <c r="L343" s="131">
         <v>28.700000762939499</v>
       </c>
-      <c r="M343" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="N343" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="O343" s="165">
+      <c r="M343" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="N343" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="O343" s="131">
         <v>17.899999618530298</v>
       </c>
-      <c r="P343" s="165">
+      <c r="P343" s="131">
         <v>21.100000381469702</v>
       </c>
-      <c r="Q343" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="R343" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="S343" s="166">
+      <c r="Q343" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="R343" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="S343" s="132">
         <v>1</v>
       </c>
-      <c r="T343" s="166" t="s">
-        <v>2366</v>
+      <c r="T343" s="132" t="s">
+        <v>2365</v>
       </c>
     </row>
     <row r="344" spans="1:20">
-      <c r="A344" s="164" t="s">
-        <v>403</v>
-      </c>
-      <c r="B344" s="164" t="s">
+      <c r="A344" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="B344" s="130" t="s">
         <v>989</v>
       </c>
-      <c r="C344" s="164" t="s">
+      <c r="C344" s="130" t="s">
         <v>988</v>
       </c>
-      <c r="D344" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="E344" s="165">
+      <c r="D344" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="E344" s="131">
         <v>71.900001525878906</v>
       </c>
-      <c r="F344" s="165">
+      <c r="F344" s="131">
         <v>71.699996948242202</v>
       </c>
-      <c r="G344" s="165">
+      <c r="G344" s="131">
         <v>67.800003051757798</v>
       </c>
-      <c r="H344" s="165">
+      <c r="H344" s="131">
         <v>68.300003051757798</v>
       </c>
-      <c r="I344" s="165">
+      <c r="I344" s="131">
         <v>69.599998474121094</v>
       </c>
-      <c r="J344" s="165">
+      <c r="J344" s="131">
         <v>65.199996948242202</v>
       </c>
-      <c r="K344" s="165">
+      <c r="K344" s="131">
         <v>65.800003051757798</v>
       </c>
-      <c r="L344" s="165">
+      <c r="L344" s="131">
         <v>66.900001525878906</v>
       </c>
-      <c r="M344" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="N344" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="O344" s="165">
+      <c r="M344" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="N344" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="O344" s="131">
         <v>55.5</v>
       </c>
-      <c r="P344" s="165">
+      <c r="P344" s="131">
         <v>60.200000762939503</v>
       </c>
-      <c r="Q344" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="R344" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="S344" s="166">
+      <c r="Q344" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="R344" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="S344" s="132">
         <v>1</v>
       </c>
-      <c r="T344" s="166" t="s">
-        <v>2366</v>
+      <c r="T344" s="132" t="s">
+        <v>2365</v>
       </c>
     </row>
     <row r="345" spans="1:20">
-      <c r="A345" s="164" t="s">
-        <v>403</v>
-      </c>
-      <c r="B345" s="164" t="s">
+      <c r="A345" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="B345" s="130" t="s">
         <v>987</v>
       </c>
-      <c r="C345" s="164" t="s">
+      <c r="C345" s="130" t="s">
         <v>986</v>
       </c>
-      <c r="D345" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="E345" s="165">
+      <c r="D345" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="E345" s="131">
         <v>52.799999237060497</v>
       </c>
-      <c r="F345" s="165">
+      <c r="F345" s="131">
         <v>50.299999237060497</v>
       </c>
-      <c r="G345" s="165">
+      <c r="G345" s="131">
         <v>49.5</v>
       </c>
-      <c r="H345" s="165">
+      <c r="H345" s="131">
         <v>48.700000762939503</v>
       </c>
-      <c r="I345" s="165">
+      <c r="I345" s="131">
         <v>52.5</v>
       </c>
-      <c r="J345" s="165">
+      <c r="J345" s="131">
         <v>46.5</v>
       </c>
-      <c r="K345" s="165">
+      <c r="K345" s="131">
         <v>46</v>
       </c>
-      <c r="L345" s="165">
+      <c r="L345" s="131">
         <v>47.700000762939503</v>
       </c>
-      <c r="M345" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="N345" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="O345" s="165">
+      <c r="M345" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="N345" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="O345" s="131">
         <v>37.099998474121101</v>
       </c>
-      <c r="P345" s="165">
+      <c r="P345" s="131">
         <v>40.599998474121101</v>
       </c>
-      <c r="Q345" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="R345" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="S345" s="166">
+      <c r="Q345" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="R345" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="S345" s="132">
         <v>1</v>
       </c>
-      <c r="T345" s="166" t="s">
-        <v>2366</v>
+      <c r="T345" s="132" t="s">
+        <v>2365</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -35537,189 +35548,189 @@
       </c>
     </row>
     <row r="352" spans="1:20">
-      <c r="A352" s="164" t="s">
-        <v>403</v>
-      </c>
-      <c r="B352" s="164" t="s">
+      <c r="A352" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="B352" s="130" t="s">
         <v>973</v>
       </c>
-      <c r="C352" s="164" t="s">
+      <c r="C352" s="130" t="s">
         <v>972</v>
       </c>
-      <c r="D352" s="165">
+      <c r="D352" s="131">
         <v>70.2</v>
       </c>
-      <c r="E352" s="165">
+      <c r="E352" s="131">
         <v>70.3</v>
       </c>
-      <c r="F352" s="165">
+      <c r="F352" s="131">
         <v>70.5</v>
       </c>
-      <c r="G352" s="165">
+      <c r="G352" s="131">
         <v>70.7</v>
       </c>
-      <c r="H352" s="165">
+      <c r="H352" s="131">
         <v>71</v>
       </c>
-      <c r="I352" s="165">
+      <c r="I352" s="131">
         <v>71.2</v>
       </c>
-      <c r="J352" s="165">
+      <c r="J352" s="131">
         <v>71.400000000000006</v>
       </c>
-      <c r="K352" s="165">
+      <c r="K352" s="131">
         <v>71.599999999999994</v>
       </c>
-      <c r="L352" s="165">
+      <c r="L352" s="131">
         <v>71.8</v>
       </c>
-      <c r="M352" s="165">
+      <c r="M352" s="131">
         <v>72</v>
       </c>
-      <c r="N352" s="165">
+      <c r="N352" s="131">
         <v>72.3</v>
       </c>
-      <c r="O352" s="165">
+      <c r="O352" s="131">
         <v>72.7</v>
       </c>
-      <c r="P352" s="165">
+      <c r="P352" s="131">
         <v>73</v>
       </c>
-      <c r="Q352" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="R352" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="S352" s="166">
+      <c r="Q352" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="R352" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="S352" s="132">
         <v>1</v>
       </c>
-      <c r="T352" s="166" t="s">
-        <v>2366</v>
+      <c r="T352" s="132" t="s">
+        <v>2365</v>
       </c>
     </row>
     <row r="353" spans="1:20">
-      <c r="A353" s="164" t="s">
-        <v>403</v>
-      </c>
-      <c r="B353" s="164" t="s">
+      <c r="A353" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="B353" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="C353" s="164" t="s">
+      <c r="C353" s="130" t="s">
         <v>970</v>
       </c>
-      <c r="D353" s="165">
+      <c r="D353" s="131">
         <v>65.900000000000006</v>
       </c>
-      <c r="E353" s="165">
+      <c r="E353" s="131">
         <v>65.7</v>
       </c>
-      <c r="F353" s="165">
+      <c r="F353" s="131">
         <v>66</v>
       </c>
-      <c r="G353" s="165">
+      <c r="G353" s="131">
         <v>66.3</v>
       </c>
-      <c r="H353" s="165">
+      <c r="H353" s="131">
         <v>66.5</v>
       </c>
-      <c r="I353" s="165">
+      <c r="I353" s="131">
         <v>66.8</v>
       </c>
-      <c r="J353" s="165">
+      <c r="J353" s="131">
         <v>67.099999999999994</v>
       </c>
-      <c r="K353" s="165">
+      <c r="K353" s="131">
         <v>67.3</v>
       </c>
-      <c r="L353" s="165">
+      <c r="L353" s="131">
         <v>67.599999999999994</v>
       </c>
-      <c r="M353" s="165">
+      <c r="M353" s="131">
         <v>67.900000000000006</v>
       </c>
-      <c r="N353" s="165">
+      <c r="N353" s="131">
         <v>68.099999999999994</v>
       </c>
-      <c r="O353" s="165">
+      <c r="O353" s="131">
         <v>68.400000000000006</v>
       </c>
-      <c r="P353" s="165">
+      <c r="P353" s="131">
         <v>68.7</v>
       </c>
-      <c r="Q353" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="R353" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="S353" s="166">
+      <c r="Q353" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="R353" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="S353" s="132">
         <v>1</v>
       </c>
-      <c r="T353" s="166" t="s">
-        <v>2366</v>
+      <c r="T353" s="132" t="s">
+        <v>2365</v>
       </c>
     </row>
     <row r="354" spans="1:20">
-      <c r="A354" s="164" t="s">
-        <v>403</v>
-      </c>
-      <c r="B354" s="164" t="s">
+      <c r="A354" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="B354" s="130" t="s">
         <v>969</v>
       </c>
-      <c r="C354" s="164" t="s">
+      <c r="C354" s="130" t="s">
         <v>968</v>
       </c>
-      <c r="D354" s="165">
+      <c r="D354" s="131">
         <v>67.997560975609773</v>
       </c>
-      <c r="E354" s="165">
+      <c r="E354" s="131">
         <v>67.943902439024399</v>
       </c>
-      <c r="F354" s="165">
+      <c r="F354" s="131">
         <v>68.195121951219519</v>
       </c>
-      <c r="G354" s="165">
+      <c r="G354" s="131">
         <v>68.44634146341464</v>
       </c>
-      <c r="H354" s="165">
+      <c r="H354" s="131">
         <v>68.695121951219519</v>
       </c>
-      <c r="I354" s="165">
+      <c r="I354" s="131">
         <v>68.94634146341464</v>
       </c>
-      <c r="J354" s="165">
+      <c r="J354" s="131">
         <v>69.197560975609775</v>
       </c>
-      <c r="K354" s="165">
+      <c r="K354" s="131">
         <v>69.39756097560975</v>
       </c>
-      <c r="L354" s="165">
+      <c r="L354" s="131">
         <v>69.648780487804885</v>
       </c>
-      <c r="M354" s="165">
+      <c r="M354" s="131">
         <v>69.90000000000002</v>
       </c>
-      <c r="N354" s="165">
+      <c r="N354" s="131">
         <v>70.148780487804885</v>
       </c>
-      <c r="O354" s="165">
+      <c r="O354" s="131">
         <v>70.497560975609773</v>
       </c>
-      <c r="P354" s="165">
+      <c r="P354" s="131">
         <v>70.797560975609755</v>
       </c>
-      <c r="Q354" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="R354" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="S354" s="166">
+      <c r="Q354" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="R354" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="S354" s="132">
         <v>1</v>
       </c>
-      <c r="T354" s="166" t="s">
-        <v>2366</v>
+      <c r="T354" s="132" t="s">
+        <v>2365</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -46761,126 +46772,126 @@
       </c>
     </row>
     <row r="552" spans="1:20">
-      <c r="A552" s="121" t="s">
-        <v>403</v>
-      </c>
-      <c r="B552" s="121" t="s">
+      <c r="A552" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="B552" s="120" t="s">
         <v>573</v>
       </c>
-      <c r="C552" s="121" t="s">
+      <c r="C552" s="120" t="s">
         <v>572</v>
       </c>
-      <c r="D552" s="122">
+      <c r="D552" s="121">
         <v>1.3903743315507999</v>
       </c>
-      <c r="E552" s="122">
+      <c r="E552" s="121">
         <v>1.39973082099596</v>
       </c>
-      <c r="F552" s="122">
+      <c r="F552" s="121">
         <v>1.4325068870523401</v>
       </c>
-      <c r="G552" s="122">
+      <c r="G552" s="121">
         <v>2.7682508574228302</v>
       </c>
-      <c r="H552" s="122">
+      <c r="H552" s="121">
         <v>2.5123373710183898</v>
       </c>
-      <c r="I552" s="122">
+      <c r="I552" s="121">
         <v>2.27785295444294</v>
       </c>
-      <c r="J552" s="122">
+      <c r="J552" s="121">
         <v>1.9441571871768399</v>
       </c>
-      <c r="K552" s="122">
+      <c r="K552" s="121">
         <v>1.47229755908563</v>
       </c>
-      <c r="L552" s="122">
+      <c r="L552" s="121">
         <v>2.4115755627009601</v>
       </c>
-      <c r="M552" s="122">
+      <c r="M552" s="121">
         <v>3.0379256965944301</v>
       </c>
-      <c r="N552" s="122">
+      <c r="N552" s="121">
         <v>1.81003275297363</v>
       </c>
-      <c r="O552" s="122">
+      <c r="O552" s="121">
         <v>1.61534578495709</v>
       </c>
-      <c r="P552" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q552" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="R552" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="S552" s="123">
+      <c r="P552" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q552" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="R552" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="S552" s="122">
         <v>1</v>
       </c>
-      <c r="T552" s="123">
+      <c r="T552" s="122">
         <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:20">
-      <c r="A553" s="121" t="s">
-        <v>403</v>
-      </c>
-      <c r="B553" s="121" t="s">
+      <c r="A553" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="B553" s="120" t="s">
         <v>571</v>
       </c>
-      <c r="C553" s="121" t="s">
+      <c r="C553" s="120" t="s">
         <v>570</v>
       </c>
-      <c r="D553" s="122">
+      <c r="D553" s="121">
         <v>23.9322062020224</v>
       </c>
-      <c r="E553" s="122">
+      <c r="E553" s="121">
         <v>24.113449541037401</v>
       </c>
-      <c r="F553" s="122">
+      <c r="F553" s="121">
         <v>23.821357364567199</v>
       </c>
-      <c r="G553" s="122">
+      <c r="G553" s="121">
         <v>24.1340899309305</v>
       </c>
-      <c r="H553" s="122">
+      <c r="H553" s="121">
         <v>22.917450429550598</v>
       </c>
-      <c r="I553" s="122">
+      <c r="I553" s="121">
         <v>22.149893990974402</v>
       </c>
-      <c r="J553" s="122">
+      <c r="J553" s="121">
         <v>21.209074796302001</v>
       </c>
-      <c r="K553" s="122">
+      <c r="K553" s="121">
         <v>20.584617744897201</v>
       </c>
-      <c r="L553" s="122">
+      <c r="L553" s="121">
         <v>20.944561864747001</v>
       </c>
-      <c r="M553" s="122">
+      <c r="M553" s="121">
         <v>20.945424102329302</v>
       </c>
-      <c r="N553" s="122">
+      <c r="N553" s="121">
         <v>19.743536003779099</v>
       </c>
-      <c r="O553" s="122">
+      <c r="O553" s="121">
         <v>20.890055718429601</v>
       </c>
-      <c r="P553" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q553" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="R553" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="S553" s="123">
+      <c r="P553" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q553" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="R553" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="S553" s="122">
         <v>1</v>
       </c>
-      <c r="T553" s="123">
+      <c r="T553" s="122">
         <v>7</v>
       </c>
     </row>
@@ -51141,65 +51152,65 @@
       </c>
     </row>
     <row r="630" spans="1:20">
-      <c r="A630" s="167" t="s">
-        <v>403</v>
-      </c>
-      <c r="B630" s="167" t="s">
+      <c r="A630" s="133" t="s">
+        <v>403</v>
+      </c>
+      <c r="B630" s="133" t="s">
         <v>417</v>
       </c>
-      <c r="C630" s="167" t="s">
+      <c r="C630" s="133" t="s">
         <v>416</v>
       </c>
-      <c r="D630" s="168">
+      <c r="D630" s="134">
         <v>69583000</v>
       </c>
-      <c r="E630" s="168">
+      <c r="E630" s="134">
         <v>75274000</v>
       </c>
-      <c r="F630" s="168">
+      <c r="F630" s="134">
         <v>82276000</v>
       </c>
-      <c r="G630" s="168">
+      <c r="G630" s="134">
         <v>85988000</v>
       </c>
-      <c r="H630" s="168">
+      <c r="H630" s="134">
         <v>79136000</v>
       </c>
-      <c r="I630" s="168">
+      <c r="I630" s="134">
         <v>83296000</v>
       </c>
-      <c r="J630" s="168">
+      <c r="J630" s="134">
         <v>87496000</v>
       </c>
-      <c r="K630" s="168">
+      <c r="K630" s="134">
         <v>85282000</v>
       </c>
-      <c r="L630" s="168">
+      <c r="L630" s="134">
         <v>86801000</v>
       </c>
-      <c r="M630" s="168">
+      <c r="M630" s="134">
         <v>114160000</v>
       </c>
-      <c r="N630" s="168">
+      <c r="N630" s="134">
         <v>113807000</v>
       </c>
-      <c r="O630" s="168">
+      <c r="O630" s="134">
         <v>234141000</v>
       </c>
-      <c r="P630" s="168">
+      <c r="P630" s="134">
         <v>230999000</v>
       </c>
-      <c r="Q630" s="168">
+      <c r="Q630" s="134">
         <v>203731000</v>
       </c>
-      <c r="R630" s="168" t="s">
-        <v>399</v>
-      </c>
-      <c r="S630" s="169">
+      <c r="R630" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="S630" s="135">
         <v>1</v>
       </c>
-      <c r="T630" s="169" t="s">
-        <v>2367</v>
+      <c r="T630" s="135" t="s">
+        <v>2366</v>
       </c>
     </row>
     <row r="631" spans="1:20">
@@ -51605,6 +51616,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T637"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -51619,8 +51631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T232"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -65954,8 +65966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -73551,8 +73563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" activeCellId="9" sqref="B7 D7:N7 B10 D10:N10 B13 D13:N13 B16 D16:N16 B4 D4:N4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -73563,1227 +73575,1227 @@
   <sheetData>
     <row r="1" spans="1:14" ht="28">
       <c r="A1" s="71" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20">
-      <c r="B3" s="87" t="s">
-        <v>2312</v>
+      <c r="B3" s="86" t="s">
+        <v>2311</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="100" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C4" s="100" t="s">
+      <c r="B4" s="99" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C4" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="99" t="s">
-        <v>2309</v>
-      </c>
-      <c r="E4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>2308</v>
       </c>
-      <c r="F4" s="99" t="s">
-        <v>2303</v>
-      </c>
-      <c r="G4" s="99" t="s">
+      <c r="E4" s="98" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H4" s="98" t="s">
         <v>2301</v>
       </c>
-      <c r="H4" s="99" t="s">
-        <v>2302</v>
-      </c>
-      <c r="I4" s="99" t="s">
-        <v>2300</v>
-      </c>
-      <c r="J4" s="99" t="s">
+      <c r="I4" s="98" t="s">
         <v>2299</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="J4" s="98" t="s">
         <v>2298</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="K4" s="98" t="s">
         <v>2297</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="98" t="s">
         <v>2296</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="M4" s="98" t="s">
         <v>2295</v>
+      </c>
+      <c r="N4" s="98" t="s">
+        <v>2294</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C5" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D5" s="94">
+        <v>2303</v>
+      </c>
+      <c r="D5" s="93">
         <v>3644</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="93">
         <v>2529</v>
       </c>
-      <c r="F5" s="94">
+      <c r="F5" s="93">
         <v>2688</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="93">
         <v>2663</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H5" s="93">
         <v>2753</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="93">
         <v>2767</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="93">
         <v>2683</v>
       </c>
-      <c r="K5" s="94">
+      <c r="K5" s="93">
         <v>2715</v>
       </c>
-      <c r="L5" s="94">
+      <c r="L5" s="93">
         <v>2869</v>
       </c>
-      <c r="M5" s="94">
+      <c r="M5" s="93">
         <v>1932</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <v>1960</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C6" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D6" s="94">
+        <v>2304</v>
+      </c>
+      <c r="D6" s="93">
         <v>3432</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="93">
         <v>2579</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="93">
         <v>2363</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="93">
         <v>2167</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="93">
         <v>2338</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="93">
         <v>2299</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="93">
         <v>2471</v>
       </c>
-      <c r="K6" s="94">
+      <c r="K6" s="93">
         <v>2452</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="93">
         <v>2520</v>
       </c>
-      <c r="M6" s="94">
+      <c r="M6" s="93">
         <v>1841</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <v>1814</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="97" t="s">
-        <v>2292</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D7" s="98">
+      <c r="B7" s="96" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D7" s="97">
         <f>D6/D5</f>
         <v>0.94182217343578489</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="97">
         <f t="shared" ref="E7:I7" si="0">E6/E5</f>
         <v>1.0197706603400554</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="97">
         <f t="shared" si="0"/>
         <v>0.87909226190476186</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="97">
         <f t="shared" si="0"/>
         <v>0.81374389785955692</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="97">
         <f t="shared" si="0"/>
         <v>0.84925535779150019</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="97">
         <f t="shared" si="0"/>
         <v>0.83086375135525836</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="97">
         <f t="shared" ref="J7:N7" si="1">J6/J5</f>
         <v>0.9209839731643682</v>
       </c>
-      <c r="K7" s="98">
+      <c r="K7" s="97">
         <f t="shared" si="1"/>
         <v>0.90313075506445673</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="97">
         <f t="shared" si="1"/>
         <v>0.87835482746601601</v>
       </c>
-      <c r="M7" s="98">
+      <c r="M7" s="97">
         <f t="shared" si="1"/>
         <v>0.95289855072463769</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="97">
         <f t="shared" si="1"/>
         <v>0.92551020408163265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C8" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D8" s="94">
+        <v>2303</v>
+      </c>
+      <c r="D8" s="93">
         <v>9216</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="93">
         <v>10789</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="93">
         <v>10886</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="93">
         <v>9636</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="93">
         <v>10391</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="93">
         <v>9972</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="93">
         <v>10482</v>
       </c>
-      <c r="K8" s="94">
+      <c r="K8" s="93">
         <v>10307</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="93">
         <v>10392</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="93">
         <v>11119</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <v>11406</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C9" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D9" s="94">
+        <v>2304</v>
+      </c>
+      <c r="D9" s="93">
         <v>8380</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="93">
         <v>9961</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="93">
         <v>10203</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="93">
         <v>10080</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="93">
         <v>9283</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="93">
         <v>9617</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="93">
         <v>9870</v>
       </c>
-      <c r="K9" s="94">
+      <c r="K9" s="93">
         <v>9977</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="93">
         <v>9925</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" s="93">
         <v>10264</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <v>10748</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="97" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D10" s="98">
+      <c r="B10" s="96" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D10" s="97">
         <f>D9/D8</f>
         <v>0.90928819444444442</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <f t="shared" ref="E10" si="2">E9/E8</f>
         <v>0.92325516730002777</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="97">
         <f t="shared" ref="F10:I10" si="3">F9/F8</f>
         <v>0.93725886459672969</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="97">
         <f t="shared" si="3"/>
         <v>1.0460772104607721</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="97">
         <f t="shared" si="3"/>
         <v>0.89336926186122612</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="97">
         <f t="shared" si="3"/>
         <v>0.96440032089851579</v>
       </c>
-      <c r="J10" s="98">
+      <c r="J10" s="97">
         <f t="shared" ref="J10" si="4">J9/J8</f>
         <v>0.94161419576416716</v>
       </c>
-      <c r="K10" s="98">
+      <c r="K10" s="97">
         <f t="shared" ref="K10" si="5">K9/K8</f>
         <v>0.96798292422625398</v>
       </c>
-      <c r="L10" s="98">
+      <c r="L10" s="97">
         <f t="shared" ref="L10" si="6">L9/L8</f>
         <v>0.95506158583525791</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="97">
         <f t="shared" ref="M10" si="7">M9/M8</f>
         <v>0.92310459573702675</v>
       </c>
-      <c r="N10" s="98">
+      <c r="N10" s="97">
         <f t="shared" ref="N10" si="8">N9/N8</f>
         <v>0.94231106435209544</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C11" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D11" s="94">
+        <v>2303</v>
+      </c>
+      <c r="D11" s="93">
         <v>170641</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="93">
         <v>167452</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="93">
         <v>168404</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="93">
         <v>169272</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="93">
         <v>169306</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="93">
         <v>162527</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="93">
         <v>155970</v>
       </c>
-      <c r="K11" s="94">
+      <c r="K11" s="93">
         <v>152412</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="93">
         <v>152412</v>
       </c>
-      <c r="M11" s="94">
+      <c r="M11" s="93">
         <v>144335</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="93">
         <v>141168</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C12" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D12" s="94">
+        <v>2304</v>
+      </c>
+      <c r="D12" s="93">
         <v>156566</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="93">
         <v>154728</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="93">
         <v>156210</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="93">
         <v>157639</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="93">
         <v>153669</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="93">
         <v>149217</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="93">
         <v>145516</v>
       </c>
-      <c r="K12" s="94">
+      <c r="K12" s="93">
         <v>142806</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="93">
         <v>142806</v>
       </c>
-      <c r="M12" s="94">
+      <c r="M12" s="93">
         <v>134273</v>
       </c>
-      <c r="N12" s="94">
+      <c r="N12" s="93">
         <v>132481</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="97" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D13" s="98">
+      <c r="B13" s="96" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D13" s="97">
         <f>D12/D11</f>
         <v>0.91751689218886434</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="97">
         <f t="shared" ref="E13" si="9">E12/E11</f>
         <v>0.92401404581611446</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="97">
         <f t="shared" ref="F13:I13" si="10">F12/F11</f>
         <v>0.92759079356784879</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="97">
         <f t="shared" si="10"/>
         <v>0.93127628904957704</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="97">
         <f t="shared" si="10"/>
         <v>0.9076406034044866</v>
       </c>
-      <c r="I13" s="98">
+      <c r="I13" s="97">
         <f t="shared" si="10"/>
         <v>0.91810591470955594</v>
       </c>
-      <c r="J13" s="98">
+      <c r="J13" s="97">
         <f t="shared" ref="J13" si="11">J12/J11</f>
         <v>0.93297428992755016</v>
       </c>
-      <c r="K13" s="98">
+      <c r="K13" s="97">
         <f t="shared" ref="K13" si="12">K12/K11</f>
         <v>0.93697346665616876</v>
       </c>
-      <c r="L13" s="98">
+      <c r="L13" s="97">
         <f t="shared" ref="L13" si="13">L12/L11</f>
         <v>0.93697346665616876</v>
       </c>
-      <c r="M13" s="98">
+      <c r="M13" s="97">
         <f t="shared" ref="M13" si="14">M12/M11</f>
         <v>0.93028717913188075</v>
       </c>
-      <c r="N13" s="98">
+      <c r="N13" s="97">
         <f t="shared" ref="N13" si="15">N12/N11</f>
         <v>0.93846339113680155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C14" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D14" s="94">
+        <v>2303</v>
+      </c>
+      <c r="D14" s="93">
         <v>38940</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="93">
         <v>42579</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="93">
         <v>50110</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="93">
         <v>50250</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="93">
         <v>52877</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I14" s="93">
         <v>57732</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="93">
         <v>58344</v>
       </c>
-      <c r="K14" s="94">
+      <c r="K14" s="93">
         <v>57742</v>
       </c>
-      <c r="L14" s="94">
+      <c r="L14" s="93">
         <v>56272</v>
       </c>
-      <c r="M14" s="94">
+      <c r="M14" s="93">
         <v>53220</v>
       </c>
-      <c r="N14" s="94">
+      <c r="N14" s="93">
         <v>44385</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C15" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D15" s="93">
+        <v>30820</v>
+      </c>
+      <c r="E15" s="93">
+        <v>32202</v>
+      </c>
+      <c r="F15" s="93">
+        <v>38581</v>
+      </c>
+      <c r="G15" s="93">
+        <v>39957</v>
+      </c>
+      <c r="H15" s="93">
+        <v>43295</v>
+      </c>
+      <c r="I15" s="93">
+        <v>46321</v>
+      </c>
+      <c r="J15" s="93">
+        <v>48580</v>
+      </c>
+      <c r="K15" s="93">
+        <v>49087</v>
+      </c>
+      <c r="L15" s="93">
+        <v>47996</v>
+      </c>
+      <c r="M15" s="93">
+        <v>46358</v>
+      </c>
+      <c r="N15" s="93">
+        <v>39358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="96" t="s">
         <v>2305</v>
       </c>
-      <c r="D15" s="94">
-        <v>30820</v>
-      </c>
-      <c r="E15" s="94">
-        <v>32202</v>
-      </c>
-      <c r="F15" s="94">
-        <v>38581</v>
-      </c>
-      <c r="G15" s="94">
-        <v>39957</v>
-      </c>
-      <c r="H15" s="94">
-        <v>43295</v>
-      </c>
-      <c r="I15" s="94">
-        <v>46321</v>
-      </c>
-      <c r="J15" s="94">
-        <v>48580</v>
-      </c>
-      <c r="K15" s="94">
-        <v>49087</v>
-      </c>
-      <c r="L15" s="94">
-        <v>47996</v>
-      </c>
-      <c r="M15" s="94">
-        <v>46358</v>
-      </c>
-      <c r="N15" s="94">
-        <v>39358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="97" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D16" s="98">
+      <c r="C16" s="96" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D16" s="97">
         <f>D15/D14</f>
         <v>0.79147406266050335</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="97">
         <f t="shared" ref="E16" si="16">E15/E14</f>
         <v>0.75628831113929407</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="97">
         <f t="shared" ref="F16:H16" si="17">F15/F14</f>
         <v>0.76992616244262624</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="97">
         <f t="shared" si="17"/>
         <v>0.79516417910447756</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="97">
         <f t="shared" si="17"/>
         <v>0.81878699623654894</v>
       </c>
-      <c r="I16" s="98">
+      <c r="I16" s="97">
         <f t="shared" ref="I16:J16" si="18">I15/I14</f>
         <v>0.802345319753343</v>
       </c>
-      <c r="J16" s="98">
+      <c r="J16" s="97">
         <f t="shared" si="18"/>
         <v>0.83264774441245026</v>
       </c>
-      <c r="K16" s="98">
+      <c r="K16" s="97">
         <f t="shared" ref="K16" si="19">K15/K14</f>
         <v>0.85010910602334522</v>
       </c>
-      <c r="L16" s="98">
+      <c r="L16" s="97">
         <f t="shared" ref="L16" si="20">L15/L14</f>
         <v>0.85292863235712257</v>
       </c>
-      <c r="M16" s="98">
+      <c r="M16" s="97">
         <f t="shared" ref="M16" si="21">M15/M14</f>
         <v>0.87106350995866211</v>
       </c>
-      <c r="N16" s="98">
+      <c r="N16" s="97">
         <f t="shared" ref="N16" si="22">N15/N14</f>
         <v>0.88674101610904588</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D17" s="95">
+        <v>2306</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D17" s="94">
         <f t="shared" ref="D17:N17" si="23">SUM(D14,D11,D8,D5)</f>
         <v>222441</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="94">
         <f t="shared" si="23"/>
         <v>223349</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="94">
         <f t="shared" si="23"/>
         <v>232088</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="94">
         <f t="shared" si="23"/>
         <v>231821</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="94">
         <f t="shared" si="23"/>
         <v>235327</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="94">
         <f t="shared" si="23"/>
         <v>232998</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="94">
         <f t="shared" si="23"/>
         <v>227479</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K17" s="94">
         <f t="shared" si="23"/>
         <v>223176</v>
       </c>
-      <c r="L17" s="95">
+      <c r="L17" s="94">
         <f t="shared" si="23"/>
         <v>221945</v>
       </c>
-      <c r="M17" s="95">
+      <c r="M17" s="94">
         <f t="shared" si="23"/>
         <v>210606</v>
       </c>
-      <c r="N17" s="95">
+      <c r="N17" s="94">
         <f t="shared" si="23"/>
         <v>198919</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D18" s="95">
+        <v>2306</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D18" s="94">
         <f t="shared" ref="D18:N18" si="24">SUM(D15,D12,D9,D6)</f>
         <v>199198</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="94">
         <f t="shared" si="24"/>
         <v>199470</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="94">
         <f t="shared" si="24"/>
         <v>207357</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="94">
         <f t="shared" si="24"/>
         <v>209843</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="94">
         <f t="shared" si="24"/>
         <v>208585</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="94">
         <f t="shared" si="24"/>
         <v>207454</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="94">
         <f t="shared" si="24"/>
         <v>206437</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="94">
         <f t="shared" si="24"/>
         <v>204322</v>
       </c>
-      <c r="L18" s="95">
+      <c r="L18" s="94">
         <f t="shared" si="24"/>
         <v>203247</v>
       </c>
-      <c r="M18" s="95">
+      <c r="M18" s="94">
         <f t="shared" si="24"/>
         <v>192736</v>
       </c>
-      <c r="N18" s="95">
+      <c r="N18" s="94">
         <f t="shared" si="24"/>
         <v>184401</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="97" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C19" s="97" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D19" s="98">
+      <c r="B19" s="96" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D19" s="97">
         <f>D18/D17</f>
         <v>0.89550937102422667</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="97">
         <f>E18/E17</f>
         <v>0.89308660437252907</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="97">
         <f>F18/F17</f>
         <v>0.8934412808934542</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="97">
         <f>G18/G17</f>
         <v>0.90519409371886073</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="97">
         <f t="shared" ref="H19:J19" si="25">H18/H17</f>
         <v>0.88636238085727515</v>
       </c>
-      <c r="I19" s="98">
+      <c r="I19" s="97">
         <f t="shared" si="25"/>
         <v>0.89036815766658939</v>
       </c>
-      <c r="J19" s="98">
+      <c r="J19" s="97">
         <f t="shared" si="25"/>
         <v>0.90749915376804013</v>
       </c>
-      <c r="K19" s="98">
+      <c r="K19" s="97">
         <f t="shared" ref="K19" si="26">K18/K17</f>
         <v>0.9155195899200631</v>
       </c>
-      <c r="L19" s="98">
+      <c r="L19" s="97">
         <f t="shared" ref="L19" si="27">L18/L17</f>
         <v>0.91575390299398496</v>
       </c>
-      <c r="M19" s="98">
+      <c r="M19" s="97">
         <f t="shared" ref="M19" si="28">M18/M17</f>
         <v>0.91514961587039301</v>
       </c>
-      <c r="N19" s="98">
+      <c r="N19" s="97">
         <f t="shared" ref="N19" si="29">N18/N17</f>
         <v>0.92701551887954392</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="20">
-      <c r="B22" s="87" t="s">
-        <v>2313</v>
+      <c r="B22" s="86" t="s">
+        <v>2312</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="101" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C23" s="101" t="s">
+      <c r="B23" s="100" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C23" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="102" t="s">
-        <v>2309</v>
-      </c>
-      <c r="E23" s="102" t="s">
+      <c r="D23" s="101" t="s">
         <v>2308</v>
       </c>
-      <c r="F23" s="102" t="s">
-        <v>2303</v>
-      </c>
-      <c r="G23" s="102" t="s">
+      <c r="E23" s="101" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G23" s="101" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H23" s="101" t="s">
         <v>2301</v>
       </c>
-      <c r="H23" s="102" t="s">
-        <v>2302</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>2300</v>
-      </c>
-      <c r="J23" s="102" t="s">
+      <c r="I23" s="101" t="s">
         <v>2299</v>
       </c>
-      <c r="K23" s="102" t="s">
+      <c r="J23" s="101" t="s">
         <v>2298</v>
       </c>
-      <c r="L23" s="102" t="s">
+      <c r="K23" s="101" t="s">
         <v>2297</v>
       </c>
-      <c r="M23" s="102" t="s">
+      <c r="L23" s="101" t="s">
         <v>2296</v>
       </c>
-      <c r="N23" s="102" t="s">
+      <c r="M23" s="101" t="s">
         <v>2295</v>
+      </c>
+      <c r="N23" s="101" t="s">
+        <v>2294</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C24" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103">
+        <v>2303</v>
+      </c>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J24" s="103">
+      <c r="J24" s="102">
         <v>0.151</v>
       </c>
-      <c r="K24" s="103">
+      <c r="K24" s="102">
         <v>0.152</v>
       </c>
-      <c r="L24" s="103">
+      <c r="L24" s="102">
         <v>0.14899999999999999</v>
       </c>
-      <c r="M24" s="103">
+      <c r="M24" s="102">
         <v>0.14899999999999999</v>
       </c>
-      <c r="N24" s="103"/>
+      <c r="N24" s="102"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C25" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103">
+        <v>2304</v>
+      </c>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J25" s="103">
+      <c r="J25" s="102">
         <v>0.154</v>
       </c>
-      <c r="K25" s="103">
+      <c r="K25" s="102">
         <v>0.159</v>
       </c>
-      <c r="L25" s="103">
+      <c r="L25" s="102">
         <v>0.15</v>
       </c>
-      <c r="M25" s="103">
+      <c r="M25" s="102">
         <v>0.14699999999999999</v>
       </c>
-      <c r="N25" s="103"/>
+      <c r="N25" s="102"/>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C26" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103">
+        <v>2275</v>
+      </c>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J26" s="103">
+      <c r="J26" s="102">
         <v>0.152</v>
       </c>
-      <c r="K26" s="103">
+      <c r="K26" s="102">
         <v>0.155</v>
       </c>
-      <c r="L26" s="103">
+      <c r="L26" s="102">
         <v>0.14899999999999999</v>
       </c>
-      <c r="M26" s="103">
+      <c r="M26" s="102">
         <v>0.14799999999999999</v>
       </c>
-      <c r="N26" s="103"/>
+      <c r="N26" s="102"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C27" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103">
+        <v>2303</v>
+      </c>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102">
         <v>0.67100000000000004</v>
       </c>
-      <c r="J27" s="103">
+      <c r="J27" s="102">
         <v>0.71299999999999997</v>
       </c>
-      <c r="K27" s="103">
+      <c r="K27" s="102">
         <v>0.73</v>
       </c>
-      <c r="L27" s="103">
+      <c r="L27" s="102">
         <v>0.76900000000000002</v>
       </c>
-      <c r="M27" s="103">
+      <c r="M27" s="102">
         <v>0.755</v>
       </c>
-      <c r="N27" s="103"/>
+      <c r="N27" s="102"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C28" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103">
+        <v>2304</v>
+      </c>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102">
         <v>0.70099999999999996</v>
       </c>
-      <c r="J28" s="103">
+      <c r="J28" s="102">
         <v>0.71099999999999997</v>
       </c>
-      <c r="K28" s="103">
+      <c r="K28" s="102">
         <v>0.751</v>
       </c>
-      <c r="L28" s="103">
+      <c r="L28" s="102">
         <v>0.78</v>
       </c>
-      <c r="M28" s="103">
+      <c r="M28" s="102">
         <v>0.75800000000000001</v>
       </c>
-      <c r="N28" s="103"/>
+      <c r="N28" s="102"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C29" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103">
+        <v>2275</v>
+      </c>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="102">
         <v>0.71199999999999997</v>
       </c>
-      <c r="K29" s="103">
+      <c r="K29" s="102">
         <v>0.74</v>
       </c>
-      <c r="L29" s="103">
+      <c r="L29" s="102">
         <v>0.77400000000000002</v>
       </c>
-      <c r="M29" s="103">
+      <c r="M29" s="102">
         <v>0.75600000000000001</v>
       </c>
-      <c r="N29" s="103"/>
+      <c r="N29" s="102"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C30" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103">
+        <v>2303</v>
+      </c>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102">
         <v>1.0039</v>
       </c>
-      <c r="J30" s="103">
+      <c r="J30" s="102">
         <v>1.0125999999999999</v>
       </c>
-      <c r="K30" s="103">
+      <c r="K30" s="102">
         <v>0.99480000000000002</v>
       </c>
-      <c r="L30" s="103">
+      <c r="L30" s="102">
         <v>0.98699999999999999</v>
       </c>
-      <c r="M30" s="103">
+      <c r="M30" s="102">
         <v>0.96799999999999997</v>
       </c>
-      <c r="N30" s="103"/>
+      <c r="N30" s="102"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C31" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103">
+        <v>2304</v>
+      </c>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102">
         <v>0.95499999999999996</v>
       </c>
-      <c r="J31" s="103">
+      <c r="J31" s="102">
         <v>1.0264</v>
       </c>
-      <c r="K31" s="103">
+      <c r="K31" s="102">
         <v>0.97089999999999999</v>
       </c>
-      <c r="L31" s="103">
+      <c r="L31" s="102">
         <v>0.98499999999999999</v>
       </c>
-      <c r="M31" s="103">
+      <c r="M31" s="102">
         <v>0.96</v>
       </c>
-      <c r="N31" s="103"/>
+      <c r="N31" s="102"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C32" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103">
+        <v>2275</v>
+      </c>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102">
         <v>0.98029999999999995</v>
       </c>
-      <c r="J32" s="103">
+      <c r="J32" s="102">
         <v>1.0192000000000001</v>
       </c>
-      <c r="K32" s="103">
+      <c r="K32" s="102">
         <v>0.98319999999999996</v>
       </c>
-      <c r="L32" s="103">
+      <c r="L32" s="102">
         <v>0.98599999999999999</v>
       </c>
-      <c r="M32" s="103">
+      <c r="M32" s="102">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N32" s="103"/>
+      <c r="N32" s="102"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C33" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103">
+        <v>2303</v>
+      </c>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102">
         <v>1.0059</v>
       </c>
-      <c r="J33" s="103">
+      <c r="J33" s="102">
         <v>0.96430000000000005</v>
       </c>
-      <c r="K33" s="103">
+      <c r="K33" s="102">
         <v>1.0004999999999999</v>
       </c>
-      <c r="L33" s="103">
+      <c r="L33" s="102">
         <v>0.99099999999999999</v>
       </c>
-      <c r="M33" s="103">
+      <c r="M33" s="102">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N33" s="103"/>
+      <c r="N33" s="102"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C34" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103">
+        <v>2304</v>
+      </c>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102">
         <v>0.99360000000000004</v>
       </c>
-      <c r="J34" s="103">
+      <c r="J34" s="102">
         <v>0.96450000000000002</v>
       </c>
-      <c r="K34" s="103">
+      <c r="K34" s="102">
         <v>0.99719999999999998</v>
       </c>
-      <c r="L34" s="103">
+      <c r="L34" s="102">
         <v>0.98099999999999998</v>
       </c>
-      <c r="M34" s="103">
+      <c r="M34" s="102">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N34" s="103"/>
+      <c r="N34" s="102"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C35" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103">
+        <v>2275</v>
+      </c>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102">
         <v>1</v>
       </c>
-      <c r="J35" s="103">
+      <c r="J35" s="102">
         <v>0.96460000000000001</v>
       </c>
-      <c r="K35" s="103">
+      <c r="K35" s="102">
         <v>0.99890000000000001</v>
       </c>
-      <c r="L35" s="103">
+      <c r="L35" s="102">
         <v>0.98599999999999999</v>
       </c>
-      <c r="M35" s="103">
+      <c r="M35" s="102">
         <v>0.98</v>
       </c>
-      <c r="N35" s="103"/>
+      <c r="N35" s="102"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C36" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103">
+        <v>2303</v>
+      </c>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102">
         <v>0.92359999999999998</v>
       </c>
-      <c r="J36" s="103">
+      <c r="J36" s="102">
         <v>0.96309999999999996</v>
       </c>
-      <c r="K36" s="103">
+      <c r="K36" s="102">
         <v>0.95809999999999995</v>
       </c>
-      <c r="L36" s="103">
+      <c r="L36" s="102">
         <v>0.91900000000000004</v>
       </c>
-      <c r="M36" s="103">
+      <c r="M36" s="102">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N36" s="103"/>
+      <c r="N36" s="102"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C37" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103">
+        <v>2304</v>
+      </c>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102">
         <v>0.80969999999999998</v>
       </c>
-      <c r="J37" s="103">
+      <c r="J37" s="102">
         <v>0.86870000000000003</v>
       </c>
-      <c r="K37" s="103">
+      <c r="K37" s="102">
         <v>0.88090000000000002</v>
       </c>
-      <c r="L37" s="103">
+      <c r="L37" s="102">
         <v>0.85299999999999998</v>
       </c>
-      <c r="M37" s="103">
+      <c r="M37" s="102">
         <v>0.84399999999999997</v>
       </c>
-      <c r="N37" s="103"/>
+      <c r="N37" s="102"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C38" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103">
+        <v>2275</v>
+      </c>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102">
         <v>0.86899999999999999</v>
       </c>
-      <c r="J38" s="103">
+      <c r="J38" s="102">
         <v>0.91769999999999996</v>
       </c>
-      <c r="K38" s="103">
+      <c r="K38" s="102">
         <v>0.92079999999999995</v>
       </c>
-      <c r="L38" s="103">
+      <c r="L38" s="102">
         <v>0.88700000000000001</v>
       </c>
-      <c r="M38" s="103">
+      <c r="M38" s="102">
         <v>0.87</v>
       </c>
-      <c r="N38" s="103"/>
+      <c r="N38" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -74801,8 +74813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J32" activeCellId="2" sqref="B32:B40 D32:D40 J32:J40"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -74814,51 +74826,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28">
       <c r="A1" s="71" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="86" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="81" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="B5" s="82" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>2261</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="82" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
-      <c r="B5" s="83" t="s">
+      <c r="D5" s="83" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>2264</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>2262</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>2263</v>
-      </c>
-      <c r="E5" s="84" t="s">
+      <c r="F5" s="83" t="s">
         <v>2265</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="25">
         <v>2000</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="84">
         <v>30091</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="80">
         <v>9</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="79">
         <f>D6*100000/C6</f>
         <v>29.909275198564355</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="79">
         <v>23</v>
       </c>
     </row>
@@ -74866,17 +74878,17 @@
       <c r="B7" s="25">
         <v>2001</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="84">
         <v>39578</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="80">
         <v>5</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="79">
         <f t="shared" ref="E7:E16" si="0">D7*100000/C7</f>
         <v>12.633281115771387</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="79">
         <v>12.6</v>
       </c>
     </row>
@@ -74884,17 +74896,17 @@
       <c r="B8" s="25">
         <v>2002</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="84">
         <v>35391</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="80">
         <v>7</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="79">
         <f t="shared" si="0"/>
         <v>19.779039868893221</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="79">
         <v>20</v>
       </c>
     </row>
@@ -74902,17 +74914,17 @@
       <c r="B9" s="25">
         <v>2003</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="84">
         <v>31932</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="80">
         <v>7</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="79">
         <f t="shared" si="0"/>
         <v>21.92158336464988</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="79">
         <v>22</v>
       </c>
     </row>
@@ -74920,17 +74932,17 @@
       <c r="B10" s="25">
         <v>2004</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="84">
         <v>30935</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="80">
         <v>3</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="79">
         <f t="shared" si="0"/>
         <v>9.6977533538063678</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="79">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -74938,17 +74950,17 @@
       <c r="B11" s="25">
         <v>2005</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="84">
         <v>29056</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="80">
         <v>2</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="79">
         <f t="shared" si="0"/>
         <v>6.8832599118942728</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="79">
         <v>6.88</v>
       </c>
     </row>
@@ -74956,17 +74968,17 @@
       <c r="B12" s="25">
         <v>2006</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="84">
         <v>28404</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="80">
         <v>2</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="79">
         <f t="shared" si="0"/>
         <v>7.0412617941135052</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="79">
         <v>7</v>
       </c>
     </row>
@@ -74974,17 +74986,17 @@
       <c r="B13" s="25">
         <v>2007</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="84">
         <v>27856</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="80">
         <v>3</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="79">
         <f t="shared" si="0"/>
         <v>10.7696726019529</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="79">
         <v>10.8</v>
       </c>
     </row>
@@ -74992,17 +75004,17 @@
       <c r="B14" s="25">
         <v>2008</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="84">
         <v>28178</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="80">
         <v>8</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="79">
         <f t="shared" si="0"/>
         <v>28.390943289090782</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="79">
         <v>28.4</v>
       </c>
     </row>
@@ -75010,17 +75022,17 @@
       <c r="B15" s="25">
         <v>2009</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="84">
         <v>27718</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="80">
         <v>12</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="79">
         <f t="shared" si="0"/>
         <v>43.293166895158379</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="79">
         <v>43.3</v>
       </c>
     </row>
@@ -75028,359 +75040,359 @@
       <c r="B16" s="25">
         <v>2010</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="84">
         <v>27517</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="80">
         <v>2</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="79">
         <f t="shared" si="0"/>
         <v>7.2682341825053607</v>
       </c>
-      <c r="F16" s="80">
+      <c r="F16" s="79">
         <v>7.2</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="20">
-      <c r="B18" s="87" t="s">
-        <v>2322</v>
+      <c r="B18" s="86" t="s">
+        <v>2321</v>
       </c>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="109" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C19" s="109" t="s">
+      <c r="B19" s="108" t="s">
         <v>2259</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="C19" s="108" t="s">
         <v>2258</v>
       </c>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="108" t="s">
         <v>2257</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="E19" s="108" t="s">
         <v>2256</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="F19" s="108" t="s">
         <v>2255</v>
       </c>
-      <c r="H19" s="109" t="s">
+      <c r="G19" s="108" t="s">
         <v>2254</v>
       </c>
-      <c r="I19" s="110">
+      <c r="H19" s="108" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I19" s="109">
         <v>2002</v>
       </c>
-      <c r="J19" s="110">
+      <c r="J19" s="109">
         <v>2003</v>
       </c>
-      <c r="K19" s="110">
+      <c r="K19" s="109">
         <v>2004</v>
       </c>
-      <c r="L19" s="110">
+      <c r="L19" s="109">
         <v>2005</v>
       </c>
-      <c r="M19" s="110">
+      <c r="M19" s="109">
         <v>2006</v>
       </c>
-      <c r="N19" s="110">
+      <c r="N19" s="109">
         <v>2007</v>
       </c>
-      <c r="O19" s="110">
+      <c r="O19" s="109">
         <v>2008</v>
       </c>
-      <c r="P19" s="110">
+      <c r="P19" s="109">
         <v>2009</v>
       </c>
-      <c r="Q19" s="110">
+      <c r="Q19" s="109">
         <v>2010</v>
       </c>
-      <c r="R19" s="110">
+      <c r="R19" s="109">
         <v>2011</v>
       </c>
-      <c r="S19" s="110">
+      <c r="S19" s="109">
         <v>2012</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="79" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C20" s="79" t="s">
+      <c r="B20" s="78" t="s">
         <v>2252</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="C20" s="78" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E20" s="78" t="s">
         <v>2243</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="F20" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I20" s="110">
+        <v>11.2</v>
+      </c>
+      <c r="J20" s="110">
+        <v>15.1</v>
+      </c>
+      <c r="K20" s="110">
+        <v>11.8</v>
+      </c>
+      <c r="L20" s="110">
+        <v>9.6</v>
+      </c>
+      <c r="M20" s="110">
+        <v>12</v>
+      </c>
+      <c r="N20" s="110">
+        <v>11.1</v>
+      </c>
+      <c r="O20" s="110">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P20" s="110">
+        <v>9.9</v>
+      </c>
+      <c r="Q20" s="110">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R20" s="110">
+        <v>13.1</v>
+      </c>
+      <c r="S20" s="110">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="78" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I21" s="110">
+        <v>8.1</v>
+      </c>
+      <c r="J21" s="110">
+        <v>10.9</v>
+      </c>
+      <c r="K21" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L21" s="110">
+        <v>6.8</v>
+      </c>
+      <c r="M21" s="110">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N21" s="110">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O21" s="110">
+        <v>7</v>
+      </c>
+      <c r="P21" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="Q21" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="R21" s="110">
+        <v>11.1</v>
+      </c>
+      <c r="S21" s="107" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="78" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I22" s="110">
+        <v>6.6</v>
+      </c>
+      <c r="J22" s="110">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K22" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L22" s="110">
+        <v>6.1</v>
+      </c>
+      <c r="M22" s="110">
+        <v>7.5</v>
+      </c>
+      <c r="N22" s="110">
+        <v>7.7</v>
+      </c>
+      <c r="O22" s="110">
+        <v>5.4</v>
+      </c>
+      <c r="P22" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="Q22" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="R22" s="110">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S22" s="107" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="78" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I23" s="110">
+        <v>5.8</v>
+      </c>
+      <c r="J23" s="110">
+        <v>6</v>
+      </c>
+      <c r="K23" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L23" s="110">
+        <v>7.3</v>
+      </c>
+      <c r="M23" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N23" s="110">
+        <v>8.4</v>
+      </c>
+      <c r="O23" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="P23" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="Q23" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="R23" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="S23" s="107" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="78" t="s">
         <v>2244</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="C24" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E24" s="78" t="s">
         <v>2243</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="F24" s="78" t="s">
         <v>2242</v>
       </c>
-      <c r="H20" s="79" t="s">
+      <c r="G24" s="78" t="s">
         <v>2241</v>
       </c>
-      <c r="I20" s="111">
-        <v>11.2</v>
-      </c>
-      <c r="J20" s="111">
+      <c r="H24" s="78" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I24" s="110">
+        <v>12.4</v>
+      </c>
+      <c r="J24" s="110">
         <v>15.1</v>
       </c>
-      <c r="K20" s="111">
-        <v>11.8</v>
-      </c>
-      <c r="L20" s="111">
-        <v>9.6</v>
-      </c>
-      <c r="M20" s="111">
-        <v>12</v>
-      </c>
-      <c r="N20" s="111">
-        <v>11.1</v>
-      </c>
-      <c r="O20" s="111">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="P20" s="111">
-        <v>9.9</v>
-      </c>
-      <c r="Q20" s="111">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="R20" s="111">
-        <v>13.1</v>
-      </c>
-      <c r="S20" s="111">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="79" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>2250</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>2242</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>2241</v>
-      </c>
-      <c r="I21" s="111">
-        <v>8.1</v>
-      </c>
-      <c r="J21" s="111">
-        <v>10.9</v>
-      </c>
-      <c r="K21" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="L21" s="111">
-        <v>6.8</v>
-      </c>
-      <c r="M21" s="111">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N21" s="111">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O21" s="111">
-        <v>7</v>
-      </c>
-      <c r="P21" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="Q21" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="R21" s="111">
-        <v>11.1</v>
-      </c>
-      <c r="S21" s="108" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22" s="79" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>2248</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>2242</v>
-      </c>
-      <c r="H22" s="79" t="s">
-        <v>2241</v>
-      </c>
-      <c r="I22" s="111">
-        <v>6.6</v>
-      </c>
-      <c r="J22" s="111">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K22" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="L22" s="111">
-        <v>6.1</v>
-      </c>
-      <c r="M22" s="111">
-        <v>7.5</v>
-      </c>
-      <c r="N22" s="111">
-        <v>7.7</v>
-      </c>
-      <c r="O22" s="111">
-        <v>5.4</v>
-      </c>
-      <c r="P22" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="Q22" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="R22" s="111">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S22" s="108" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23" s="79" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E23" s="79" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>2242</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>2241</v>
-      </c>
-      <c r="I23" s="111">
-        <v>5.8</v>
-      </c>
-      <c r="J23" s="111">
-        <v>6</v>
-      </c>
-      <c r="K23" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="L23" s="111">
-        <v>7.3</v>
-      </c>
-      <c r="M23" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="N23" s="111">
-        <v>8.4</v>
-      </c>
-      <c r="O23" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="P23" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="Q23" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="R23" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="S23" s="108" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="79" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E24" s="79" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>2243</v>
-      </c>
-      <c r="G24" s="79" t="s">
-        <v>2242</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>2241</v>
-      </c>
-      <c r="I24" s="111">
-        <v>12.4</v>
-      </c>
-      <c r="J24" s="111">
-        <v>15.1</v>
-      </c>
-      <c r="K24" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="L24" s="111">
+      <c r="K24" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L24" s="110">
         <v>13.4</v>
       </c>
-      <c r="M24" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="N24" s="111">
+      <c r="M24" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N24" s="110">
         <v>16</v>
       </c>
-      <c r="O24" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="P24" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="Q24" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="R24" s="108" t="s">
-        <v>2241</v>
-      </c>
-      <c r="S24" s="108" t="s">
-        <v>2241</v>
+      <c r="O24" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="P24" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="Q24" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="R24" s="107" t="s">
+        <v>2240</v>
+      </c>
+      <c r="S24" s="107" t="s">
+        <v>2240</v>
       </c>
     </row>
     <row r="25" spans="2:19">
@@ -75404,11 +75416,11 @@
       <c r="S25" s="77"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="79" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C26" s="79" t="s">
+      <c r="B26" s="78" t="s">
         <v>2239</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>2238</v>
       </c>
       <c r="D26" s="77"/>
       <c r="E26" s="77"/>
@@ -75428,11 +75440,11 @@
       <c r="S26" s="77"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="79" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C27" s="78" t="s">
+      <c r="B27" s="78" t="s">
         <v>2237</v>
+      </c>
+      <c r="C27" s="169" t="s">
+        <v>2367</v>
       </c>
       <c r="D27" s="77"/>
       <c r="E27" s="77"/>
@@ -75488,8 +75500,8 @@
       <c r="S29" s="77"/>
     </row>
     <row r="30" spans="2:19" ht="20">
-      <c r="B30" s="127" t="s">
-        <v>2354</v>
+      <c r="B30" s="126" t="s">
+        <v>2353</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="77"/>
@@ -75511,7 +75523,7 @@
     </row>
     <row r="31" spans="2:19">
       <c r="B31" s="77" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="77"/>
@@ -75532,34 +75544,34 @@
       <c r="S31" s="77"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="128" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C32" s="110">
+      <c r="B32" s="127" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C32" s="109">
         <v>2002</v>
       </c>
-      <c r="D32" s="110">
+      <c r="D32" s="109">
         <v>2003</v>
       </c>
-      <c r="E32" s="110">
+      <c r="E32" s="109">
         <v>2004</v>
       </c>
-      <c r="F32" s="110">
+      <c r="F32" s="109">
         <v>2005</v>
       </c>
-      <c r="G32" s="110">
+      <c r="G32" s="109">
         <v>2006</v>
       </c>
-      <c r="H32" s="110">
+      <c r="H32" s="109">
         <v>2007</v>
       </c>
-      <c r="I32" s="110">
+      <c r="I32" s="109">
         <v>2008</v>
       </c>
-      <c r="J32" s="110">
+      <c r="J32" s="109">
         <v>2009</v>
       </c>
-      <c r="K32" s="110">
+      <c r="K32" s="109">
         <v>2010</v>
       </c>
       <c r="L32" s="77"/>
@@ -75572,22 +75584,22 @@
       <c r="S32" s="77"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="125" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129">
+      <c r="B33" s="124" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129">
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K33" s="129"/>
+      <c r="K33" s="128"/>
       <c r="L33" s="77"/>
       <c r="M33" s="77"/>
       <c r="N33" s="77"/>
@@ -75598,22 +75610,22 @@
       <c r="S33" s="77"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="125" t="s">
-        <v>2356</v>
-      </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129">
+      <c r="B34" s="124" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128">
         <v>0.123</v>
       </c>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129">
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128">
         <v>0.14199999999999999</v>
       </c>
-      <c r="K34" s="129"/>
+      <c r="K34" s="128"/>
       <c r="L34" s="77"/>
       <c r="M34" s="77"/>
       <c r="N34" s="77"/>
@@ -75624,22 +75636,22 @@
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="125" t="s">
-        <v>2357</v>
-      </c>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129">
+      <c r="B35" s="124" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129">
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K35" s="129"/>
+      <c r="K35" s="128"/>
       <c r="L35" s="77"/>
       <c r="M35" s="77"/>
       <c r="N35" s="77"/>
@@ -75650,22 +75662,22 @@
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="125" t="s">
-        <v>2358</v>
-      </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129">
+      <c r="B36" s="124" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128">
         <v>0.44800000000000001</v>
       </c>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129">
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128">
         <v>0.502</v>
       </c>
-      <c r="K36" s="129"/>
+      <c r="K36" s="128"/>
       <c r="L36" s="77"/>
       <c r="M36" s="77"/>
       <c r="N36" s="77"/>
@@ -75676,22 +75688,22 @@
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="125" t="s">
-        <v>2359</v>
-      </c>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129">
+      <c r="B37" s="124" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129">
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128">
         <v>0.57899999999999996</v>
       </c>
-      <c r="K37" s="129"/>
+      <c r="K37" s="128"/>
       <c r="L37" s="77"/>
       <c r="M37" s="77"/>
       <c r="N37" s="77"/>
@@ -75702,22 +75714,22 @@
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="B38" s="125" t="s">
-        <v>2360</v>
-      </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129">
+      <c r="B38" s="124" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129">
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128">
         <v>0.62</v>
       </c>
-      <c r="K38" s="129"/>
+      <c r="K38" s="128"/>
       <c r="L38" s="77"/>
       <c r="M38" s="77"/>
       <c r="N38" s="77"/>
@@ -75728,22 +75740,22 @@
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="125" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129">
+      <c r="B39" s="124" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129">
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128">
         <v>0.52700000000000002</v>
       </c>
-      <c r="K39" s="129"/>
+      <c r="K39" s="128"/>
       <c r="L39" s="77"/>
       <c r="M39" s="77"/>
       <c r="N39" s="77"/>
@@ -75754,22 +75766,22 @@
       <c r="S39" s="77"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="126" t="s">
-        <v>2276</v>
-      </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130">
+      <c r="B40" s="125" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129">
         <v>0.35</v>
       </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130">
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129">
         <v>0.35199999999999998</v>
       </c>
-      <c r="K40" s="130"/>
+      <c r="K40" s="129"/>
       <c r="L40" s="77"/>
       <c r="M40" s="77"/>
       <c r="N40" s="77"/>
@@ -75821,7 +75833,7 @@
     </row>
     <row r="43" spans="2:19">
       <c r="B43" s="77" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C43" s="77"/>
       <c r="D43" s="77"/>
@@ -75842,34 +75854,34 @@
       <c r="S43" s="77"/>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="128" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C44" s="110">
+      <c r="B44" s="127" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C44" s="109">
         <v>2002</v>
       </c>
-      <c r="D44" s="110">
+      <c r="D44" s="109">
         <v>2003</v>
       </c>
-      <c r="E44" s="110">
+      <c r="E44" s="109">
         <v>2004</v>
       </c>
-      <c r="F44" s="110">
+      <c r="F44" s="109">
         <v>2005</v>
       </c>
-      <c r="G44" s="110">
+      <c r="G44" s="109">
         <v>2006</v>
       </c>
-      <c r="H44" s="110">
+      <c r="H44" s="109">
         <v>2007</v>
       </c>
-      <c r="I44" s="110">
+      <c r="I44" s="109">
         <v>2008</v>
       </c>
-      <c r="J44" s="110">
+      <c r="J44" s="109">
         <v>2009</v>
       </c>
-      <c r="K44" s="110">
+      <c r="K44" s="109">
         <v>2010</v>
       </c>
       <c r="L44" s="77"/>
@@ -75882,22 +75894,22 @@
       <c r="S44" s="77"/>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="125" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129">
+      <c r="B45" s="124" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129">
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128">
         <v>0.88800000000000001</v>
       </c>
-      <c r="K45" s="129"/>
+      <c r="K45" s="128"/>
       <c r="L45" s="77"/>
       <c r="M45" s="77"/>
       <c r="N45" s="77"/>
@@ -75908,22 +75920,22 @@
       <c r="S45" s="77"/>
     </row>
     <row r="46" spans="2:19">
-      <c r="B46" s="125" t="s">
-        <v>2356</v>
-      </c>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129">
+      <c r="B46" s="124" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128">
         <v>0.97</v>
       </c>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129">
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128">
         <v>0.95</v>
       </c>
-      <c r="K46" s="129"/>
+      <c r="K46" s="128"/>
       <c r="L46" s="77"/>
       <c r="M46" s="77"/>
       <c r="N46" s="77"/>
@@ -75934,22 +75946,22 @@
       <c r="S46" s="77"/>
     </row>
     <row r="47" spans="2:19">
-      <c r="B47" s="125" t="s">
-        <v>2357</v>
-      </c>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129">
+      <c r="B47" s="124" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129">
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128">
         <v>0.96699999999999997</v>
       </c>
-      <c r="K47" s="129"/>
+      <c r="K47" s="128"/>
       <c r="L47" s="77"/>
       <c r="M47" s="77"/>
       <c r="N47" s="77"/>
@@ -75960,22 +75972,22 @@
       <c r="S47" s="77"/>
     </row>
     <row r="48" spans="2:19">
-      <c r="B48" s="125" t="s">
-        <v>2358</v>
-      </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129">
+      <c r="B48" s="124" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129">
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128">
         <v>0.97399999999999998</v>
       </c>
-      <c r="K48" s="129"/>
+      <c r="K48" s="128"/>
       <c r="L48" s="77"/>
       <c r="M48" s="77"/>
       <c r="N48" s="77"/>
@@ -75986,22 +75998,22 @@
       <c r="S48" s="77"/>
     </row>
     <row r="49" spans="2:19">
-      <c r="B49" s="125" t="s">
-        <v>2359</v>
-      </c>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129">
+      <c r="B49" s="124" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129">
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128">
         <v>0.97799999999999998</v>
       </c>
-      <c r="K49" s="129"/>
+      <c r="K49" s="128"/>
       <c r="L49" s="77"/>
       <c r="M49" s="77"/>
       <c r="N49" s="77"/>
@@ -76012,22 +76024,22 @@
       <c r="S49" s="77"/>
     </row>
     <row r="50" spans="2:19">
-      <c r="B50" s="125" t="s">
-        <v>2360</v>
-      </c>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129">
+      <c r="B50" s="124" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129">
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128">
         <v>0.96699999999999997</v>
       </c>
-      <c r="K50" s="129"/>
+      <c r="K50" s="128"/>
       <c r="L50" s="77"/>
       <c r="M50" s="77"/>
       <c r="N50" s="77"/>
@@ -76038,22 +76050,22 @@
       <c r="S50" s="77"/>
     </row>
     <row r="51" spans="2:19">
-      <c r="B51" s="125" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129">
+      <c r="B51" s="124" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129">
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128">
         <v>0.95199999999999996</v>
       </c>
-      <c r="K51" s="129"/>
+      <c r="K51" s="128"/>
       <c r="L51" s="77"/>
       <c r="M51" s="77"/>
       <c r="N51" s="77"/>
@@ -76064,22 +76076,22 @@
       <c r="S51" s="77"/>
     </row>
     <row r="52" spans="2:19">
-      <c r="B52" s="126" t="s">
-        <v>2276</v>
-      </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130">
+      <c r="B52" s="125" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130">
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129">
         <v>0.94899999999999995</v>
       </c>
-      <c r="K52" s="130"/>
+      <c r="K52" s="129"/>
       <c r="L52" s="77"/>
       <c r="M52" s="77"/>
       <c r="N52" s="77"/>
@@ -76110,10 +76122,10 @@
       <c r="S53" s="77"/>
     </row>
     <row r="55" spans="2:19">
-      <c r="F55" s="91"/>
+      <c r="F55" s="90"/>
     </row>
     <row r="56" spans="2:19">
-      <c r="F56" s="91"/>
+      <c r="F56" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -76135,8 +76147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -76149,383 +76161,386 @@
   <sheetData>
     <row r="1" spans="1:18" ht="28">
       <c r="A1" s="71" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30">
-      <c r="B4" s="115"/>
-      <c r="C4" s="84" t="s">
-        <v>2281</v>
+      <c r="B4" s="114"/>
+      <c r="C4" s="83" t="s">
+        <v>2280</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="90">
+      <c r="B5" s="89">
         <v>2007</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="90">
         <v>0.27810000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="90">
+      <c r="B6" s="89">
         <v>2008</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="90">
         <v>0.39639999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="90">
+      <c r="B7" s="89">
         <v>2009</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="90">
         <v>0.3906</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="90">
+      <c r="B8" s="89">
         <v>2010</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="90">
         <v>0.29820000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="90">
+      <c r="B9" s="89">
         <v>2011</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="90">
         <v>0.46</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="90">
+      <c r="B10" s="89">
         <v>2012</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="90">
         <v>0.48449999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="C11" s="91"/>
+      <c r="C11" s="90"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="C13" s="112" t="s">
-        <v>2323</v>
-      </c>
-      <c r="D13" s="112">
+      <c r="C13" s="111" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D13" s="111">
         <v>2000</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="111">
         <v>2001</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="111">
         <v>2002</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="111">
         <v>2003</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="111">
         <v>2004</v>
       </c>
-      <c r="I13" s="112">
+      <c r="I13" s="111">
         <v>2005</v>
       </c>
-      <c r="J13" s="112">
+      <c r="J13" s="111">
         <v>2006</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="111">
         <v>2007</v>
       </c>
-      <c r="L13" s="112">
+      <c r="L13" s="111">
         <v>2008</v>
       </c>
-      <c r="M13" s="112">
+      <c r="M13" s="111">
         <v>2009</v>
       </c>
-      <c r="N13" s="112">
+      <c r="N13" s="111">
         <v>2010</v>
       </c>
-      <c r="O13" s="112">
+      <c r="O13" s="111">
         <v>2011</v>
       </c>
-      <c r="P13" s="112">
+      <c r="P13" s="111">
         <v>2012</v>
       </c>
-      <c r="Q13" s="112">
+      <c r="Q13" s="111">
         <v>2013</v>
       </c>
-      <c r="R13" s="112">
+      <c r="R13" s="111">
         <v>2014</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="112" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D14" s="91">
+        <v>0.114097346552109</v>
+      </c>
+      <c r="E14" s="91">
+        <v>0.325798377067964</v>
+      </c>
+      <c r="F14" s="91">
+        <v>0.39008127343332</v>
+      </c>
+      <c r="G14" s="91">
+        <v>0.97190041519585701</v>
+      </c>
+      <c r="H14" s="91">
+        <v>2.42038779776014</v>
+      </c>
+      <c r="I14" s="91">
+        <v>6.0438908640481399</v>
+      </c>
+      <c r="J14" s="91">
+        <v>9.6099913157711807</v>
+      </c>
+      <c r="K14" s="91">
+        <v>15.0361154084109</v>
+      </c>
+      <c r="L14" s="91">
+        <v>23.86</v>
+      </c>
+      <c r="M14" s="91">
+        <v>41.2</v>
+      </c>
+      <c r="N14" s="91">
+        <v>45</v>
+      </c>
+      <c r="O14" s="91">
+        <v>49</v>
+      </c>
+      <c r="P14" s="91">
+        <v>54.655959039949401</v>
+      </c>
+      <c r="Q14" s="91">
+        <v>57.2</v>
+      </c>
+      <c r="R14" s="91">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="C15" s="113" t="s">
         <v>2286</v>
       </c>
-      <c r="D14" s="92">
-        <v>0.114097346552109</v>
-      </c>
-      <c r="E14" s="92">
-        <v>0.325798377067964</v>
-      </c>
-      <c r="F14" s="92">
-        <v>0.39008127343332</v>
-      </c>
-      <c r="G14" s="92">
-        <v>0.97190041519585701</v>
-      </c>
-      <c r="H14" s="92">
-        <v>2.42038779776014</v>
-      </c>
-      <c r="I14" s="92">
-        <v>6.0438908640481399</v>
-      </c>
-      <c r="J14" s="92">
-        <v>9.6099913157711807</v>
-      </c>
-      <c r="K14" s="92">
-        <v>15.0361154084109</v>
-      </c>
-      <c r="L14" s="92">
-        <v>23.86</v>
-      </c>
-      <c r="M14" s="92">
-        <v>41.2</v>
-      </c>
-      <c r="N14" s="92">
-        <v>45</v>
-      </c>
-      <c r="O14" s="92">
-        <v>49</v>
-      </c>
-      <c r="P14" s="92">
-        <v>54.655959039949401</v>
-      </c>
-      <c r="Q14" s="92">
-        <v>57.2</v>
-      </c>
-      <c r="R14" s="92">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="C15" s="114" t="s">
+      <c r="D15" s="91">
+        <v>1.0829607497120699</v>
+      </c>
+      <c r="E15" s="91">
+        <v>1.20052695129649</v>
+      </c>
+      <c r="F15" s="91">
+        <v>2.6482679136124401</v>
+      </c>
+      <c r="G15" s="91">
+        <v>3.96503683387051</v>
+      </c>
+      <c r="H15" s="91">
+        <v>15.4689716227665</v>
+      </c>
+      <c r="I15" s="91">
+        <v>21.326701000773799</v>
+      </c>
+      <c r="J15" s="91">
+        <v>25.1223856852117</v>
+      </c>
+      <c r="K15" s="91">
+        <v>27.92</v>
+      </c>
+      <c r="L15" s="91">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="M15" s="91">
+        <v>37.74</v>
+      </c>
+      <c r="N15" s="91">
+        <v>42.75</v>
+      </c>
+      <c r="O15" s="91">
+        <v>47.77</v>
+      </c>
+      <c r="P15" s="91">
+        <v>52.78</v>
+      </c>
+      <c r="Q15" s="91">
+        <v>57.79</v>
+      </c>
+      <c r="R15" s="91">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" s="112" t="s">
         <v>2287</v>
       </c>
-      <c r="D15" s="92">
-        <v>1.0829607497120699</v>
-      </c>
-      <c r="E15" s="92">
-        <v>1.20052695129649</v>
-      </c>
-      <c r="F15" s="92">
-        <v>2.6482679136124401</v>
-      </c>
-      <c r="G15" s="92">
-        <v>3.96503683387051</v>
-      </c>
-      <c r="H15" s="92">
-        <v>15.4689716227665</v>
-      </c>
-      <c r="I15" s="92">
-        <v>21.326701000773799</v>
-      </c>
-      <c r="J15" s="92">
-        <v>25.1223856852117</v>
-      </c>
-      <c r="K15" s="92">
-        <v>27.92</v>
-      </c>
-      <c r="L15" s="92">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="M15" s="92">
-        <v>37.74</v>
-      </c>
-      <c r="N15" s="92">
-        <v>42.75</v>
-      </c>
-      <c r="O15" s="92">
-        <v>47.77</v>
-      </c>
-      <c r="P15" s="92">
-        <v>52.78</v>
-      </c>
-      <c r="Q15" s="92">
-        <v>57.79</v>
-      </c>
-      <c r="R15" s="92">
-        <v>60.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="C16" s="113" t="s">
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91">
+        <v>25.3500686036232</v>
+      </c>
+      <c r="I16" s="91">
+        <v>27.1</v>
+      </c>
+      <c r="J16" s="91">
+        <v>28.9</v>
+      </c>
+      <c r="K16" s="91">
+        <v>30.8</v>
+      </c>
+      <c r="L16" s="91">
+        <v>32.9</v>
+      </c>
+      <c r="M16" s="91">
+        <v>35.1</v>
+      </c>
+      <c r="N16" s="91">
+        <v>37.5</v>
+      </c>
+      <c r="O16" s="91">
+        <v>35.611541246010901</v>
+      </c>
+      <c r="P16" s="91">
+        <v>56.838782549063097</v>
+      </c>
+      <c r="Q16" s="91">
+        <v>60.31</v>
+      </c>
+      <c r="R16" s="91">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="112" t="s">
         <v>2288</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92">
-        <v>25.3500686036232</v>
-      </c>
-      <c r="I16" s="92">
-        <v>27.1</v>
-      </c>
-      <c r="J16" s="92">
-        <v>28.9</v>
-      </c>
-      <c r="K16" s="92">
-        <v>30.8</v>
-      </c>
-      <c r="L16" s="92">
-        <v>32.9</v>
-      </c>
-      <c r="M16" s="92">
-        <v>35.1</v>
-      </c>
-      <c r="N16" s="92">
-        <v>37.5</v>
-      </c>
-      <c r="O16" s="92">
-        <v>35.611541246010901</v>
-      </c>
-      <c r="P16" s="92">
-        <v>56.838782549063097</v>
-      </c>
-      <c r="Q16" s="92">
-        <v>60.31</v>
-      </c>
-      <c r="R16" s="92">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18">
-      <c r="C17" s="113" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92">
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91">
         <v>23.5</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="91">
         <v>26.3</v>
       </c>
-      <c r="J17" s="92">
+      <c r="J17" s="91">
         <v>27.2</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="91">
         <v>33.15</v>
       </c>
-      <c r="L17" s="92">
+      <c r="L17" s="91">
         <v>35.6</v>
       </c>
-      <c r="M17" s="92">
+      <c r="M17" s="91">
         <v>38.1</v>
       </c>
-      <c r="N17" s="92">
+      <c r="N17" s="91">
         <v>40.9</v>
       </c>
-      <c r="O17" s="92">
+      <c r="O17" s="91">
         <v>42.2</v>
       </c>
-      <c r="P17" s="92">
+      <c r="P17" s="91">
         <v>48.1</v>
       </c>
-      <c r="Q17" s="92">
+      <c r="Q17" s="91">
         <v>51.5</v>
       </c>
-      <c r="R17" s="92">
+      <c r="R17" s="91">
         <v>53.5</v>
       </c>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="113" t="s">
-        <v>403</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92">
+      <c r="C18" s="112" t="s">
+        <v>403</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91">
         <v>6</v>
       </c>
-      <c r="I18" s="92">
+      <c r="I18" s="91">
         <v>12</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J18" s="92">
         <f>I18*(($L$18/$I$18)^(1/3))</f>
         <v>14.437863318006109</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K18" s="92">
         <f>J18*(($L$18/$I$18)^(1/3))</f>
         <v>17.370991432452197</v>
       </c>
-      <c r="L18" s="92">
+      <c r="L18" s="91">
         <v>20.9</v>
       </c>
-      <c r="M18" s="93">
+      <c r="M18" s="92">
         <f>L18*(($O$18/$L$18)^(1/3))</f>
         <v>29.200422993809894</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="92">
         <f>M18*(($O$18/$L$18)^(1/3))</f>
         <v>40.797354211359888</v>
       </c>
-      <c r="O18" s="92">
+      <c r="O18" s="91">
         <v>57</v>
       </c>
-      <c r="P18" s="92">
+      <c r="P18" s="91">
         <v>62</v>
       </c>
-      <c r="Q18" s="92">
+      <c r="Q18" s="91">
         <v>76.599999999999994</v>
       </c>
-      <c r="R18" s="92">
+      <c r="R18" s="91">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="91"/>
+      <c r="C19" s="90"/>
       <c r="H19" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="I19" t="s">
-        <v>2290</v>
-      </c>
-      <c r="L19" s="82" t="s">
-        <v>2285</v>
+        <v>2289</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>2284</v>
       </c>
       <c r="O19" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2278</v>
+      </c>
+      <c r="Q19" t="s">
         <v>2283</v>
       </c>
-      <c r="P19" t="s">
-        <v>2279</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>2284</v>
-      </c>
       <c r="R19" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="91"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="C21" s="91"/>
+      <c r="C21" s="90"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/MDG Data.xlsx
+++ b/data/MDG Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="0" windowWidth="33300" windowHeight="21080" tabRatio="999"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13840" tabRatio="999" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Indicators" sheetId="7" r:id="rId1"/>
@@ -7940,7 +7940,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -7977,6 +7977,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8227,69 +8233,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -8353,13 +8296,107 @@
     <xf numFmtId="0" fontId="35" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8368,28 +8405,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8401,7 +8417,13 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8413,27 +8435,11 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="81">
     <cellStyle name="Accent5" xfId="35" builtinId="45"/>
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -8504,6 +8510,12 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -8794,37 +8806,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.941822173435785</c:v>
+                  <c:v>0.485019785189373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.019770660340055</c:v>
+                  <c:v>0.504894283476899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.879092261904762</c:v>
+                  <c:v>0.467828152841022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.813743897859557</c:v>
+                  <c:v>0.448654244306418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8492553577915</c:v>
+                  <c:v>0.459241799253585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.830863751355258</c:v>
+                  <c:v>0.453809711804185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.920983973164368</c:v>
+                  <c:v>0.479433449747769</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.903130755064457</c:v>
+                  <c:v>0.474550029030385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.878354827466016</c:v>
+                  <c:v>0.46761922434589</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.952898550724638</c:v>
+                  <c:v>0.487940630797774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.925510204081633</c:v>
+                  <c:v>0.480657127715951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8896,37 +8908,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.909288194444444</c:v>
+                  <c:v>0.476244601045692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.923255167300028</c:v>
+                  <c:v>0.480048192771084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93725886459673</c:v>
+                  <c:v>0.483806723884489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.046077210460772</c:v>
+                  <c:v>0.511259890444309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.893369261861226</c:v>
+                  <c:v>0.471841008437532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.964400320898516</c:v>
+                  <c:v>0.490938792179284</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.941614195764167</c:v>
+                  <c:v>0.484964622641509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.967982924226254</c:v>
+                  <c:v>0.491865509761388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.955061585835258</c:v>
+                  <c:v>0.488507161490377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.923104595737027</c:v>
+                  <c:v>0.480007482579619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.942311064352095</c:v>
+                  <c:v>0.485149408684662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8998,37 +9010,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.917516892188864</c:v>
+                  <c:v>0.478492208296277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.924014045816114</c:v>
+                  <c:v>0.480253274567012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.927590793567849</c:v>
+                  <c:v>0.48121769239774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.931276289049577</c:v>
+                  <c:v>0.482207695672522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.907640603404487</c:v>
+                  <c:v>0.475792243981732</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.918105914709556</c:v>
+                  <c:v>0.478652355779101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93297428992755</c:v>
+                  <c:v>0.482662544861121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.936973466656169</c:v>
+                  <c:v>0.483730666829258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.936973466656169</c:v>
+                  <c:v>0.483730666829258</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.930287179131881</c:v>
+                  <c:v>0.481942370642623</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.938463391136802</c:v>
+                  <c:v>0.484127477169659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9100,37 +9112,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.791474062660503</c:v>
+                  <c:v>0.441800458715596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.756288311139294</c:v>
+                  <c:v>0.430617402816223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.769926162442626</c:v>
+                  <c:v>0.435004679166996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.795164179104477</c:v>
+                  <c:v>0.442947886527653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.818786996236549</c:v>
+                  <c:v>0.450183005448571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.802345319753343</c:v>
+                  <c:v>0.445167366630467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83264774441245</c:v>
+                  <c:v>0.454341401369197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.850109106023345</c:v>
+                  <c:v>0.459491336622078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.852928632357123</c:v>
+                  <c:v>0.460313806728814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.871063509958662</c:v>
+                  <c:v>0.465544598204423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.886741016109046</c:v>
+                  <c:v>0.469985551031131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9147,11 +9159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114045480"/>
-        <c:axId val="2084679064"/>
+        <c:axId val="2094393016"/>
+        <c:axId val="2094389832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114045480"/>
+        <c:axId val="2094393016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9160,7 +9172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084679064"/>
+        <c:crossAx val="2094389832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9168,11 +9180,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084679064"/>
+        <c:axId val="2094389832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.05"/>
-          <c:min val="0.75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9181,7 +9191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114045480"/>
+        <c:crossAx val="2094393016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9325,11 +9335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113966392"/>
-        <c:axId val="2113963304"/>
+        <c:axId val="2094347960"/>
+        <c:axId val="2094344872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113966392"/>
+        <c:axId val="2094347960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9339,7 +9349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113963304"/>
+        <c:crossAx val="2094344872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9347,7 +9357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113963304"/>
+        <c:axId val="2094344872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9358,7 +9368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113966392"/>
+        <c:crossAx val="2094347960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9497,11 +9507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113939336"/>
-        <c:axId val="2113936312"/>
+        <c:axId val="2093460104"/>
+        <c:axId val="2093457080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113939336"/>
+        <c:axId val="2093460104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9511,7 +9521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113936312"/>
+        <c:crossAx val="2093457080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9519,7 +9529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113936312"/>
+        <c:axId val="2093457080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9530,7 +9540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113939336"/>
+        <c:crossAx val="2093460104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9664,11 +9674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121753048"/>
-        <c:axId val="2121766040"/>
+        <c:axId val="2094320008"/>
+        <c:axId val="2094317048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121753048"/>
+        <c:axId val="2094320008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9677,7 +9687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121766040"/>
+        <c:crossAx val="2094317048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9685,7 +9695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121766040"/>
+        <c:axId val="2094317048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9696,7 +9706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121753048"/>
+        <c:crossAx val="2094320008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9858,11 +9868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116626488"/>
-        <c:axId val="2116629608"/>
+        <c:axId val="2094270184"/>
+        <c:axId val="2094267080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116626488"/>
+        <c:axId val="2094270184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9872,7 +9882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116629608"/>
+        <c:crossAx val="2094267080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9880,7 +9890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116629608"/>
+        <c:axId val="2094267080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9891,7 +9901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116626488"/>
+        <c:crossAx val="2094270184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10434,7 +10444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -32669,47 +32679,47 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="20"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="139" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="20"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="105" t="s">
         <v>2381</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="129">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="108">
         <v>2011</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="108">
         <v>2012</v>
       </c>
-      <c r="G5" s="129">
+      <c r="G5" s="108">
         <v>2013</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="108">
         <v>2014</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1">
       <c r="A6" s="20"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="7" spans="1:8" ht="16" thickBot="1">
       <c r="A7" s="20"/>
@@ -32757,57 +32767,57 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="20"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="122"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="20"/>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>2383</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="137" t="s">
         <v>2385</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="137" t="s">
         <v>2386</v>
       </c>
-      <c r="E12" s="142">
+      <c r="E12" s="153">
         <v>0.29699999999999999</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="137" t="s">
         <v>24</v>
       </c>
     </row>
@@ -32816,34 +32826,34 @@
       <c r="B13" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
         <v>2387</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="137" t="s">
         <v>2385</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="137" t="s">
         <v>2388</v>
       </c>
-      <c r="E14" s="142">
+      <c r="E14" s="153">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="F14" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="H14" s="137" t="s">
         <v>24</v>
       </c>
     </row>
@@ -32852,262 +32862,262 @@
       <c r="B15" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
     </row>
     <row r="16" spans="1:8" ht="74" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="147" t="s">
+      <c r="D16" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="137">
         <v>32.799999999999997</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="137" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" thickBot="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="20"/>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="135">
         <v>-1.73</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F18" s="135">
         <v>-2.37</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="135" t="s">
         <v>2390</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="135" t="s">
         <v>2390</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22">
       <c r="A19" s="20"/>
-      <c r="B19" s="149"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="6" t="s">
         <v>2389</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20"/>
-      <c r="B20" s="149"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="20"/>
-      <c r="B21" s="149"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="20"/>
-      <c r="B22" s="149"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
     </row>
     <row r="23" spans="1:8" ht="16" thickBot="1">
       <c r="A23" s="20"/>
-      <c r="B23" s="151"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
     </row>
     <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="129" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="135">
         <v>7.3</v>
       </c>
-      <c r="F24" s="108">
+      <c r="F24" s="135">
         <v>2.5</v>
       </c>
-      <c r="G24" s="108">
+      <c r="G24" s="135">
         <v>1.8</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="135" t="s">
         <v>2392</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" thickBot="1">
       <c r="A25" s="20"/>
-      <c r="B25" s="151"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="10" t="s">
         <v>2391</v>
       </c>
-      <c r="D25" s="154"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="1:8" ht="44" customHeight="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="108">
+      <c r="G26" s="135">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="H26" s="135" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" thickBot="1">
       <c r="A27" s="20"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="20"/>
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="108" t="s">
+      <c r="G28" s="135" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="33">
+    <row r="29" spans="1:8" ht="22">
       <c r="A29" s="20"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="6" t="s">
         <v>2393</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="33">
+    <row r="30" spans="1:8" ht="22">
       <c r="A30" s="20"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="6" t="s">
         <v>2394</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="23" thickBot="1">
+    <row r="31" spans="1:8" ht="16" thickBot="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
       <c r="H31" s="10" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22">
       <c r="A32" s="20"/>
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="129" t="s">
         <v>2396</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="133" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -33125,11 +33135,11 @@
     </row>
     <row r="33" spans="1:8" ht="22">
       <c r="A33" s="20"/>
-      <c r="B33" s="149"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="152"/>
+      <c r="D33" s="156"/>
       <c r="E33" s="6" t="s">
         <v>2399</v>
       </c>
@@ -33145,11 +33155,11 @@
     </row>
     <row r="34" spans="1:8" ht="55">
       <c r="A34" s="20"/>
-      <c r="B34" s="149"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="6" t="s">
         <v>2397</v>
       </c>
-      <c r="D34" s="152"/>
+      <c r="D34" s="156"/>
       <c r="E34" s="6" t="s">
         <v>2400</v>
       </c>
@@ -33165,11 +33175,11 @@
     </row>
     <row r="35" spans="1:8" ht="66">
       <c r="A35" s="20"/>
-      <c r="B35" s="149"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="152"/>
+      <c r="D35" s="156"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -33179,9 +33189,9 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="20"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="152"/>
+      <c r="D36" s="156"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -33189,9 +33199,9 @@
     </row>
     <row r="37" spans="1:8" ht="16" thickBot="1">
       <c r="A37" s="20"/>
-      <c r="B37" s="151"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="112"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -33199,13 +33209,13 @@
     </row>
     <row r="38" spans="1:8" ht="16" thickBot="1">
       <c r="A38" s="20"/>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="112" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="134"/>
+      <c r="D38" s="113"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -33221,102 +33231,102 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="20"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="95"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="20"/>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="98"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125"/>
     </row>
     <row r="41" spans="1:8" ht="16" thickBot="1">
       <c r="A41" s="20"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="128"/>
     </row>
     <row r="42" spans="1:8" ht="39" customHeight="1">
       <c r="A42" s="20"/>
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="137" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="4">
         <v>36.9</v>
       </c>
-      <c r="G42" s="142">
+      <c r="G42" s="153">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H42" s="102" t="s">
+      <c r="H42" s="137" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" thickBot="1">
       <c r="A43" s="20"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="2" t="s">
         <v>2408</v>
       </c>
-      <c r="G43" s="143"/>
-      <c r="H43" s="104"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="138"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="20"/>
-      <c r="B44" s="145" t="s">
+      <c r="B44" s="139" t="s">
         <v>2410</v>
       </c>
-      <c r="C44" s="102" t="s">
+      <c r="C44" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="102" t="s">
+      <c r="E44" s="137" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="4">
         <v>25.6</v>
       </c>
-      <c r="G44" s="142">
+      <c r="G44" s="153">
         <v>0.28399999999999997</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>2411</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="22">
+    <row r="45" spans="1:8">
       <c r="A45" s="20"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
       <c r="F45" s="4" t="s">
         <v>2408</v>
       </c>
@@ -33327,61 +33337,61 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="20"/>
-      <c r="B46" s="144"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
       <c r="F46" s="11"/>
       <c r="G46" s="155"/>
       <c r="H46" s="4" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="34" thickBot="1">
+    <row r="47" spans="1:8" ht="23" thickBot="1">
       <c r="A47" s="20"/>
-      <c r="B47" s="146"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="143"/>
+      <c r="G47" s="154"/>
       <c r="H47" s="2" t="s">
         <v>2414</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="20"/>
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="139" t="s">
         <v>2415</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="137" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="4">
         <v>30.9</v>
       </c>
-      <c r="G48" s="156">
+      <c r="G48" s="162">
         <v>0.3</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>2416</v>
       </c>
     </row>
-    <row r="49" spans="2:10" s="21" customFormat="1" ht="22">
-      <c r="B49" s="144"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
+    <row r="49" spans="2:10" s="21" customFormat="1">
+      <c r="B49" s="140"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
       <c r="F49" s="4" t="s">
         <v>2408</v>
       </c>
-      <c r="G49" s="157"/>
+      <c r="G49" s="163"/>
       <c r="H49" s="4" t="s">
         <v>2417</v>
       </c>
@@ -33389,78 +33399,78 @@
       <c r="J49"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="144"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="157"/>
+      <c r="G50" s="163"/>
       <c r="H50" s="4" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="34" thickBot="1">
-      <c r="B51" s="146"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
+    <row r="51" spans="2:10" ht="23" thickBot="1">
+      <c r="B51" s="141"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="158"/>
+      <c r="G51" s="164"/>
       <c r="H51" s="2" t="s">
         <v>2414</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="28" customHeight="1">
-      <c r="B52" s="145" t="s">
+      <c r="B52" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="102" t="s">
+      <c r="E52" s="137" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="4">
         <v>63.1</v>
       </c>
-      <c r="G52" s="142">
+      <c r="G52" s="153">
         <v>0.59499999999999997</v>
       </c>
-      <c r="H52" s="102" t="s">
+      <c r="H52" s="137" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="16" thickBot="1">
-      <c r="B53" s="146"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="2" t="s">
         <v>2408</v>
       </c>
-      <c r="G53" s="143"/>
-      <c r="H53" s="104"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="138"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="139" t="s">
         <v>2419</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="137" t="s">
         <v>2420</v>
       </c>
-      <c r="E54" s="102" t="s">
+      <c r="E54" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="102" t="s">
+      <c r="F54" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="102" t="s">
+      <c r="G54" s="137" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -33468,70 +33478,70 @@
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="144"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
       <c r="H55" s="4" t="s">
         <v>2422</v>
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="144"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
       <c r="H56" s="4" t="s">
         <v>2423</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="16" thickBot="1">
-      <c r="B57" s="146"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="138"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="93"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="122"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="98"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="125"/>
     </row>
     <row r="60" spans="2:10" ht="16" thickBot="1">
-      <c r="B60" s="99"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="101"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="128"/>
     </row>
     <row r="61" spans="2:10" ht="45">
-      <c r="B61" s="145" t="s">
+      <c r="B61" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="102" t="s">
+      <c r="C61" s="137" t="s">
         <v>45</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -33540,58 +33550,58 @@
       <c r="E61" s="4">
         <v>4.88</v>
       </c>
-      <c r="F61" s="102" t="s">
+      <c r="F61" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="102" t="s">
+      <c r="G61" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="102" t="s">
+      <c r="H61" s="137" t="s">
         <v>2427</v>
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="144"/>
-      <c r="C62" s="103"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="142"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>2426</v>
       </c>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="142"/>
     </row>
     <row r="63" spans="2:10" ht="31" thickBot="1">
-      <c r="B63" s="146"/>
-      <c r="C63" s="104"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="138"/>
       <c r="D63" s="13" t="s">
         <v>2425</v>
       </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
     </row>
     <row r="64" spans="2:10" ht="45">
       <c r="B64" s="3" t="s">
         <v>2428</v>
       </c>
-      <c r="C64" s="102" t="s">
+      <c r="C64" s="137" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>2430</v>
       </c>
-      <c r="E64" s="142">
+      <c r="E64" s="153">
         <v>2.3E-2</v>
       </c>
-      <c r="F64" s="142">
+      <c r="F64" s="153">
         <v>2.3E-2</v>
       </c>
-      <c r="G64" s="142">
+      <c r="G64" s="153">
         <v>2.3E-2</v>
       </c>
-      <c r="H64" s="102" t="s">
+      <c r="H64" s="137" t="s">
         <v>2431</v>
       </c>
     </row>
@@ -33599,17 +33609,17 @@
       <c r="B65" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="C65" s="104"/>
+      <c r="C65" s="138"/>
       <c r="D65" s="13" t="s">
         <v>2425</v>
       </c>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="104"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="138"/>
     </row>
     <row r="66" spans="2:8" ht="45">
-      <c r="B66" s="145" t="s">
+      <c r="B66" s="139" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -33618,13 +33628,13 @@
       <c r="D66" s="5" t="s">
         <v>2434</v>
       </c>
-      <c r="E66" s="131">
+      <c r="E66" s="110">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F66" s="102" t="s">
+      <c r="F66" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="102" t="s">
+      <c r="G66" s="137" t="s">
         <v>24</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -33632,7 +33642,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="22">
-      <c r="B67" s="144"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="4" t="s">
         <v>2432</v>
       </c>
@@ -33640,14 +33650,14 @@
       <c r="E67" s="4" t="s">
         <v>2436</v>
       </c>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
       <c r="H67" s="4" t="s">
         <v>2438</v>
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="144"/>
+      <c r="B68" s="140"/>
       <c r="C68" s="4" t="s">
         <v>2433</v>
       </c>
@@ -33655,32 +33665,32 @@
         <v>4</v>
       </c>
       <c r="E68" s="11"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="142"/>
       <c r="H68" s="11"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="144"/>
+      <c r="B69" s="140"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5" t="s">
         <v>2435</v>
       </c>
       <c r="E69" s="11"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
+      <c r="F69" s="142"/>
+      <c r="G69" s="142"/>
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="2:8" ht="16" thickBot="1">
-      <c r="B70" s="146"/>
+      <c r="B70" s="141"/>
       <c r="C70" s="12"/>
       <c r="D70" s="2"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
+      <c r="F70" s="138"/>
+      <c r="G70" s="138"/>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="2:8" ht="45">
-      <c r="B71" s="145" t="s">
+      <c r="B71" s="139" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -33689,13 +33699,13 @@
       <c r="D71" s="5" t="s">
         <v>2439</v>
       </c>
-      <c r="E71" s="131">
+      <c r="E71" s="110">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F71" s="102" t="s">
+      <c r="F71" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G71" s="102" t="s">
+      <c r="G71" s="137" t="s">
         <v>24</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -33703,7 +33713,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="22">
-      <c r="B72" s="144"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="4" t="s">
         <v>48</v>
       </c>
@@ -33711,38 +33721,38 @@
       <c r="E72" s="4" t="s">
         <v>2436</v>
       </c>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
       <c r="H72" s="4" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="33">
-      <c r="B73" s="144"/>
+    <row r="73" spans="2:8" ht="22">
+      <c r="B73" s="140"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="11"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
       <c r="H73" s="4" t="s">
         <v>2443</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="16" thickBot="1">
-      <c r="B74" s="146"/>
+      <c r="B74" s="141"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13" t="s">
         <v>2440</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
+      <c r="F74" s="138"/>
+      <c r="G74" s="138"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" ht="44">
-      <c r="B75" s="150" t="s">
+      <c r="B75" s="129" t="s">
         <v>2444</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -33751,13 +33761,13 @@
       <c r="D75" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="108" t="s">
+      <c r="E75" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="108" t="s">
+      <c r="F75" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="108" t="s">
+      <c r="G75" s="135" t="s">
         <v>24</v>
       </c>
       <c r="H75" s="6" t="s">
@@ -33765,67 +33775,67 @@
       </c>
     </row>
     <row r="76" spans="2:8" ht="44">
-      <c r="B76" s="149"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>2445</v>
       </c>
-      <c r="E76" s="110"/>
-      <c r="F76" s="110"/>
-      <c r="G76" s="110"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="147"/>
       <c r="H76" s="6" t="s">
         <v>2447</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="67" thickBot="1">
-      <c r="B77" s="151"/>
+    <row r="77" spans="2:8" ht="34" thickBot="1">
+      <c r="B77" s="130"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
       <c r="H77" s="10" t="s">
         <v>2448</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="145" t="s">
+      <c r="B78" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="102" t="s">
+      <c r="C78" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="102" t="s">
+      <c r="D78" s="137" t="s">
         <v>2449</v>
       </c>
-      <c r="E78" s="102" t="s">
+      <c r="E78" s="137" t="s">
         <v>24</v>
       </c>
       <c r="F78" s="4">
         <v>11.2</v>
       </c>
-      <c r="G78" s="102" t="s">
+      <c r="G78" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="102" t="s">
+      <c r="H78" s="137" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="16" thickBot="1">
-      <c r="B79" s="146"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="104"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="138"/>
       <c r="F79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
+      <c r="G79" s="138"/>
+      <c r="H79" s="138"/>
     </row>
     <row r="80" spans="2:8" ht="30">
-      <c r="B80" s="145" t="s">
+      <c r="B80" s="139" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -33848,7 +33858,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="44">
-      <c r="B81" s="144"/>
+      <c r="B81" s="140"/>
       <c r="C81" s="4" t="s">
         <v>54</v>
       </c>
@@ -33866,8 +33876,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="44">
-      <c r="B82" s="144"/>
+    <row r="82" spans="2:8" ht="45">
+      <c r="B82" s="140"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -33882,7 +33892,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="30">
-      <c r="B83" s="144"/>
+      <c r="B83" s="140"/>
       <c r="C83" s="5" t="s">
         <v>55</v>
       </c>
@@ -33900,8 +33910,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="44">
-      <c r="B84" s="144"/>
+    <row r="84" spans="2:8" ht="22">
+      <c r="B84" s="140"/>
       <c r="C84" s="11"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -33916,7 +33926,7 @@
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="144"/>
+      <c r="B85" s="140"/>
       <c r="C85" s="11"/>
       <c r="D85" s="5" t="s">
         <v>4</v>
@@ -33927,7 +33937,7 @@
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="144"/>
+      <c r="B86" s="140"/>
       <c r="C86" s="11"/>
       <c r="D86" s="5" t="s">
         <v>58</v>
@@ -33938,7 +33948,7 @@
       <c r="H86" s="11"/>
     </row>
     <row r="87" spans="2:8" ht="16" thickBot="1">
-      <c r="B87" s="146"/>
+      <c r="B87" s="141"/>
       <c r="C87" s="12"/>
       <c r="D87" s="2"/>
       <c r="E87" s="12"/>
@@ -33947,36 +33957,36 @@
       <c r="H87" s="12"/>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="93"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="94"/>
-      <c r="H88" s="95"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="122"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="96" t="s">
+      <c r="B89" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="97"/>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97"/>
-      <c r="H89" s="98"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="125"/>
     </row>
     <row r="90" spans="2:8" ht="16" thickBot="1">
-      <c r="B90" s="99"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="100"/>
-      <c r="G90" s="100"/>
-      <c r="H90" s="101"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="128"/>
     </row>
     <row r="91" spans="2:8" ht="30">
-      <c r="B91" s="150" t="s">
+      <c r="B91" s="129" t="s">
         <v>75</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -33994,12 +34004,12 @@
       <c r="G91" s="6">
         <v>2.9</v>
       </c>
-      <c r="H91" s="108" t="s">
+      <c r="H91" s="135" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="60">
-      <c r="B92" s="149"/>
+      <c r="B92" s="146"/>
       <c r="C92" s="9" t="s">
         <v>76</v>
       </c>
@@ -34013,10 +34023,10 @@
       <c r="G92" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H92" s="110"/>
+      <c r="H92" s="147"/>
     </row>
     <row r="93" spans="2:8" ht="75">
-      <c r="B93" s="149"/>
+      <c r="B93" s="146"/>
       <c r="C93" s="9" t="s">
         <v>77</v>
       </c>
@@ -34026,10 +34036,10 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="110"/>
+      <c r="H93" s="147"/>
     </row>
     <row r="94" spans="2:8" ht="31" thickBot="1">
-      <c r="B94" s="151"/>
+      <c r="B94" s="130"/>
       <c r="C94" s="10"/>
       <c r="D94" s="14" t="s">
         <v>80</v>
@@ -34037,25 +34047,25 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="109"/>
+      <c r="H94" s="136"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="145" t="s">
+      <c r="B95" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="102" t="s">
+      <c r="C95" s="137" t="s">
         <v>53</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="102" t="s">
+      <c r="E95" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="102" t="s">
+      <c r="F95" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="102">
+      <c r="G95" s="137">
         <v>92.2</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -34063,113 +34073,113 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="144"/>
-      <c r="C96" s="103"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="142"/>
       <c r="D96" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="103"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="103"/>
+      <c r="E96" s="142"/>
+      <c r="F96" s="142"/>
+      <c r="G96" s="142"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="2:8" ht="77">
-      <c r="B97" s="144"/>
-      <c r="C97" s="103"/>
+    <row r="97" spans="2:8" ht="44">
+      <c r="B97" s="140"/>
+      <c r="C97" s="142"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="103"/>
+      <c r="E97" s="142"/>
+      <c r="F97" s="142"/>
+      <c r="G97" s="142"/>
       <c r="H97" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="144"/>
-      <c r="C98" s="103"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="142"/>
       <c r="D98" s="11"/>
-      <c r="E98" s="103"/>
-      <c r="F98" s="103"/>
-      <c r="G98" s="103"/>
+      <c r="E98" s="142"/>
+      <c r="F98" s="142"/>
+      <c r="G98" s="142"/>
       <c r="H98" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="22">
-      <c r="B99" s="144"/>
-      <c r="C99" s="103"/>
+    <row r="99" spans="2:8">
+      <c r="B99" s="140"/>
+      <c r="C99" s="142"/>
       <c r="D99" s="11"/>
-      <c r="E99" s="103"/>
-      <c r="F99" s="103"/>
-      <c r="G99" s="103"/>
+      <c r="E99" s="142"/>
+      <c r="F99" s="142"/>
+      <c r="G99" s="142"/>
       <c r="H99" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="144"/>
-      <c r="C100" s="103"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="142"/>
       <c r="D100" s="11"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="103"/>
-      <c r="G100" s="103"/>
+      <c r="E100" s="142"/>
+      <c r="F100" s="142"/>
+      <c r="G100" s="142"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="2:8" ht="66">
-      <c r="B101" s="144"/>
-      <c r="C101" s="103"/>
+    <row r="101" spans="2:8" ht="33">
+      <c r="B101" s="140"/>
+      <c r="C101" s="142"/>
       <c r="D101" s="11"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
-      <c r="G101" s="103"/>
+      <c r="E101" s="142"/>
+      <c r="F101" s="142"/>
+      <c r="G101" s="142"/>
       <c r="H101" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="22">
-      <c r="B102" s="144"/>
-      <c r="C102" s="103"/>
+    <row r="102" spans="2:8">
+      <c r="B102" s="140"/>
+      <c r="C102" s="142"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="103"/>
+      <c r="E102" s="142"/>
+      <c r="F102" s="142"/>
+      <c r="G102" s="142"/>
       <c r="H102" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="144"/>
-      <c r="C103" s="103"/>
+      <c r="B103" s="140"/>
+      <c r="C103" s="142"/>
       <c r="D103" s="11"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
-      <c r="G103" s="103"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="142"/>
+      <c r="G103" s="142"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="2:8" ht="55">
-      <c r="B104" s="144"/>
-      <c r="C104" s="103"/>
+    <row r="104" spans="2:8" ht="33">
+      <c r="B104" s="140"/>
+      <c r="C104" s="142"/>
       <c r="D104" s="11"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="103"/>
-      <c r="G104" s="103"/>
+      <c r="E104" s="142"/>
+      <c r="F104" s="142"/>
+      <c r="G104" s="142"/>
       <c r="H104" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="23" thickBot="1">
-      <c r="B105" s="146"/>
-      <c r="C105" s="104"/>
+    <row r="105" spans="2:8" ht="16" thickBot="1">
+      <c r="B105" s="141"/>
+      <c r="C105" s="138"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="104"/>
+      <c r="E105" s="138"/>
+      <c r="F105" s="138"/>
+      <c r="G105" s="138"/>
       <c r="H105" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="145" t="s">
+      <c r="B106" s="139" t="s">
         <v>94</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -34192,7 +34202,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="33">
-      <c r="B107" s="144"/>
+      <c r="B107" s="140"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>98</v>
@@ -34211,7 +34221,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="110">
-      <c r="B108" s="144"/>
+      <c r="B108" s="140"/>
       <c r="C108" s="4" t="s">
         <v>96</v>
       </c>
@@ -34222,7 +34232,7 @@
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="144"/>
+      <c r="B109" s="140"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>99</v>
@@ -34233,7 +34243,7 @@
       <c r="H109" s="11"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="144"/>
+      <c r="B110" s="140"/>
       <c r="C110" s="11"/>
       <c r="D110" s="5" t="s">
         <v>4</v>
@@ -34244,7 +34254,7 @@
       <c r="H110" s="11"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="144"/>
+      <c r="B111" s="140"/>
       <c r="C111" s="11"/>
       <c r="D111" s="5" t="s">
         <v>100</v>
@@ -34255,7 +34265,7 @@
       <c r="H111" s="11"/>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="144"/>
+      <c r="B112" s="140"/>
       <c r="C112" s="11"/>
       <c r="D112" s="4"/>
       <c r="E112" s="11"/>
@@ -34264,7 +34274,7 @@
       <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8" ht="16" thickBot="1">
-      <c r="B113" s="146"/>
+      <c r="B113" s="141"/>
       <c r="C113" s="12"/>
       <c r="D113" s="2"/>
       <c r="E113" s="12"/>
@@ -34273,7 +34283,7 @@
       <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="B114" s="145" t="s">
+      <c r="B114" s="139" t="s">
         <v>105</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -34296,7 +34306,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="22">
-      <c r="B115" s="144"/>
+      <c r="B115" s="140"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
         <v>107</v>
@@ -34313,7 +34323,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="B116" s="144"/>
+      <c r="B116" s="140"/>
       <c r="C116" s="4" t="s">
         <v>106</v>
       </c>
@@ -34326,7 +34336,7 @@
       <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8" ht="16" thickBot="1">
-      <c r="B117" s="146"/>
+      <c r="B117" s="141"/>
       <c r="C117" s="12"/>
       <c r="D117" s="13" t="s">
         <v>108</v>
@@ -34341,7 +34351,7 @@
       <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="B118" s="150" t="s">
+      <c r="B118" s="129" t="s">
         <v>110</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -34350,10 +34360,10 @@
       <c r="D118" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E118" s="108">
+      <c r="E118" s="135">
         <v>96</v>
       </c>
-      <c r="F118" s="108">
+      <c r="F118" s="135">
         <v>92</v>
       </c>
       <c r="G118" s="6" t="s">
@@ -34363,14 +34373,14 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="55">
-      <c r="B119" s="149"/>
+    <row r="119" spans="1:8" ht="33">
+      <c r="B119" s="146"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E119" s="110"/>
-      <c r="F119" s="110"/>
+      <c r="E119" s="147"/>
+      <c r="F119" s="147"/>
       <c r="G119" s="6" t="s">
         <v>9</v>
       </c>
@@ -34379,75 +34389,75 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="55">
-      <c r="B120" s="149"/>
+      <c r="B120" s="146"/>
       <c r="C120" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="110"/>
-      <c r="F120" s="110"/>
+      <c r="E120" s="147"/>
+      <c r="F120" s="147"/>
       <c r="G120" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="B121" s="149"/>
+      <c r="B121" s="146"/>
       <c r="C121" s="6"/>
       <c r="D121" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="110"/>
-      <c r="F121" s="110"/>
+      <c r="E121" s="147"/>
+      <c r="F121" s="147"/>
       <c r="G121" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" ht="55">
-      <c r="B122" s="149"/>
+      <c r="B122" s="146"/>
       <c r="C122" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E122" s="110"/>
-      <c r="F122" s="110"/>
+      <c r="E122" s="147"/>
+      <c r="F122" s="147"/>
       <c r="G122" s="6" t="s">
         <v>119</v>
       </c>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="33">
-      <c r="B123" s="149"/>
+    <row r="123" spans="1:8" ht="22">
+      <c r="B123" s="146"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="110"/>
-      <c r="F123" s="110"/>
+      <c r="E123" s="147"/>
+      <c r="F123" s="147"/>
       <c r="G123" s="6" t="s">
         <v>120</v>
       </c>
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" ht="16" thickBot="1">
-      <c r="B124" s="151"/>
+      <c r="B124" s="130"/>
       <c r="C124" s="10"/>
       <c r="D124" s="8"/>
-      <c r="E124" s="109"/>
-      <c r="F124" s="109"/>
+      <c r="E124" s="136"/>
+      <c r="F124" s="136"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="20"/>
-      <c r="B125" s="145" t="s">
+      <c r="B125" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="102" t="s">
+      <c r="C125" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="D125" s="102" t="s">
+      <c r="D125" s="137" t="s">
         <v>124</v>
       </c>
       <c r="E125" s="4">
@@ -34456,44 +34466,44 @@
       <c r="F125" s="4">
         <v>70</v>
       </c>
-      <c r="G125" s="102" t="s">
+      <c r="G125" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H125" s="102" t="s">
+      <c r="H125" s="137" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="20"/>
-      <c r="B126" s="144"/>
-      <c r="C126" s="103"/>
-      <c r="D126" s="103"/>
+      <c r="B126" s="140"/>
+      <c r="C126" s="142"/>
+      <c r="D126" s="142"/>
       <c r="E126" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G126" s="103"/>
-      <c r="H126" s="103"/>
-    </row>
-    <row r="127" spans="1:8" ht="16" thickBot="1">
+      <c r="G126" s="142"/>
+      <c r="H126" s="142"/>
+    </row>
+    <row r="127" spans="1:8" ht="23" thickBot="1">
       <c r="A127" s="20"/>
-      <c r="B127" s="146"/>
-      <c r="C127" s="104"/>
-      <c r="D127" s="104"/>
+      <c r="B127" s="141"/>
+      <c r="C127" s="138"/>
+      <c r="D127" s="138"/>
       <c r="E127" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F127" s="12"/>
-      <c r="G127" s="104"/>
-      <c r="H127" s="104"/>
+      <c r="G127" s="138"/>
+      <c r="H127" s="138"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="B128" s="145" t="s">
+      <c r="B128" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="102" t="s">
+      <c r="C128" s="137" t="s">
         <v>123</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -34505,16 +34515,16 @@
       <c r="F128" s="4">
         <v>10.5</v>
       </c>
-      <c r="G128" s="102" t="s">
+      <c r="G128" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H128" s="102" t="s">
+      <c r="H128" s="137" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="144"/>
-      <c r="C129" s="103"/>
+      <c r="B129" s="140"/>
+      <c r="C129" s="142"/>
       <c r="D129" s="4" t="s">
         <v>127</v>
       </c>
@@ -34522,21 +34532,21 @@
         <v>101</v>
       </c>
       <c r="F129" s="4"/>
-      <c r="G129" s="103"/>
-      <c r="H129" s="103"/>
+      <c r="G129" s="142"/>
+      <c r="H129" s="142"/>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="144"/>
-      <c r="C130" s="103"/>
+      <c r="B130" s="140"/>
+      <c r="C130" s="142"/>
       <c r="D130" s="11"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="103"/>
-      <c r="H130" s="103"/>
+      <c r="G130" s="142"/>
+      <c r="H130" s="142"/>
     </row>
     <row r="131" spans="2:8" ht="16" thickBot="1">
-      <c r="B131" s="146"/>
-      <c r="C131" s="104"/>
+      <c r="B131" s="141"/>
+      <c r="C131" s="138"/>
       <c r="D131" s="12"/>
       <c r="E131" s="2">
         <v>7.2</v>
@@ -34544,8 +34554,8 @@
       <c r="F131" s="2">
         <v>16.2</v>
       </c>
-      <c r="G131" s="104"/>
-      <c r="H131" s="104"/>
+      <c r="G131" s="138"/>
+      <c r="H131" s="138"/>
     </row>
     <row r="132" spans="2:8" ht="16" thickBot="1">
       <c r="B132" s="1" t="s">
@@ -34571,10 +34581,10 @@
       </c>
     </row>
     <row r="133" spans="2:8" ht="44">
-      <c r="B133" s="145" t="s">
+      <c r="B133" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="102" t="s">
+      <c r="C133" s="137" t="s">
         <v>131</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -34583,10 +34593,10 @@
       <c r="E133" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F133" s="102" t="s">
+      <c r="F133" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G133" s="102" t="s">
+      <c r="G133" s="137" t="s">
         <v>24</v>
       </c>
       <c r="H133" s="4" t="s">
@@ -34594,128 +34604,128 @@
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="144"/>
-      <c r="C134" s="103"/>
+      <c r="B134" s="140"/>
+      <c r="C134" s="142"/>
       <c r="D134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F134" s="103"/>
-      <c r="G134" s="103"/>
+      <c r="F134" s="142"/>
+      <c r="G134" s="142"/>
       <c r="H134" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="144"/>
-      <c r="C135" s="103"/>
+      <c r="B135" s="140"/>
+      <c r="C135" s="142"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F135" s="103"/>
-      <c r="G135" s="103"/>
+      <c r="F135" s="142"/>
+      <c r="G135" s="142"/>
       <c r="H135" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="2:8" ht="179" customHeight="1">
-      <c r="B136" s="144"/>
-      <c r="C136" s="103"/>
+      <c r="B136" s="140"/>
+      <c r="C136" s="142"/>
       <c r="D136" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F136" s="103"/>
-      <c r="G136" s="103"/>
+      <c r="F136" s="142"/>
+      <c r="G136" s="142"/>
       <c r="H136" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="144"/>
-      <c r="C137" s="103"/>
+      <c r="B137" s="140"/>
+      <c r="C137" s="142"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F137" s="103"/>
-      <c r="G137" s="103"/>
+      <c r="F137" s="142"/>
+      <c r="G137" s="142"/>
       <c r="H137" s="11"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="144"/>
-      <c r="C138" s="103"/>
+      <c r="B138" s="140"/>
+      <c r="C138" s="142"/>
       <c r="D138" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E138" s="4"/>
-      <c r="F138" s="103"/>
-      <c r="G138" s="103"/>
+      <c r="F138" s="142"/>
+      <c r="G138" s="142"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="2:8">
-      <c r="B139" s="144"/>
-      <c r="C139" s="103"/>
+    <row r="139" spans="2:8" ht="33">
+      <c r="B139" s="140"/>
+      <c r="C139" s="142"/>
       <c r="D139" s="11"/>
       <c r="E139" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F139" s="103"/>
-      <c r="G139" s="103"/>
+      <c r="F139" s="142"/>
+      <c r="G139" s="142"/>
       <c r="H139" s="11"/>
     </row>
     <row r="140" spans="2:8">
-      <c r="B140" s="144"/>
-      <c r="C140" s="103"/>
+      <c r="B140" s="140"/>
+      <c r="C140" s="142"/>
       <c r="D140" s="11"/>
       <c r="E140" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F140" s="103"/>
-      <c r="G140" s="103"/>
+      <c r="F140" s="142"/>
+      <c r="G140" s="142"/>
       <c r="H140" s="11"/>
     </row>
     <row r="141" spans="2:8">
-      <c r="B141" s="144"/>
-      <c r="C141" s="103"/>
+      <c r="B141" s="140"/>
+      <c r="C141" s="142"/>
       <c r="D141" s="11"/>
       <c r="E141" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F141" s="103"/>
-      <c r="G141" s="103"/>
+      <c r="F141" s="142"/>
+      <c r="G141" s="142"/>
       <c r="H141" s="11"/>
     </row>
     <row r="142" spans="2:8">
-      <c r="B142" s="144"/>
-      <c r="C142" s="103"/>
+      <c r="B142" s="140"/>
+      <c r="C142" s="142"/>
       <c r="D142" s="11"/>
       <c r="E142" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F142" s="103"/>
-      <c r="G142" s="103"/>
+      <c r="F142" s="142"/>
+      <c r="G142" s="142"/>
       <c r="H142" s="11"/>
     </row>
     <row r="143" spans="2:8" ht="16" thickBot="1">
-      <c r="B143" s="146"/>
-      <c r="C143" s="104"/>
+      <c r="B143" s="141"/>
+      <c r="C143" s="138"/>
       <c r="D143" s="12"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="104"/>
-      <c r="G143" s="104"/>
+      <c r="F143" s="138"/>
+      <c r="G143" s="138"/>
       <c r="H143" s="12"/>
     </row>
     <row r="144" spans="2:8">
-      <c r="B144" s="145" t="s">
+      <c r="B144" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="102" t="s">
+      <c r="C144" s="137" t="s">
         <v>131</v>
       </c>
       <c r="D144" s="4" t="s">
@@ -34734,9 +34744,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="56" thickBot="1">
-      <c r="B145" s="146"/>
-      <c r="C145" s="104"/>
+    <row r="145" spans="1:8" ht="23" thickBot="1">
+      <c r="B145" s="141"/>
+      <c r="C145" s="138"/>
       <c r="D145" s="13" t="s">
         <v>150</v>
       </c>
@@ -34757,15 +34767,15 @@
       <c r="B146" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C146" s="102" t="s">
+      <c r="C146" s="137" t="s">
         <v>131</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="102"/>
-      <c r="F146" s="102"/>
-      <c r="G146" s="102"/>
+      <c r="E146" s="137"/>
+      <c r="F146" s="137"/>
+      <c r="G146" s="137"/>
       <c r="H146" s="4" t="s">
         <v>156</v>
       </c>
@@ -34775,35 +34785,35 @@
       <c r="B147" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C147" s="103"/>
+      <c r="C147" s="142"/>
       <c r="D147" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E147" s="103"/>
-      <c r="F147" s="103"/>
-      <c r="G147" s="103"/>
+      <c r="E147" s="142"/>
+      <c r="F147" s="142"/>
+      <c r="G147" s="142"/>
       <c r="H147" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="143">
-      <c r="B148" s="135"/>
-      <c r="C148" s="103"/>
+    <row r="148" spans="1:8" ht="88">
+      <c r="B148" s="114"/>
+      <c r="C148" s="142"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="103"/>
-      <c r="F148" s="103"/>
-      <c r="G148" s="103"/>
+      <c r="E148" s="142"/>
+      <c r="F148" s="142"/>
+      <c r="G148" s="142"/>
       <c r="H148" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="23" thickBot="1">
-      <c r="B149" s="136"/>
-      <c r="C149" s="104"/>
+    <row r="149" spans="1:8" ht="16" thickBot="1">
+      <c r="B149" s="115"/>
+      <c r="C149" s="138"/>
       <c r="D149" s="12"/>
-      <c r="E149" s="104"/>
-      <c r="F149" s="104"/>
-      <c r="G149" s="104"/>
+      <c r="E149" s="138"/>
+      <c r="F149" s="138"/>
+      <c r="G149" s="138"/>
       <c r="H149" s="2" t="s">
         <v>159</v>
       </c>
@@ -34830,169 +34840,169 @@
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8" ht="28" customHeight="1">
-      <c r="B151" s="145" t="s">
+      <c r="B151" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="C151" s="102" t="s">
+      <c r="C151" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="D151" s="102" t="s">
+      <c r="D151" s="137" t="s">
         <v>165</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F151" s="102" t="s">
+      <c r="F151" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="G151" s="102" t="s">
+      <c r="G151" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="H151" s="102"/>
+      <c r="H151" s="137"/>
     </row>
     <row r="152" spans="1:8" ht="16" thickBot="1">
-      <c r="B152" s="146"/>
-      <c r="C152" s="104"/>
-      <c r="D152" s="104"/>
+      <c r="B152" s="141"/>
+      <c r="C152" s="138"/>
+      <c r="D152" s="138"/>
       <c r="E152" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F152" s="104"/>
-      <c r="G152" s="104"/>
-      <c r="H152" s="104"/>
+      <c r="F152" s="138"/>
+      <c r="G152" s="138"/>
+      <c r="H152" s="138"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="B153" s="93"/>
-      <c r="C153" s="94"/>
-      <c r="D153" s="94"/>
-      <c r="E153" s="94"/>
-      <c r="F153" s="94"/>
-      <c r="G153" s="94"/>
-      <c r="H153" s="95"/>
+      <c r="B153" s="120"/>
+      <c r="C153" s="121"/>
+      <c r="D153" s="121"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
+      <c r="G153" s="121"/>
+      <c r="H153" s="122"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="B154" s="96" t="s">
+      <c r="B154" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="C154" s="97"/>
-      <c r="D154" s="97"/>
-      <c r="E154" s="97"/>
-      <c r="F154" s="97"/>
-      <c r="G154" s="97"/>
-      <c r="H154" s="98"/>
+      <c r="C154" s="124"/>
+      <c r="D154" s="124"/>
+      <c r="E154" s="124"/>
+      <c r="F154" s="124"/>
+      <c r="G154" s="124"/>
+      <c r="H154" s="125"/>
     </row>
     <row r="155" spans="1:8" ht="16" thickBot="1">
-      <c r="B155" s="99"/>
-      <c r="C155" s="100"/>
-      <c r="D155" s="100"/>
-      <c r="E155" s="100"/>
-      <c r="F155" s="100"/>
-      <c r="G155" s="100"/>
-      <c r="H155" s="101"/>
+      <c r="B155" s="126"/>
+      <c r="C155" s="127"/>
+      <c r="D155" s="127"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="127"/>
+      <c r="H155" s="128"/>
     </row>
     <row r="156" spans="1:8" ht="44" customHeight="1">
-      <c r="B156" s="145" t="s">
+      <c r="B156" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="C156" s="102" t="s">
+      <c r="C156" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="D156" s="147" t="s">
+      <c r="D156" s="150" t="s">
         <v>56</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F156" s="102" t="s">
+      <c r="F156" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G156" s="102" t="s">
+      <c r="G156" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H156" s="102" t="s">
+      <c r="H156" s="137" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="B157" s="144"/>
-      <c r="C157" s="103"/>
-      <c r="D157" s="159"/>
+      <c r="B157" s="140"/>
+      <c r="C157" s="142"/>
+      <c r="D157" s="151"/>
       <c r="E157" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F157" s="103"/>
-      <c r="G157" s="103"/>
-      <c r="H157" s="103"/>
+      <c r="F157" s="142"/>
+      <c r="G157" s="142"/>
+      <c r="H157" s="142"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="B158" s="144"/>
-      <c r="C158" s="103"/>
-      <c r="D158" s="159"/>
+      <c r="B158" s="140"/>
+      <c r="C158" s="142"/>
+      <c r="D158" s="151"/>
       <c r="E158" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F158" s="103"/>
-      <c r="G158" s="103"/>
-      <c r="H158" s="103"/>
+      <c r="F158" s="142"/>
+      <c r="G158" s="142"/>
+      <c r="H158" s="142"/>
     </row>
     <row r="159" spans="1:8" ht="16" thickBot="1">
-      <c r="B159" s="146"/>
-      <c r="C159" s="104"/>
-      <c r="D159" s="148"/>
+      <c r="B159" s="141"/>
+      <c r="C159" s="138"/>
+      <c r="D159" s="152"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="104"/>
-      <c r="G159" s="104"/>
-      <c r="H159" s="104"/>
+      <c r="F159" s="138"/>
+      <c r="G159" s="138"/>
+      <c r="H159" s="138"/>
     </row>
     <row r="160" spans="1:8" ht="44">
-      <c r="B160" s="145" t="s">
+      <c r="B160" s="139" t="s">
         <v>177</v>
       </c>
-      <c r="C160" s="102" t="s">
+      <c r="C160" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="102" t="s">
+      <c r="D160" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E160" s="102" t="s">
+      <c r="E160" s="137" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G160" s="102" t="s">
+      <c r="G160" s="137" t="s">
         <v>24</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="22">
-      <c r="B161" s="144"/>
-      <c r="C161" s="103"/>
-      <c r="D161" s="103"/>
-      <c r="E161" s="103"/>
+    <row r="161" spans="1:8">
+      <c r="B161" s="140"/>
+      <c r="C161" s="142"/>
+      <c r="D161" s="142"/>
+      <c r="E161" s="142"/>
       <c r="F161" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G161" s="103"/>
+      <c r="G161" s="142"/>
       <c r="H161" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="78" thickBot="1">
-      <c r="B162" s="146"/>
-      <c r="C162" s="104"/>
-      <c r="D162" s="104"/>
-      <c r="E162" s="104"/>
+    <row r="162" spans="1:8" ht="56" thickBot="1">
+      <c r="B162" s="141"/>
+      <c r="C162" s="138"/>
+      <c r="D162" s="138"/>
+      <c r="E162" s="138"/>
       <c r="F162" s="12"/>
-      <c r="G162" s="104"/>
+      <c r="G162" s="138"/>
       <c r="H162" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16" thickBot="1">
-      <c r="B163" s="133" t="s">
+      <c r="B163" s="112" t="s">
         <v>184</v>
       </c>
       <c r="C163" s="10" t="s">
@@ -35004,82 +35014,82 @@
       <c r="G163" s="10">
         <v>0</v>
       </c>
-      <c r="H163" s="137">
+      <c r="H163" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="B164" s="132" t="s">
+      <c r="B164" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="C164" s="108" t="s">
+      <c r="C164" s="135" t="s">
         <v>2450</v>
       </c>
-      <c r="D164" s="111" t="s">
+      <c r="D164" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="E164" s="160">
+      <c r="E164" s="148">
         <v>0.33</v>
       </c>
-      <c r="F164" s="160">
+      <c r="F164" s="148">
         <v>0.33</v>
       </c>
-      <c r="G164" s="160">
+      <c r="G164" s="148">
         <v>0.33</v>
       </c>
-      <c r="H164" s="160">
+      <c r="H164" s="148">
         <v>0.33</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16" thickBot="1">
-      <c r="B165" s="133" t="s">
+      <c r="B165" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="C165" s="109"/>
-      <c r="D165" s="112"/>
-      <c r="E165" s="161"/>
-      <c r="F165" s="161"/>
-      <c r="G165" s="161"/>
-      <c r="H165" s="161"/>
+      <c r="C165" s="136"/>
+      <c r="D165" s="134"/>
+      <c r="E165" s="149"/>
+      <c r="F165" s="149"/>
+      <c r="G165" s="149"/>
+      <c r="H165" s="149"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="20"/>
-      <c r="B166" s="93"/>
-      <c r="C166" s="94"/>
-      <c r="D166" s="94"/>
-      <c r="E166" s="94"/>
-      <c r="F166" s="94"/>
-      <c r="G166" s="94"/>
-      <c r="H166" s="95"/>
+      <c r="B166" s="120"/>
+      <c r="C166" s="121"/>
+      <c r="D166" s="121"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="121"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="122"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="20"/>
-      <c r="B167" s="96" t="s">
+      <c r="B167" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="C167" s="97"/>
-      <c r="D167" s="97"/>
-      <c r="E167" s="97"/>
-      <c r="F167" s="97"/>
-      <c r="G167" s="97"/>
-      <c r="H167" s="98"/>
+      <c r="C167" s="124"/>
+      <c r="D167" s="124"/>
+      <c r="E167" s="124"/>
+      <c r="F167" s="124"/>
+      <c r="G167" s="124"/>
+      <c r="H167" s="125"/>
     </row>
     <row r="168" spans="1:8" ht="16" thickBot="1">
       <c r="A168" s="20"/>
-      <c r="B168" s="99"/>
-      <c r="C168" s="100"/>
-      <c r="D168" s="100"/>
-      <c r="E168" s="100"/>
-      <c r="F168" s="100"/>
-      <c r="G168" s="100"/>
-      <c r="H168" s="101"/>
+      <c r="B168" s="126"/>
+      <c r="C168" s="127"/>
+      <c r="D168" s="127"/>
+      <c r="E168" s="127"/>
+      <c r="F168" s="127"/>
+      <c r="G168" s="127"/>
+      <c r="H168" s="128"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="20"/>
-      <c r="B169" s="150" t="s">
+      <c r="B169" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="108" t="s">
+      <c r="C169" s="135" t="s">
         <v>190</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -35088,53 +35098,53 @@
       <c r="E169" s="16">
         <v>0.44</v>
       </c>
-      <c r="F169" s="108" t="s">
+      <c r="F169" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="G169" s="108" t="s">
+      <c r="G169" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="H169" s="108" t="s">
+      <c r="H169" s="135" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="20"/>
-      <c r="B170" s="149"/>
-      <c r="C170" s="110"/>
+      <c r="B170" s="146"/>
+      <c r="C170" s="147"/>
       <c r="D170" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E170" s="6"/>
-      <c r="F170" s="110"/>
-      <c r="G170" s="110"/>
-      <c r="H170" s="110"/>
+      <c r="F170" s="147"/>
+      <c r="G170" s="147"/>
+      <c r="H170" s="147"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="20"/>
-      <c r="B171" s="149"/>
-      <c r="C171" s="110"/>
+      <c r="B171" s="146"/>
+      <c r="C171" s="147"/>
       <c r="D171" s="6"/>
       <c r="E171" s="16">
         <v>0.41</v>
       </c>
-      <c r="F171" s="110"/>
-      <c r="G171" s="110"/>
-      <c r="H171" s="110"/>
+      <c r="F171" s="147"/>
+      <c r="G171" s="147"/>
+      <c r="H171" s="147"/>
     </row>
     <row r="172" spans="1:8" ht="16" thickBot="1">
-      <c r="B172" s="151"/>
-      <c r="C172" s="109"/>
+      <c r="B172" s="130"/>
+      <c r="C172" s="136"/>
       <c r="D172" s="14" t="s">
         <v>193</v>
       </c>
       <c r="E172" s="10"/>
-      <c r="F172" s="109"/>
-      <c r="G172" s="109"/>
-      <c r="H172" s="109"/>
+      <c r="F172" s="136"/>
+      <c r="G172" s="136"/>
+      <c r="H172" s="136"/>
     </row>
     <row r="173" spans="1:8" ht="34" thickBot="1">
-      <c r="B173" s="133" t="s">
+      <c r="B173" s="112" t="s">
         <v>196</v>
       </c>
       <c r="C173" s="10" t="s">
@@ -35157,39 +35167,39 @@
       </c>
     </row>
     <row r="174" spans="1:8" ht="164" customHeight="1">
-      <c r="B174" s="150" t="s">
+      <c r="B174" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="108" t="s">
+      <c r="C174" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D174" s="111" t="s">
+      <c r="D174" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="E174" s="108" t="s">
+      <c r="E174" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="F174" s="108" t="s">
+      <c r="F174" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G174" s="108" t="s">
+      <c r="G174" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="H174" s="108" t="s">
+      <c r="H174" s="135" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="16" thickBot="1">
-      <c r="B175" s="151"/>
-      <c r="C175" s="109"/>
-      <c r="D175" s="112"/>
-      <c r="E175" s="109"/>
-      <c r="F175" s="109"/>
-      <c r="G175" s="109"/>
-      <c r="H175" s="109"/>
+      <c r="B175" s="130"/>
+      <c r="C175" s="136"/>
+      <c r="D175" s="134"/>
+      <c r="E175" s="136"/>
+      <c r="F175" s="136"/>
+      <c r="G175" s="136"/>
+      <c r="H175" s="136"/>
     </row>
     <row r="176" spans="1:8" ht="33">
-      <c r="B176" s="150" t="s">
+      <c r="B176" s="129" t="s">
         <v>202</v>
       </c>
       <c r="C176" s="6" t="s">
@@ -35201,10 +35211,10 @@
       <c r="E176" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F176" s="108" t="s">
+      <c r="F176" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G176" s="108" t="s">
+      <c r="G176" s="135" t="s">
         <v>176</v>
       </c>
       <c r="H176" s="6" t="s">
@@ -35212,7 +35222,7 @@
       </c>
     </row>
     <row r="177" spans="2:8" ht="99">
-      <c r="B177" s="149"/>
+      <c r="B177" s="146"/>
       <c r="C177" s="6" t="s">
         <v>203</v>
       </c>
@@ -35220,49 +35230,49 @@
       <c r="E177" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F177" s="110"/>
-      <c r="G177" s="110"/>
+      <c r="F177" s="147"/>
+      <c r="G177" s="147"/>
       <c r="H177" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="178" spans="2:8">
-      <c r="B178" s="149"/>
+      <c r="B178" s="146"/>
       <c r="C178" s="6"/>
       <c r="D178" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E178" s="7"/>
-      <c r="F178" s="110"/>
-      <c r="G178" s="110"/>
+      <c r="F178" s="147"/>
+      <c r="G178" s="147"/>
       <c r="H178" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="22">
-      <c r="B179" s="149"/>
+    <row r="179" spans="2:8">
+      <c r="B179" s="146"/>
       <c r="C179" s="7"/>
       <c r="D179" s="9" t="s">
         <v>205</v>
       </c>
       <c r="E179" s="7"/>
-      <c r="F179" s="110"/>
-      <c r="G179" s="110"/>
+      <c r="F179" s="147"/>
+      <c r="G179" s="147"/>
       <c r="H179" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="16" thickBot="1">
-      <c r="B180" s="151"/>
+      <c r="B180" s="130"/>
       <c r="C180" s="8"/>
       <c r="D180" s="10"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="109"/>
-      <c r="G180" s="109"/>
+      <c r="F180" s="136"/>
+      <c r="G180" s="136"/>
       <c r="H180" s="10"/>
     </row>
     <row r="181" spans="2:8" ht="30">
-      <c r="B181" s="150" t="s">
+      <c r="B181" s="129" t="s">
         <v>210</v>
       </c>
       <c r="C181" s="6" t="s">
@@ -35271,13 +35281,13 @@
       <c r="D181" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E181" s="108" t="s">
+      <c r="E181" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="F181" s="108" t="s">
+      <c r="F181" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G181" s="108" t="s">
+      <c r="G181" s="135" t="s">
         <v>24</v>
       </c>
       <c r="H181" s="6" t="s">
@@ -35285,44 +35295,44 @@
       </c>
     </row>
     <row r="182" spans="2:8" ht="55">
-      <c r="B182" s="149"/>
+      <c r="B182" s="146"/>
       <c r="C182" s="6" t="s">
         <v>212</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="110"/>
-      <c r="F182" s="110"/>
-      <c r="G182" s="110"/>
+      <c r="E182" s="147"/>
+      <c r="F182" s="147"/>
+      <c r="G182" s="147"/>
       <c r="H182" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="22">
-      <c r="B183" s="149"/>
+    <row r="183" spans="2:8">
+      <c r="B183" s="146"/>
       <c r="C183" s="6"/>
       <c r="D183" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E183" s="110"/>
-      <c r="F183" s="110"/>
-      <c r="G183" s="110"/>
+      <c r="E183" s="147"/>
+      <c r="F183" s="147"/>
+      <c r="G183" s="147"/>
       <c r="H183" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="184" spans="2:8" ht="16" thickBot="1">
-      <c r="B184" s="151"/>
+      <c r="B184" s="130"/>
       <c r="C184" s="8"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="109"/>
-      <c r="F184" s="109"/>
-      <c r="G184" s="109"/>
+      <c r="E184" s="136"/>
+      <c r="F184" s="136"/>
+      <c r="G184" s="136"/>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="2:8" ht="16" thickBot="1">
-      <c r="B185" s="133" t="s">
+      <c r="B185" s="112" t="s">
         <v>217</v>
       </c>
       <c r="C185" s="10" t="s">
@@ -35341,107 +35351,107 @@
       </c>
     </row>
     <row r="186" spans="2:8">
-      <c r="B186" s="93"/>
-      <c r="C186" s="94"/>
-      <c r="D186" s="94"/>
-      <c r="E186" s="94"/>
-      <c r="F186" s="94"/>
-      <c r="G186" s="94"/>
-      <c r="H186" s="95"/>
+      <c r="B186" s="120"/>
+      <c r="C186" s="121"/>
+      <c r="D186" s="121"/>
+      <c r="E186" s="121"/>
+      <c r="F186" s="121"/>
+      <c r="G186" s="121"/>
+      <c r="H186" s="122"/>
     </row>
     <row r="187" spans="2:8">
-      <c r="B187" s="96" t="s">
+      <c r="B187" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="C187" s="97"/>
-      <c r="D187" s="97"/>
-      <c r="E187" s="97"/>
-      <c r="F187" s="97"/>
-      <c r="G187" s="97"/>
-      <c r="H187" s="98"/>
+      <c r="C187" s="124"/>
+      <c r="D187" s="124"/>
+      <c r="E187" s="124"/>
+      <c r="F187" s="124"/>
+      <c r="G187" s="124"/>
+      <c r="H187" s="125"/>
     </row>
     <row r="188" spans="2:8" ht="16" thickBot="1">
-      <c r="B188" s="99"/>
-      <c r="C188" s="100"/>
-      <c r="D188" s="100"/>
-      <c r="E188" s="100"/>
-      <c r="F188" s="100"/>
-      <c r="G188" s="100"/>
-      <c r="H188" s="101"/>
+      <c r="B188" s="126"/>
+      <c r="C188" s="127"/>
+      <c r="D188" s="127"/>
+      <c r="E188" s="127"/>
+      <c r="F188" s="127"/>
+      <c r="G188" s="127"/>
+      <c r="H188" s="128"/>
     </row>
     <row r="189" spans="2:8" ht="30">
-      <c r="B189" s="145" t="s">
+      <c r="B189" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="102"/>
+      <c r="C189" s="137"/>
       <c r="D189" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E189" s="102" t="s">
+      <c r="E189" s="137" t="s">
         <v>223</v>
       </c>
       <c r="F189" s="17">
         <v>1805853</v>
       </c>
-      <c r="G189" s="102" t="s">
+      <c r="G189" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="H189" s="102" t="s">
+      <c r="H189" s="137" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="190" spans="2:8" ht="30">
-      <c r="B190" s="144"/>
-      <c r="C190" s="103"/>
+      <c r="B190" s="140"/>
+      <c r="C190" s="142"/>
       <c r="D190" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E190" s="103"/>
+      <c r="E190" s="142"/>
       <c r="F190" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G190" s="103"/>
-      <c r="H190" s="103"/>
+      <c r="G190" s="142"/>
+      <c r="H190" s="142"/>
     </row>
     <row r="191" spans="2:8" ht="30">
-      <c r="B191" s="144"/>
-      <c r="C191" s="103"/>
+      <c r="B191" s="140"/>
+      <c r="C191" s="142"/>
       <c r="D191" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E191" s="103"/>
+      <c r="E191" s="142"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="103"/>
-      <c r="H191" s="103"/>
+      <c r="G191" s="142"/>
+      <c r="H191" s="142"/>
     </row>
     <row r="192" spans="2:8">
-      <c r="B192" s="144"/>
-      <c r="C192" s="103"/>
+      <c r="B192" s="140"/>
+      <c r="C192" s="142"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="103"/>
+      <c r="E192" s="142"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="103"/>
-      <c r="H192" s="103"/>
+      <c r="G192" s="142"/>
+      <c r="H192" s="142"/>
     </row>
     <row r="193" spans="2:8" ht="30">
-      <c r="B193" s="144"/>
-      <c r="C193" s="103"/>
+      <c r="B193" s="140"/>
+      <c r="C193" s="142"/>
       <c r="D193" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E193" s="103"/>
+      <c r="E193" s="142"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="103"/>
-      <c r="H193" s="103"/>
+      <c r="G193" s="142"/>
+      <c r="H193" s="142"/>
     </row>
     <row r="194" spans="2:8" ht="16" thickBot="1">
-      <c r="B194" s="146"/>
-      <c r="C194" s="104"/>
+      <c r="B194" s="141"/>
+      <c r="C194" s="138"/>
       <c r="D194" s="12"/>
-      <c r="E194" s="104"/>
+      <c r="E194" s="138"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="104"/>
-      <c r="H194" s="104"/>
+      <c r="G194" s="138"/>
+      <c r="H194" s="138"/>
     </row>
     <row r="195" spans="2:8" ht="31" thickBot="1">
       <c r="B195" s="1" t="s">
@@ -35465,147 +35475,147 @@
       </c>
     </row>
     <row r="196" spans="2:8">
-      <c r="B196" s="145" t="s">
+      <c r="B196" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="C196" s="102"/>
+      <c r="C196" s="137"/>
       <c r="D196" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E196" s="102">
+      <c r="E196" s="137">
         <v>0.86</v>
       </c>
-      <c r="F196" s="102">
+      <c r="F196" s="137">
         <v>0.79</v>
       </c>
-      <c r="G196" s="102">
+      <c r="G196" s="137">
         <v>0.71</v>
       </c>
-      <c r="H196" s="102">
+      <c r="H196" s="137">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="197" spans="2:8" ht="16" thickBot="1">
-      <c r="B197" s="146"/>
-      <c r="C197" s="104"/>
+      <c r="B197" s="141"/>
+      <c r="C197" s="138"/>
       <c r="D197" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E197" s="104"/>
-      <c r="F197" s="104"/>
-      <c r="G197" s="104"/>
-      <c r="H197" s="104"/>
+      <c r="E197" s="138"/>
+      <c r="F197" s="138"/>
+      <c r="G197" s="138"/>
+      <c r="H197" s="138"/>
     </row>
     <row r="198" spans="2:8">
-      <c r="B198" s="93"/>
-      <c r="C198" s="94"/>
-      <c r="D198" s="94"/>
-      <c r="E198" s="94"/>
-      <c r="F198" s="94"/>
-      <c r="G198" s="94"/>
-      <c r="H198" s="95"/>
+      <c r="B198" s="120"/>
+      <c r="C198" s="121"/>
+      <c r="D198" s="121"/>
+      <c r="E198" s="121"/>
+      <c r="F198" s="121"/>
+      <c r="G198" s="121"/>
+      <c r="H198" s="122"/>
     </row>
     <row r="199" spans="2:8">
-      <c r="B199" s="96" t="s">
+      <c r="B199" s="123" t="s">
         <v>233</v>
       </c>
-      <c r="C199" s="97"/>
-      <c r="D199" s="97"/>
-      <c r="E199" s="97"/>
-      <c r="F199" s="97"/>
-      <c r="G199" s="97"/>
-      <c r="H199" s="98"/>
+      <c r="C199" s="124"/>
+      <c r="D199" s="124"/>
+      <c r="E199" s="124"/>
+      <c r="F199" s="124"/>
+      <c r="G199" s="124"/>
+      <c r="H199" s="125"/>
     </row>
     <row r="200" spans="2:8" ht="16" thickBot="1">
-      <c r="B200" s="99"/>
-      <c r="C200" s="100"/>
-      <c r="D200" s="100"/>
-      <c r="E200" s="100"/>
-      <c r="F200" s="100"/>
-      <c r="G200" s="100"/>
-      <c r="H200" s="101"/>
+      <c r="B200" s="126"/>
+      <c r="C200" s="127"/>
+      <c r="D200" s="127"/>
+      <c r="E200" s="127"/>
+      <c r="F200" s="127"/>
+      <c r="G200" s="127"/>
+      <c r="H200" s="128"/>
     </row>
     <row r="201" spans="2:8" ht="30">
-      <c r="B201" s="145" t="s">
+      <c r="B201" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="C201" s="102" t="s">
+      <c r="C201" s="137" t="s">
         <v>235</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E201" s="102" t="s">
+      <c r="E201" s="137" t="s">
         <v>24</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G201" s="102" t="s">
+      <c r="G201" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="H201" s="105" t="s">
+      <c r="H201" s="143" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
-      <c r="B202" s="144"/>
-      <c r="C202" s="103"/>
+    <row r="202" spans="2:8" ht="22">
+      <c r="B202" s="140"/>
+      <c r="C202" s="142"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="103"/>
+      <c r="E202" s="142"/>
       <c r="F202" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G202" s="103"/>
-      <c r="H202" s="106"/>
-    </row>
-    <row r="203" spans="2:8" ht="16" thickBot="1">
-      <c r="B203" s="146"/>
-      <c r="C203" s="104"/>
+      <c r="G202" s="142"/>
+      <c r="H202" s="144"/>
+    </row>
+    <row r="203" spans="2:8" ht="23" thickBot="1">
+      <c r="B203" s="141"/>
+      <c r="C203" s="138"/>
       <c r="D203" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E203" s="104"/>
+      <c r="E203" s="138"/>
       <c r="F203" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G203" s="104"/>
-      <c r="H203" s="107"/>
+      <c r="G203" s="138"/>
+      <c r="H203" s="145"/>
     </row>
     <row r="204" spans="2:8">
-      <c r="B204" s="93"/>
-      <c r="C204" s="94"/>
-      <c r="D204" s="94"/>
-      <c r="E204" s="94"/>
-      <c r="F204" s="94"/>
-      <c r="G204" s="94"/>
-      <c r="H204" s="95"/>
+      <c r="B204" s="120"/>
+      <c r="C204" s="121"/>
+      <c r="D204" s="121"/>
+      <c r="E204" s="121"/>
+      <c r="F204" s="121"/>
+      <c r="G204" s="121"/>
+      <c r="H204" s="122"/>
     </row>
     <row r="205" spans="2:8">
-      <c r="B205" s="96" t="s">
+      <c r="B205" s="123" t="s">
         <v>2451</v>
       </c>
-      <c r="C205" s="97"/>
-      <c r="D205" s="97"/>
-      <c r="E205" s="97"/>
-      <c r="F205" s="97"/>
-      <c r="G205" s="97"/>
-      <c r="H205" s="98"/>
+      <c r="C205" s="124"/>
+      <c r="D205" s="124"/>
+      <c r="E205" s="124"/>
+      <c r="F205" s="124"/>
+      <c r="G205" s="124"/>
+      <c r="H205" s="125"/>
     </row>
     <row r="206" spans="2:8" ht="16" thickBot="1">
-      <c r="B206" s="99"/>
-      <c r="C206" s="100"/>
-      <c r="D206" s="100"/>
-      <c r="E206" s="100"/>
-      <c r="F206" s="100"/>
-      <c r="G206" s="100"/>
-      <c r="H206" s="101"/>
+      <c r="B206" s="126"/>
+      <c r="C206" s="127"/>
+      <c r="D206" s="127"/>
+      <c r="E206" s="127"/>
+      <c r="F206" s="127"/>
+      <c r="G206" s="127"/>
+      <c r="H206" s="128"/>
     </row>
     <row r="207" spans="2:8" ht="31" thickBot="1">
-      <c r="B207" s="133" t="s">
+      <c r="B207" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="C207" s="138" t="s">
+      <c r="C207" s="117" t="s">
         <v>0</v>
       </c>
       <c r="D207" s="14" t="s">
@@ -35625,42 +35635,42 @@
       </c>
     </row>
     <row r="208" spans="2:8" ht="59" customHeight="1">
-      <c r="B208" s="150" t="s">
+      <c r="B208" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="C208" s="162" t="s">
+      <c r="C208" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D208" s="111" t="s">
+      <c r="D208" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="E208" s="108" t="s">
+      <c r="E208" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="F208" s="108" t="s">
+      <c r="F208" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G208" s="108" t="s">
+      <c r="G208" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="H208" s="108">
+      <c r="H208" s="135">
         <v>23</v>
       </c>
     </row>
     <row r="209" spans="2:8" ht="16" thickBot="1">
-      <c r="B209" s="151"/>
-      <c r="C209" s="163"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="109"/>
-      <c r="F209" s="109"/>
-      <c r="G209" s="109"/>
-      <c r="H209" s="109"/>
+      <c r="B209" s="130"/>
+      <c r="C209" s="132"/>
+      <c r="D209" s="134"/>
+      <c r="E209" s="136"/>
+      <c r="F209" s="136"/>
+      <c r="G209" s="136"/>
+      <c r="H209" s="136"/>
     </row>
     <row r="210" spans="2:8" ht="31" thickBot="1">
-      <c r="B210" s="133" t="s">
+      <c r="B210" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="C210" s="138" t="s">
+      <c r="C210" s="117" t="s">
         <v>0</v>
       </c>
       <c r="D210" s="14" t="s">
@@ -35680,10 +35690,10 @@
       </c>
     </row>
     <row r="211" spans="2:8" ht="31" thickBot="1">
-      <c r="B211" s="133" t="s">
+      <c r="B211" s="112" t="s">
         <v>246</v>
       </c>
-      <c r="C211" s="138" t="s">
+      <c r="C211" s="117" t="s">
         <v>0</v>
       </c>
       <c r="D211" s="14" t="s">
@@ -35703,10 +35713,10 @@
       </c>
     </row>
     <row r="212" spans="2:8" ht="31" thickBot="1">
-      <c r="B212" s="133" t="s">
+      <c r="B212" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="C212" s="138" t="s">
+      <c r="C212" s="117" t="s">
         <v>0</v>
       </c>
       <c r="D212" s="14" t="s">
@@ -35726,10 +35736,10 @@
       </c>
     </row>
     <row r="213" spans="2:8" ht="31" thickBot="1">
-      <c r="B213" s="133" t="s">
+      <c r="B213" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="C213" s="138" t="s">
+      <c r="C213" s="117" t="s">
         <v>0</v>
       </c>
       <c r="D213" s="14" t="s">
@@ -35761,7 +35771,7 @@
       <c r="E215"/>
     </row>
     <row r="216" spans="2:8">
-      <c r="B216" s="164" t="s">
+      <c r="B216" s="118" t="s">
         <v>2452</v>
       </c>
       <c r="C216"/>
@@ -35769,23 +35779,215 @@
       <c r="E216"/>
     </row>
     <row r="217" spans="2:8">
-      <c r="B217" s="164"/>
+      <c r="B217" s="118"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="E217"/>
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B206:H206"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="G160:G162"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="F66:F70"/>
+    <mergeCell ref="G66:G70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="F118:F124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="E95:E105"/>
+    <mergeCell ref="C95:C105"/>
+    <mergeCell ref="F95:F105"/>
+    <mergeCell ref="G95:G105"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="G146:G149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="H128:H131"/>
+    <mergeCell ref="B133:B143"/>
+    <mergeCell ref="C133:C143"/>
+    <mergeCell ref="F133:F143"/>
+    <mergeCell ref="G133:G143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="G156:G159"/>
+    <mergeCell ref="H156:H159"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="G169:G172"/>
+    <mergeCell ref="H169:H172"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="B176:B180"/>
+    <mergeCell ref="F176:F180"/>
+    <mergeCell ref="G176:G180"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B188:H188"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="F181:F184"/>
+    <mergeCell ref="G181:G184"/>
+    <mergeCell ref="B186:H186"/>
     <mergeCell ref="H196:H197"/>
     <mergeCell ref="B198:H198"/>
     <mergeCell ref="B199:H199"/>
@@ -35800,208 +36002,16 @@
     <mergeCell ref="E196:E197"/>
     <mergeCell ref="F196:F197"/>
     <mergeCell ref="G196:G197"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B188:H188"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="G189:G194"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="E181:E184"/>
-    <mergeCell ref="F181:F184"/>
-    <mergeCell ref="G181:G184"/>
-    <mergeCell ref="B186:H186"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="B176:B180"/>
-    <mergeCell ref="F176:F180"/>
-    <mergeCell ref="G176:G180"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="G169:G172"/>
-    <mergeCell ref="H169:H172"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="G156:G159"/>
-    <mergeCell ref="H156:H159"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="G146:G149"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="F118:F124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="F66:F70"/>
-    <mergeCell ref="G66:G70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="H18:H23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="E95:E105"/>
-    <mergeCell ref="C95:C105"/>
-    <mergeCell ref="F95:F105"/>
-    <mergeCell ref="G95:G105"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="B133:B143"/>
-    <mergeCell ref="C133:C143"/>
-    <mergeCell ref="F133:F143"/>
-    <mergeCell ref="G133:G143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="E160:E162"/>
-    <mergeCell ref="G160:G162"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B204:H204"/>
+    <mergeCell ref="B205:H205"/>
+    <mergeCell ref="B206:H206"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="H208:H209"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="_ftn1" display="KOSOVO[1] DATA"/>
@@ -37074,8 +37084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -37093,7 +37103,7 @@
       <c r="B2" t="s">
         <v>2187</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="119" t="s">
         <v>2454</v>
       </c>
     </row>
@@ -37233,48 +37243,48 @@
         <v>2244</v>
       </c>
       <c r="D8" s="57">
-        <f>D7/D6</f>
-        <v>0.94182217343578489</v>
+        <f>D7/(D6+D7)</f>
+        <v>0.48501978518937255</v>
       </c>
       <c r="E8" s="57">
-        <f t="shared" ref="E8:I8" si="0">E7/E6</f>
-        <v>1.0197706603400554</v>
+        <f t="shared" ref="E8:N8" si="0">E7/(E6+E7)</f>
+        <v>0.50489428347689902</v>
       </c>
       <c r="F8" s="57">
         <f t="shared" si="0"/>
-        <v>0.87909226190476186</v>
+        <v>0.46782815284102158</v>
       </c>
       <c r="G8" s="57">
         <f t="shared" si="0"/>
-        <v>0.81374389785955692</v>
+        <v>0.4486542443064182</v>
       </c>
       <c r="H8" s="57">
         <f t="shared" si="0"/>
-        <v>0.84925535779150019</v>
+        <v>0.45924179925358477</v>
       </c>
       <c r="I8" s="57">
         <f t="shared" si="0"/>
-        <v>0.83086375135525836</v>
+        <v>0.45380971180418478</v>
       </c>
       <c r="J8" s="57">
-        <f t="shared" ref="J8:N8" si="1">J7/J6</f>
-        <v>0.9209839731643682</v>
+        <f t="shared" si="0"/>
+        <v>0.47943344974776875</v>
       </c>
       <c r="K8" s="57">
-        <f t="shared" si="1"/>
-        <v>0.90313075506445673</v>
+        <f t="shared" si="0"/>
+        <v>0.47455002903038512</v>
       </c>
       <c r="L8" s="57">
-        <f t="shared" si="1"/>
-        <v>0.87835482746601601</v>
+        <f t="shared" si="0"/>
+        <v>0.46761922434588976</v>
       </c>
       <c r="M8" s="57">
-        <f t="shared" si="1"/>
-        <v>0.95289855072463769</v>
+        <f t="shared" si="0"/>
+        <v>0.48794063079777367</v>
       </c>
       <c r="N8" s="57">
-        <f t="shared" si="1"/>
-        <v>0.92551020408163265</v>
+        <f t="shared" si="0"/>
+        <v>0.48065712771595126</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -37367,48 +37377,48 @@
         <v>2244</v>
       </c>
       <c r="D11" s="57">
-        <f>D10/D9</f>
-        <v>0.90928819444444442</v>
+        <f t="shared" ref="D11:N11" si="1">D10/(D9+D10)</f>
+        <v>0.47624460104569222</v>
       </c>
       <c r="E11" s="57">
-        <f t="shared" ref="E11" si="2">E10/E9</f>
-        <v>0.92325516730002777</v>
+        <f t="shared" si="1"/>
+        <v>0.48004819277108435</v>
       </c>
       <c r="F11" s="57">
-        <f t="shared" ref="F11:I11" si="3">F10/F9</f>
-        <v>0.93725886459672969</v>
+        <f t="shared" si="1"/>
+        <v>0.48380672388448953</v>
       </c>
       <c r="G11" s="57">
-        <f t="shared" si="3"/>
-        <v>1.0460772104607721</v>
+        <f t="shared" si="1"/>
+        <v>0.5112598904443092</v>
       </c>
       <c r="H11" s="57">
-        <f t="shared" si="3"/>
-        <v>0.89336926186122612</v>
+        <f t="shared" si="1"/>
+        <v>0.47184100843753179</v>
       </c>
       <c r="I11" s="57">
-        <f t="shared" si="3"/>
-        <v>0.96440032089851579</v>
+        <f t="shared" si="1"/>
+        <v>0.49093879217928427</v>
       </c>
       <c r="J11" s="57">
-        <f t="shared" ref="J11" si="4">J10/J9</f>
-        <v>0.94161419576416716</v>
+        <f t="shared" si="1"/>
+        <v>0.48496462264150941</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" ref="K11" si="5">K10/K9</f>
-        <v>0.96798292422625398</v>
+        <f t="shared" si="1"/>
+        <v>0.49186550976138826</v>
       </c>
       <c r="L11" s="57">
-        <f t="shared" ref="L11" si="6">L10/L9</f>
-        <v>0.95506158583525791</v>
+        <f t="shared" si="1"/>
+        <v>0.48850716149037754</v>
       </c>
       <c r="M11" s="57">
-        <f t="shared" ref="M11" si="7">M10/M9</f>
-        <v>0.92310459573702675</v>
+        <f t="shared" si="1"/>
+        <v>0.48000748257961934</v>
       </c>
       <c r="N11" s="57">
-        <f t="shared" ref="N11" si="8">N10/N9</f>
-        <v>0.94231106435209544</v>
+        <f t="shared" si="1"/>
+        <v>0.48514940868466189</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -37501,48 +37511,48 @@
         <v>2244</v>
       </c>
       <c r="D14" s="57">
-        <f>D13/D12</f>
-        <v>0.91751689218886434</v>
+        <f t="shared" ref="D14:N14" si="2">D13/(D12+D13)</f>
+        <v>0.47849220829627725</v>
       </c>
       <c r="E14" s="57">
-        <f t="shared" ref="E14" si="9">E13/E12</f>
-        <v>0.92401404581611446</v>
+        <f t="shared" si="2"/>
+        <v>0.48025327456701222</v>
       </c>
       <c r="F14" s="57">
-        <f t="shared" ref="F14:I14" si="10">F13/F12</f>
-        <v>0.92759079356784879</v>
+        <f t="shared" si="2"/>
+        <v>0.48121769239774009</v>
       </c>
       <c r="G14" s="57">
-        <f t="shared" si="10"/>
-        <v>0.93127628904957704</v>
+        <f t="shared" si="2"/>
+        <v>0.48220769567252247</v>
       </c>
       <c r="H14" s="57">
-        <f t="shared" si="10"/>
-        <v>0.9076406034044866</v>
+        <f t="shared" si="2"/>
+        <v>0.47579224398173231</v>
       </c>
       <c r="I14" s="57">
-        <f t="shared" si="10"/>
-        <v>0.91810591470955594</v>
+        <f t="shared" si="2"/>
+        <v>0.47865235577910081</v>
       </c>
       <c r="J14" s="57">
-        <f t="shared" ref="J14" si="11">J13/J12</f>
-        <v>0.93297428992755016</v>
+        <f t="shared" si="2"/>
+        <v>0.48266254486112126</v>
       </c>
       <c r="K14" s="57">
-        <f t="shared" ref="K14" si="12">K13/K12</f>
-        <v>0.93697346665616876</v>
+        <f t="shared" si="2"/>
+        <v>0.48373066682925836</v>
       </c>
       <c r="L14" s="57">
-        <f t="shared" ref="L14" si="13">L13/L12</f>
-        <v>0.93697346665616876</v>
+        <f t="shared" si="2"/>
+        <v>0.48373066682925836</v>
       </c>
       <c r="M14" s="57">
-        <f t="shared" ref="M14" si="14">M13/M12</f>
-        <v>0.93028717913188075</v>
+        <f t="shared" si="2"/>
+        <v>0.48194237064262335</v>
       </c>
       <c r="N14" s="57">
-        <f t="shared" ref="N14" si="15">N13/N12</f>
-        <v>0.93846339113680155</v>
+        <f t="shared" si="2"/>
+        <v>0.48412747716965893</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -37635,48 +37645,48 @@
         <v>2244</v>
       </c>
       <c r="D17" s="57">
-        <f>D16/D15</f>
-        <v>0.79147406266050335</v>
+        <f t="shared" ref="D17:N17" si="3">D16/(D15+D16)</f>
+        <v>0.44180045871559631</v>
       </c>
       <c r="E17" s="57">
-        <f t="shared" ref="E17" si="16">E16/E15</f>
-        <v>0.75628831113929407</v>
+        <f t="shared" si="3"/>
+        <v>0.43061740281622335</v>
       </c>
       <c r="F17" s="57">
-        <f t="shared" ref="F17:H17" si="17">F16/F15</f>
-        <v>0.76992616244262624</v>
+        <f t="shared" si="3"/>
+        <v>0.43500467916699553</v>
       </c>
       <c r="G17" s="57">
-        <f t="shared" si="17"/>
-        <v>0.79516417910447756</v>
+        <f t="shared" si="3"/>
+        <v>0.44294788652765305</v>
       </c>
       <c r="H17" s="57">
-        <f t="shared" si="17"/>
-        <v>0.81878699623654894</v>
+        <f t="shared" si="3"/>
+        <v>0.45018300544857132</v>
       </c>
       <c r="I17" s="57">
-        <f t="shared" ref="I17:J17" si="18">I16/I15</f>
-        <v>0.802345319753343</v>
+        <f t="shared" si="3"/>
+        <v>0.44516736663046719</v>
       </c>
       <c r="J17" s="57">
-        <f t="shared" si="18"/>
-        <v>0.83264774441245026</v>
+        <f t="shared" si="3"/>
+        <v>0.45434140136919682</v>
       </c>
       <c r="K17" s="57">
-        <f t="shared" ref="K17" si="19">K16/K15</f>
-        <v>0.85010910602334522</v>
+        <f t="shared" si="3"/>
+        <v>0.45949133662207825</v>
       </c>
       <c r="L17" s="57">
-        <f t="shared" ref="L17" si="20">L16/L15</f>
-        <v>0.85292863235712257</v>
+        <f t="shared" si="3"/>
+        <v>0.46031380672881422</v>
       </c>
       <c r="M17" s="57">
-        <f t="shared" ref="M17" si="21">M16/M15</f>
-        <v>0.87106350995866211</v>
+        <f t="shared" si="3"/>
+        <v>0.46554459820442268</v>
       </c>
       <c r="N17" s="57">
-        <f t="shared" ref="N17" si="22">N16/N15</f>
-        <v>0.88674101610904588</v>
+        <f t="shared" si="3"/>
+        <v>0.46998555103113093</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -37687,47 +37697,47 @@
         <v>2238</v>
       </c>
       <c r="D18" s="54">
-        <f t="shared" ref="D18:N18" si="23">SUM(D15,D12,D9,D6)</f>
+        <f t="shared" ref="D18:N18" si="4">SUM(D15,D12,D9,D6)</f>
         <v>222441</v>
       </c>
       <c r="E18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>223349</v>
       </c>
       <c r="F18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>232088</v>
       </c>
       <c r="G18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>231821</v>
       </c>
       <c r="H18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>235327</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>232998</v>
       </c>
       <c r="J18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>227479</v>
       </c>
       <c r="K18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>223176</v>
       </c>
       <c r="L18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>221945</v>
       </c>
       <c r="M18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>210606</v>
       </c>
       <c r="N18" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>198919</v>
       </c>
     </row>
@@ -37739,47 +37749,47 @@
         <v>2239</v>
       </c>
       <c r="D19" s="54">
-        <f t="shared" ref="D19:N19" si="24">SUM(D16,D13,D10,D7)</f>
+        <f t="shared" ref="D19:N19" si="5">SUM(D16,D13,D10,D7)</f>
         <v>199198</v>
       </c>
       <c r="E19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>199470</v>
       </c>
       <c r="F19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>207357</v>
       </c>
       <c r="G19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>209843</v>
       </c>
       <c r="H19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>208585</v>
       </c>
       <c r="I19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>207454</v>
       </c>
       <c r="J19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>206437</v>
       </c>
       <c r="K19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>204322</v>
       </c>
       <c r="L19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>203247</v>
       </c>
       <c r="M19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>192736</v>
       </c>
       <c r="N19" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>184401</v>
       </c>
     </row>
@@ -37807,31 +37817,31 @@
         <v>0.90519409371886073</v>
       </c>
       <c r="H20" s="57">
-        <f t="shared" ref="H20:J20" si="25">H19/H18</f>
+        <f t="shared" ref="H20:J20" si="6">H19/H18</f>
         <v>0.88636238085727515</v>
       </c>
       <c r="I20" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>0.89036815766658939</v>
       </c>
       <c r="J20" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>0.90749915376804013</v>
       </c>
       <c r="K20" s="57">
-        <f t="shared" ref="K20" si="26">K19/K18</f>
+        <f t="shared" ref="K20" si="7">K19/K18</f>
         <v>0.9155195899200631</v>
       </c>
       <c r="L20" s="57">
-        <f t="shared" ref="L20" si="27">L19/L18</f>
+        <f t="shared" ref="L20" si="8">L19/L18</f>
         <v>0.91575390299398496</v>
       </c>
       <c r="M20" s="57">
-        <f t="shared" ref="M20" si="28">M19/M18</f>
+        <f t="shared" ref="M20" si="9">M19/M18</f>
         <v>0.91514961587039301</v>
       </c>
       <c r="N20" s="57">
-        <f t="shared" ref="N20" si="29">N19/N18</f>
+        <f t="shared" ref="N20" si="10">N19/N18</f>
         <v>0.92701551887954392</v>
       </c>
     </row>
@@ -39804,10 +39814,10 @@
     </row>
     <row r="13" spans="1:7" ht="5" customHeight="1"/>
     <row r="14" spans="1:7">
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="102" t="s">
         <v>2257</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="102" t="s">
         <v>2376</v>
       </c>
     </row>
@@ -40064,17 +40074,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="104" customHeight="1">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="165" t="s">
         <v>2215</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
     </row>
     <row r="13" spans="1:12">
       <c r="C13" s="49"/>
@@ -40148,19 +40158,19 @@
       <c r="C19" s="65" t="s">
         <v>2321</v>
       </c>
-      <c r="D19" s="124">
+      <c r="D19" s="103">
         <v>34193</v>
       </c>
-      <c r="E19" s="124">
+      <c r="E19" s="103">
         <v>25968</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="103">
         <v>617</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="103">
         <v>2555</v>
       </c>
-      <c r="H19" s="124">
+      <c r="H19" s="103">
         <v>63333</v>
       </c>
     </row>
@@ -40817,43 +40827,43 @@
         <f>LEFT(B49, FIND(" ", B49))</f>
         <v xml:space="preserve">Total </v>
       </c>
-      <c r="D49" s="122">
+      <c r="D49" s="101">
         <v>574231</v>
       </c>
-      <c r="E49" s="122">
+      <c r="E49" s="101">
         <v>450249</v>
       </c>
-      <c r="F49" s="122">
+      <c r="F49" s="101">
         <v>12344</v>
       </c>
-      <c r="G49" s="122">
+      <c r="G49" s="101">
         <v>53979</v>
       </c>
-      <c r="H49" s="122">
+      <c r="H49" s="101">
         <v>1090803</v>
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="99" t="s">
         <v>2368</v>
       </c>
-      <c r="D50" s="121">
+      <c r="D50" s="100">
         <f>SUM(D18:D47)</f>
         <v>574231</v>
       </c>
-      <c r="E50" s="121">
+      <c r="E50" s="100">
         <f>SUM(E18:E47)</f>
         <v>450248</v>
       </c>
-      <c r="F50" s="121">
+      <c r="F50" s="100">
         <f>SUM(F18:F47)</f>
         <v>12343</v>
       </c>
-      <c r="G50" s="121">
+      <c r="G50" s="100">
         <f>SUM(G18:G47)</f>
         <v>53983</v>
       </c>
-      <c r="H50" s="121">
+      <c r="H50" s="100">
         <f>SUM(H18:H47)</f>
         <v>1090805</v>
       </c>
@@ -40956,51 +40966,51 @@
       <c r="B5" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="93">
         <v>2</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="94">
         <f>C5*((F5/C5)^(1/3))</f>
         <v>3.3019272488946267</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="94">
         <f>D5*((F5/C5)^(1/3))</f>
         <v>5.4513617784964188</v>
       </c>
-      <c r="F5" s="116">
+      <c r="F5" s="95">
         <v>9</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="94">
         <f>F5*((I5/F5)^(1/3))</f>
         <v>15.389783520090271</v>
       </c>
-      <c r="H5" s="115">
+      <c r="H5" s="94">
         <f>G5*((I5/F5)^(1/3))</f>
         <v>26.316159643915789</v>
       </c>
-      <c r="I5" s="116">
+      <c r="I5" s="95">
         <v>45</v>
       </c>
-      <c r="J5" s="115">
+      <c r="J5" s="94">
         <f>I5*((L5/I5)^(1/3))</f>
         <v>50.073226039922623</v>
       </c>
-      <c r="K5" s="115">
+      <c r="K5" s="94">
         <f>J5*((L5/I5)^(1/3))</f>
         <v>55.718399245448552</v>
       </c>
-      <c r="L5" s="116">
+      <c r="L5" s="95">
         <v>62</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5" s="94">
         <f>L5*(1+M6)</f>
         <v>68.989778099448955</v>
       </c>
-      <c r="N5" s="115">
+      <c r="N5" s="94">
         <f t="shared" ref="N5:O5" si="0">M5*(1+N6)</f>
         <v>76.767572293729145</v>
       </c>
-      <c r="O5" s="115">
+      <c r="O5" s="94">
         <f t="shared" si="0"/>
         <v>85.422222222222246</v>
       </c>
@@ -41008,55 +41018,55 @@
       <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>2298</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119">
+      <c r="C6" s="97"/>
+      <c r="D6" s="98">
         <f>D5/C5-1</f>
         <v>0.65096362444731337</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="98">
         <f t="shared" ref="E6:L6" si="1">E5/D5-1</f>
         <v>0.65096362444731315</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="98">
         <f t="shared" si="1"/>
         <v>0.65096362444731337</v>
       </c>
-      <c r="G6" s="119">
+      <c r="G6" s="98">
         <f t="shared" si="1"/>
         <v>0.70997594667669683</v>
       </c>
-      <c r="H6" s="119">
+      <c r="H6" s="98">
         <f t="shared" si="1"/>
         <v>0.70997594667669683</v>
       </c>
-      <c r="I6" s="119">
+      <c r="I6" s="98">
         <f t="shared" si="1"/>
         <v>0.70997594667669728</v>
       </c>
-      <c r="J6" s="119">
+      <c r="J6" s="98">
         <f t="shared" si="1"/>
         <v>0.1127383564427249</v>
       </c>
-      <c r="K6" s="119">
+      <c r="K6" s="98">
         <f t="shared" si="1"/>
         <v>0.1127383564427249</v>
       </c>
-      <c r="L6" s="119">
+      <c r="L6" s="98">
         <f t="shared" si="1"/>
         <v>0.11273835644272512</v>
       </c>
-      <c r="M6" s="119">
+      <c r="M6" s="98">
         <f>L6</f>
         <v>0.11273835644272512</v>
       </c>
-      <c r="N6" s="119">
+      <c r="N6" s="98">
         <f t="shared" ref="N6:O6" si="2">M6</f>
         <v>0.11273835644272512</v>
       </c>
-      <c r="O6" s="119">
+      <c r="O6" s="98">
         <f t="shared" si="2"/>
         <v>0.11273835644272512</v>
       </c>

--- a/data/MDG Data.xlsx
+++ b/data/MDG Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13840" tabRatio="999" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="999" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Indicators" sheetId="7" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="_ftn1" localSheetId="1">'UNKT Provided'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="1">'UNKT Provided'!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="1">'UNKT Provided'!$B$4</definedName>
+    <definedName name="_GoBack" localSheetId="4">'Reproductive Health'!$B$10</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13718" uniqueCount="2455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13721" uniqueCount="2461">
   <si>
     <t>MCC</t>
   </si>
@@ -6700,15 +6701,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Deaths per 100,000 births (calculated)</t>
-  </si>
-  <si>
-    <t>Deaths per 100,000 births (reported)</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3633379/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kosovo has about 1 800 species of flora classified into 139 kingdoms, 63 phyla, 35 orders and 20 classes. More recent data shows there could be as many as 2 500 species. What makes Kosovo flora and fauna important and attractive is the large number (over 200) of endemic, endemic‐relict and sub‐endemic species. Especially important is a local endemic group of 13 plant species, found only on the mountains. There are also about 250 species of wild vertebrates. Although data is sparse for invertebrate species, about 200 species of butterflies and 500 species of aquatic macrobentos have been recorded. The richest areas with fauna are in Malet e Sharrit and Bjeshkët e Nemuna where it is estimated that there are 8 fish species, 13 terraqueos, 12 species of elusory, 180 bird species, 37 species of mammals and 147 butterfly species. </t>
   </si>
   <si>
@@ -7462,20 +7454,48 @@
   <si>
     <t>Education in Kosova' reports (Ministry of Education, Science and Technology)</t>
   </si>
+  <si>
+    <t>Source: Report on Perinatal Situation in Kosovo</t>
+  </si>
+  <si>
+    <t>Infant Mortality/Neonatal Mortality</t>
+  </si>
+  <si>
+    <t>Deaths per 100,000 births (Reported)</t>
+  </si>
+  <si>
+    <t>Deaths per 100,000 births (calc)</t>
+  </si>
+  <si>
+    <t>Eurostat Data</t>
+  </si>
+  <si>
+    <t>Early Neonatal</t>
+  </si>
+  <si>
+    <t>Perinatal</t>
+  </si>
+  <si>
+    <t>Stillborn</t>
+  </si>
+  <si>
+    <t>Early Neonatal/Infant Mortality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#.00;\-#.00;0.00;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#.0;\-#.0;0.0;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7717,6 +7737,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -7940,7 +7983,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -8022,8 +8065,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8438,8 +8492,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="92">
     <cellStyle name="Accent5" xfId="35" builtinId="45"/>
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -8516,6 +8578,17 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -9159,11 +9232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094393016"/>
-        <c:axId val="2094389832"/>
+        <c:axId val="2089218568"/>
+        <c:axId val="2089218920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094393016"/>
+        <c:axId val="2089218568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9172,7 +9245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094389832"/>
+        <c:crossAx val="2089218920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9180,7 +9253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094389832"/>
+        <c:axId val="2089218920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9191,14 +9264,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094393016"/>
+        <c:crossAx val="2089218568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9241,10 +9313,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Reproductive Health'!$B$6:$B$16</c:f>
+              <c:f>'Reproductive Health'!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2000.0</c:v>
                 </c:pt>
@@ -9278,47 +9350,71 @@
                 <c:pt idx="10">
                   <c:v>2010.0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reproductive Health'!$E$6:$E$16</c:f>
+              <c:f>'Reproductive Health'!$E$6:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>29.90927519856436</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.63328111577139</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.77903986889322</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.92158336464988</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.697753353806367</c:v>
+                  <c:v>9.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.883259911894272</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.041261794113505</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.7696726019529</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.39094328909078</c:v>
+                  <c:v>28.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.29316689515837</c:v>
+                  <c:v>43.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.26823418250536</c:v>
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9335,11 +9431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094347960"/>
-        <c:axId val="2094344872"/>
+        <c:axId val="2125398248"/>
+        <c:axId val="2125394184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094347960"/>
+        <c:axId val="2125398248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9349,7 +9445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094344872"/>
+        <c:crossAx val="2125394184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9357,7 +9453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094344872"/>
+        <c:axId val="2125394184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9368,7 +9464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094347960"/>
+        <c:crossAx val="2125398248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9406,14 +9502,14 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Reproductive Health'!$I$19:$S$19</c:f>
+              <c:f>'Reproductive Health'!$E$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9455,7 +9551,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reproductive Health'!$I$20:$S$20</c:f>
+              <c:f>'Reproductive Health'!$E$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Reproductive Health'!$E$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reproductive Health'!$I$35:$S$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9507,11 +9695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093460104"/>
-        <c:axId val="2093457080"/>
+        <c:axId val="-2143024696"/>
+        <c:axId val="-2142856328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093460104"/>
+        <c:axId val="-2143024696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9521,7 +9709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093457080"/>
+        <c:crossAx val="-2142856328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9529,7 +9717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093457080"/>
+        <c:axId val="-2142856328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9540,7 +9728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093460104"/>
+        <c:crossAx val="-2143024696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9674,11 +9862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2094320008"/>
-        <c:axId val="2094317048"/>
+        <c:axId val="2127166008"/>
+        <c:axId val="2127168952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2094320008"/>
+        <c:axId val="2127166008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9687,7 +9875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094317048"/>
+        <c:crossAx val="2127168952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9695,7 +9883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094317048"/>
+        <c:axId val="2127168952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9706,7 +9894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094320008"/>
+        <c:crossAx val="2127166008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9868,11 +10056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094270184"/>
-        <c:axId val="2094267080"/>
+        <c:axId val="2127216344"/>
+        <c:axId val="2127219432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094270184"/>
+        <c:axId val="2127216344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9882,7 +10070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094267080"/>
+        <c:crossAx val="2127219432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9890,7 +10078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094267080"/>
+        <c:axId val="2127219432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9901,7 +10089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094270184"/>
+        <c:crossAx val="2127216344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9957,16 +10145,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9988,15 +10176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10463,12 +10651,12 @@
     </row>
     <row r="3" spans="1:7" ht="20">
       <c r="B3" s="47" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="37" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>260</v>
@@ -10540,7 +10728,7 @@
     </row>
     <row r="15" spans="1:7" ht="20">
       <c r="B15" s="47" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10560,7 +10748,7 @@
         <v>2177</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="84">
@@ -10589,10 +10777,10 @@
         <v>274</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="33"/>
@@ -10606,13 +10794,13 @@
         <v>279</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="G19" s="33"/>
     </row>
@@ -10624,13 +10812,13 @@
         <v>282</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="G20" s="33"/>
     </row>
@@ -10642,10 +10830,10 @@
         <v>2179</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="F21" s="79"/>
       <c r="G21" s="33"/>
@@ -10658,10 +10846,10 @@
         <v>2180</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="F22" s="79"/>
       <c r="G22" s="33"/>
@@ -10674,16 +10862,16 @@
         <v>2181</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="140">
@@ -10694,7 +10882,7 @@
         <v>2182</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="E24" s="79"/>
       <c r="F24" s="79"/>
@@ -32669,7 +32857,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28">
       <c r="A1" s="32" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1">
@@ -32681,7 +32869,7 @@
       <c r="A4" s="20"/>
       <c r="B4" s="104"/>
       <c r="C4" s="159" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="D4" s="159" t="s">
         <v>18</v>
@@ -32694,7 +32882,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="20"/>
       <c r="B5" s="105" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
@@ -32800,13 +32988,13 @@
     <row r="12" spans="1:8" ht="39" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D12" s="137" t="s">
         <v>2383</v>
-      </c>
-      <c r="C12" s="137" t="s">
-        <v>2385</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>2386</v>
       </c>
       <c r="E12" s="153">
         <v>0.29699999999999999</v>
@@ -32824,7 +33012,7 @@
     <row r="13" spans="1:8" ht="16" thickBot="1">
       <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="C13" s="138"/>
       <c r="D13" s="138"/>
@@ -32836,13 +33024,13 @@
     <row r="14" spans="1:8" ht="39" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="C14" s="137" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D14" s="137" t="s">
         <v>2385</v>
-      </c>
-      <c r="D14" s="137" t="s">
-        <v>2388</v>
       </c>
       <c r="E14" s="153">
         <v>0.10199999999999999</v>
@@ -32860,7 +33048,7 @@
     <row r="15" spans="1:8" ht="16" thickBot="1">
       <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="C15" s="138"/>
       <c r="D15" s="138"/>
@@ -32921,17 +33109,17 @@
         <v>-2.37</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="H18" s="135" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22">
       <c r="A19" s="20"/>
       <c r="B19" s="146"/>
       <c r="C19" s="6" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="D19" s="156"/>
       <c r="E19" s="147"/>
@@ -33000,14 +33188,14 @@
         <v>1.8</v>
       </c>
       <c r="H24" s="135" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" thickBot="1">
       <c r="A25" s="20"/>
       <c r="B25" s="130"/>
       <c r="C25" s="10" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="D25" s="158"/>
       <c r="E25" s="136"/>
@@ -33082,7 +33270,7 @@
       <c r="F29" s="147"/>
       <c r="G29" s="147"/>
       <c r="H29" s="6" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22">
@@ -33094,7 +33282,7 @@
       <c r="F30" s="147"/>
       <c r="G30" s="147"/>
       <c r="H30" s="6" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" thickBot="1">
@@ -33106,13 +33294,13 @@
       <c r="F31" s="136"/>
       <c r="G31" s="136"/>
       <c r="H31" s="10" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22">
       <c r="A32" s="20"/>
       <c r="B32" s="129" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>0</v>
@@ -33121,16 +33309,16 @@
         <v>35</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>2398</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>2401</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22">
@@ -33141,36 +33329,36 @@
       </c>
       <c r="D33" s="156"/>
       <c r="E33" s="6" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="55">
       <c r="A34" s="20"/>
       <c r="B34" s="146"/>
       <c r="C34" s="6" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D34" s="156"/>
       <c r="E34" s="6" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="66">
@@ -33184,7 +33372,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -33282,7 +33470,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="H42" s="137" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" thickBot="1">
@@ -33292,7 +33480,7 @@
       <c r="D43" s="138"/>
       <c r="E43" s="138"/>
       <c r="F43" s="2" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="G43" s="154"/>
       <c r="H43" s="138"/>
@@ -33300,7 +33488,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="20"/>
       <c r="B44" s="139" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="C44" s="137" t="s">
         <v>26</v>
@@ -33318,7 +33506,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -33328,11 +33516,11 @@
       <c r="D45" s="142"/>
       <c r="E45" s="142"/>
       <c r="F45" s="4" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="G45" s="155"/>
       <c r="H45" s="4" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -33344,7 +33532,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="155"/>
       <c r="H46" s="4" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23" thickBot="1">
@@ -33356,13 +33544,13 @@
       <c r="F47" s="12"/>
       <c r="G47" s="154"/>
       <c r="H47" s="2" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="20"/>
       <c r="B48" s="139" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="C48" s="137" t="s">
         <v>26</v>
@@ -33380,7 +33568,7 @@
         <v>0.3</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="21" customFormat="1">
@@ -33389,11 +33577,11 @@
       <c r="D49" s="142"/>
       <c r="E49" s="142"/>
       <c r="F49" s="4" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="G49" s="163"/>
       <c r="H49" s="4" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -33406,7 +33594,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="163"/>
       <c r="H50" s="4" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="23" thickBot="1">
@@ -33417,7 +33605,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="164"/>
       <c r="H51" s="2" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="28" customHeight="1">
@@ -33449,20 +33637,20 @@
       <c r="D53" s="138"/>
       <c r="E53" s="138"/>
       <c r="F53" s="2" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="G53" s="154"/>
       <c r="H53" s="138"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="139" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="C54" s="137" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="137" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="E54" s="137" t="s">
         <v>24</v>
@@ -33474,7 +33662,7 @@
         <v>24</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="55" spans="2:10">
@@ -33485,7 +33673,7 @@
       <c r="F55" s="142"/>
       <c r="G55" s="142"/>
       <c r="H55" s="4" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="56" spans="2:10">
@@ -33496,7 +33684,7 @@
       <c r="F56" s="142"/>
       <c r="G56" s="142"/>
       <c r="H56" s="4" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="16" thickBot="1">
@@ -33545,7 +33733,7 @@
         <v>45</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="E61" s="4">
         <v>4.88</v>
@@ -33557,7 +33745,7 @@
         <v>24</v>
       </c>
       <c r="H61" s="137" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -33565,7 +33753,7 @@
       <c r="C62" s="142"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -33575,7 +33763,7 @@
       <c r="B63" s="141"/>
       <c r="C63" s="138"/>
       <c r="D63" s="13" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="138"/>
@@ -33584,13 +33772,13 @@
     </row>
     <row r="64" spans="2:10" ht="45">
       <c r="B64" s="3" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="C64" s="137" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="E64" s="153">
         <v>2.3E-2</v>
@@ -33602,16 +33790,16 @@
         <v>2.3E-2</v>
       </c>
       <c r="H64" s="137" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="31" thickBot="1">
       <c r="B65" s="1" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="C65" s="138"/>
       <c r="D65" s="13" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="E65" s="154"/>
       <c r="F65" s="154"/>
@@ -33626,7 +33814,7 @@
         <v>45</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="E66" s="110">
         <v>6.0000000000000001E-3</v>
@@ -33638,28 +33826,28 @@
         <v>24</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="22">
       <c r="B67" s="140"/>
       <c r="C67" s="4" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="F67" s="142"/>
       <c r="G67" s="142"/>
       <c r="H67" s="4" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="140"/>
       <c r="C68" s="4" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>4</v>
@@ -33673,7 +33861,7 @@
       <c r="B69" s="140"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="142"/>
@@ -33697,7 +33885,7 @@
         <v>45</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="E71" s="110">
         <v>2.5000000000000001E-2</v>
@@ -33709,7 +33897,7 @@
         <v>24</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="22">
@@ -33719,12 +33907,12 @@
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="F72" s="142"/>
       <c r="G72" s="142"/>
       <c r="H72" s="4" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="22">
@@ -33737,14 +33925,14 @@
       <c r="F73" s="142"/>
       <c r="G73" s="142"/>
       <c r="H73" s="4" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="16" thickBot="1">
       <c r="B74" s="141"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="138"/>
@@ -33753,7 +33941,7 @@
     </row>
     <row r="75" spans="2:8" ht="44">
       <c r="B75" s="129" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>5</v>
@@ -33771,7 +33959,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="44">
@@ -33780,13 +33968,13 @@
         <v>49</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="E76" s="147"/>
       <c r="F76" s="147"/>
       <c r="G76" s="147"/>
       <c r="H76" s="6" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="34" thickBot="1">
@@ -33797,7 +33985,7 @@
       <c r="F77" s="136"/>
       <c r="G77" s="136"/>
       <c r="H77" s="10" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -33808,7 +33996,7 @@
         <v>45</v>
       </c>
       <c r="D78" s="137" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="E78" s="137" t="s">
         <v>24</v>
@@ -35006,7 +35194,7 @@
         <v>184</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
@@ -35023,7 +35211,7 @@
         <v>185</v>
       </c>
       <c r="C164" s="135" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="D164" s="133" t="s">
         <v>187</v>
@@ -35593,7 +35781,7 @@
     </row>
     <row r="205" spans="2:8">
       <c r="B205" s="123" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="C205" s="124"/>
       <c r="D205" s="124"/>
@@ -35772,7 +35960,7 @@
     </row>
     <row r="216" spans="2:8">
       <c r="B216" s="118" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="C216"/>
       <c r="D216"/>
@@ -35803,6 +35991,13 @@
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
     <mergeCell ref="G78:G79"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="F118:F124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="B106:B113"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="B9:H9"/>
@@ -35904,12 +36099,6 @@
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="F118:F124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
     <mergeCell ref="H78:H79"/>
     <mergeCell ref="B80:B87"/>
     <mergeCell ref="B88:H88"/>
@@ -35922,7 +36111,6 @@
     <mergeCell ref="C95:C105"/>
     <mergeCell ref="F95:F105"/>
     <mergeCell ref="G95:G105"/>
-    <mergeCell ref="B106:B113"/>
     <mergeCell ref="B114:B117"/>
     <mergeCell ref="F146:F149"/>
     <mergeCell ref="G146:G149"/>
@@ -35932,6 +36120,10 @@
     <mergeCell ref="F151:F152"/>
     <mergeCell ref="G151:G152"/>
     <mergeCell ref="G125:G127"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="E146:E149"/>
     <mergeCell ref="H125:H127"/>
     <mergeCell ref="B128:B131"/>
     <mergeCell ref="C128:C131"/>
@@ -35941,10 +36133,6 @@
     <mergeCell ref="C133:C143"/>
     <mergeCell ref="F133:F143"/>
     <mergeCell ref="G133:G143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="E146:E149"/>
     <mergeCell ref="H151:H152"/>
     <mergeCell ref="B153:H153"/>
     <mergeCell ref="B154:H154"/>
@@ -37084,7 +37272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -37096,7 +37284,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="28">
       <c r="A1" s="32" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -37104,61 +37292,61 @@
         <v>2187</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20">
       <c r="B4" s="47" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="59" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="C6" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D6" s="53">
         <v>3644</v>
@@ -37196,10 +37384,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="C7" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D7" s="53">
         <v>3432</v>
@@ -37237,10 +37425,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="56" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D8" s="57">
         <f>D7/(D6+D7)</f>
@@ -37289,10 +37477,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C9" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D9" s="53">
         <v>9216</v>
@@ -37330,10 +37518,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C10" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D10" s="53">
         <v>8380</v>
@@ -37371,10 +37559,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="56" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D11" s="57">
         <f t="shared" ref="D11:N11" si="1">D10/(D9+D10)</f>
@@ -37423,10 +37611,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C12" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D12" s="53">
         <v>170641</v>
@@ -37464,10 +37652,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C13" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D13" s="53">
         <v>156566</v>
@@ -37505,10 +37693,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="56" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D14" s="57">
         <f t="shared" ref="D14:N14" si="2">D13/(D12+D13)</f>
@@ -37557,10 +37745,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C15" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D15" s="53">
         <v>38940</v>
@@ -37598,10 +37786,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C16" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D16" s="53">
         <v>30820</v>
@@ -37639,10 +37827,10 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="56" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D17" s="57">
         <f t="shared" ref="D17:N17" si="3">D16/(D15+D16)</f>
@@ -37691,10 +37879,10 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D18" s="54">
         <f t="shared" ref="D18:N18" si="4">SUM(D15,D12,D9,D6)</f>
@@ -37743,10 +37931,10 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D19" s="54">
         <f t="shared" ref="D19:N19" si="5">SUM(D16,D13,D10,D7)</f>
@@ -37795,10 +37983,10 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="56" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C20" s="56" t="s">
         <v>2241</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>2244</v>
       </c>
       <c r="D20" s="57">
         <f>D19/D18</f>
@@ -37847,56 +38035,56 @@
     </row>
     <row r="23" spans="2:14" ht="20">
       <c r="B23" s="47" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="60" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>170</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="I24" s="61" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="C25" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -37922,10 +38110,10 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="C26" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -37951,10 +38139,10 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="C27" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="62"/>
@@ -37980,10 +38168,10 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C28" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -38009,10 +38197,10 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C29" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -38038,10 +38226,10 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C30" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="62"/>
@@ -38067,10 +38255,10 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="C31" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -38096,10 +38284,10 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="C32" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -38125,10 +38313,10 @@
     </row>
     <row r="33" spans="2:14">
       <c r="B33" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="C33" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="62"/>
@@ -38154,10 +38342,10 @@
     </row>
     <row r="34" spans="2:14">
       <c r="B34" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="C34" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
@@ -38183,10 +38371,10 @@
     </row>
     <row r="35" spans="2:14">
       <c r="B35" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="C35" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
@@ -38212,10 +38400,10 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="C36" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
@@ -38241,10 +38429,10 @@
     </row>
     <row r="37" spans="2:14">
       <c r="B37" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C37" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D37" s="62"/>
       <c r="E37" s="62"/>
@@ -38270,10 +38458,10 @@
     </row>
     <row r="38" spans="2:14">
       <c r="B38" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C38" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
@@ -38299,10 +38487,10 @@
     </row>
     <row r="39" spans="2:14">
       <c r="B39" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C39" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D39" s="62"/>
       <c r="E39" s="62"/>
@@ -38343,22 +38531,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" customWidth="1"/>
     <col min="11" max="19" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28">
       <c r="A1" s="32" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -38367,11 +38556,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="42" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
+      <c r="B4" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1">
       <c r="B5" s="43" t="s">
         <v>2211</v>
       </c>
@@ -38382,10 +38571,10 @@
         <v>2210</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>2212</v>
+        <v>2454</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>2213</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -38393,17 +38582,17 @@
         <v>2000</v>
       </c>
       <c r="C6" s="45">
-        <v>30091</v>
+        <v>39091</v>
       </c>
       <c r="D6" s="41">
         <v>9</v>
       </c>
       <c r="E6" s="40">
-        <f>D6*100000/C6</f>
-        <v>29.909275198564355</v>
+        <v>23</v>
       </c>
       <c r="F6" s="40">
-        <v>23</v>
+        <f>D6*(100000/C6)</f>
+        <v>23.023202271622623</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -38417,11 +38606,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="40">
-        <f t="shared" ref="E7:E16" si="0">D7*100000/C7</f>
-        <v>12.633281115771387</v>
+        <v>12.6</v>
       </c>
       <c r="F7" s="40">
-        <v>12.6</v>
+        <f t="shared" ref="F7:F20" si="0">D7*(100000/C7)</f>
+        <v>12.633281115771389</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -38435,11 +38624,11 @@
         <v>7</v>
       </c>
       <c r="E8" s="40">
+        <v>20</v>
+      </c>
+      <c r="F8" s="40">
         <f t="shared" si="0"/>
         <v>19.779039868893221</v>
-      </c>
-      <c r="F8" s="40">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -38453,11 +38642,11 @@
         <v>7</v>
       </c>
       <c r="E9" s="40">
+        <v>22</v>
+      </c>
+      <c r="F9" s="40">
         <f t="shared" si="0"/>
-        <v>21.92158336464988</v>
-      </c>
-      <c r="F9" s="40">
-        <v>22</v>
+        <v>21.921583364649884</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -38465,17 +38654,17 @@
         <v>2004</v>
       </c>
       <c r="C10" s="45">
-        <v>30935</v>
+        <v>30925</v>
       </c>
       <c r="D10" s="41">
         <v>3</v>
       </c>
       <c r="E10" s="40">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F10" s="40">
         <f t="shared" si="0"/>
-        <v>9.6977533538063678</v>
-      </c>
-      <c r="F10" s="40">
-        <v>9.6999999999999993</v>
+        <v>9.7008892481810829</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -38489,11 +38678,11 @@
         <v>2</v>
       </c>
       <c r="E11" s="40">
+        <v>6.88</v>
+      </c>
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>6.8832599118942728</v>
-      </c>
-      <c r="F11" s="40">
-        <v>6.88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -38507,11 +38696,11 @@
         <v>2</v>
       </c>
       <c r="E12" s="40">
+        <v>7</v>
+      </c>
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>7.0412617941135052</v>
-      </c>
-      <c r="F12" s="40">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -38525,11 +38714,11 @@
         <v>3</v>
       </c>
       <c r="E13" s="40">
+        <v>10.8</v>
+      </c>
+      <c r="F13" s="40">
         <f t="shared" si="0"/>
-        <v>10.7696726019529</v>
-      </c>
-      <c r="F13" s="40">
-        <v>10.8</v>
+        <v>10.769672601952902</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -38543,11 +38732,11 @@
         <v>8</v>
       </c>
       <c r="E14" s="40">
+        <v>28.4</v>
+      </c>
+      <c r="F14" s="40">
         <f t="shared" si="0"/>
         <v>28.390943289090782</v>
-      </c>
-      <c r="F14" s="40">
-        <v>28.4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -38561,11 +38750,11 @@
         <v>12</v>
       </c>
       <c r="E15" s="40">
+        <v>43.31</v>
+      </c>
+      <c r="F15" s="40">
         <f t="shared" si="0"/>
         <v>43.293166895158379</v>
-      </c>
-      <c r="F15" s="40">
-        <v>43.3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -38579,761 +38768,781 @@
         <v>2</v>
       </c>
       <c r="E16" s="40">
+        <v>7.2</v>
+      </c>
+      <c r="F16" s="40">
         <f t="shared" si="0"/>
         <v>7.2682341825053607</v>
       </c>
-      <c r="F16" s="40">
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="19">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="45">
+        <v>27548</v>
+      </c>
+      <c r="D17" s="41">
+        <v>2</v>
+      </c>
+      <c r="E17" s="40">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" ht="20">
-      <c r="B18" s="47" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="68" t="s">
+      <c r="F17" s="40">
+        <f t="shared" si="0"/>
+        <v>7.2600551764193408</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="45">
+        <v>28525</v>
+      </c>
+      <c r="D18" s="41">
+        <v>3</v>
+      </c>
+      <c r="E18" s="40">
+        <v>10.5</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="0"/>
+        <v>10.517090271691499</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="45">
+        <v>27069</v>
+      </c>
+      <c r="D19" s="41">
+        <v>0</v>
+      </c>
+      <c r="E19" s="40">
+        <v>0</v>
+      </c>
+      <c r="F19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="19">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="45">
+        <v>26565</v>
+      </c>
+      <c r="D20" s="41">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="20">
+      <c r="B23" s="47" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="68"/>
+      <c r="C25" s="69">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="69">
+        <v>2001</v>
+      </c>
+      <c r="E25" s="69">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="69">
+        <v>2003</v>
+      </c>
+      <c r="G25" s="69">
+        <v>2004</v>
+      </c>
+      <c r="H25" s="69">
+        <v>2005</v>
+      </c>
+      <c r="I25" s="69">
+        <v>2006</v>
+      </c>
+      <c r="J25" s="69">
+        <v>2007</v>
+      </c>
+      <c r="K25" s="69">
+        <v>2008</v>
+      </c>
+      <c r="L25" s="69">
+        <v>2009</v>
+      </c>
+      <c r="M25" s="69">
+        <v>2010</v>
+      </c>
+      <c r="N25" s="69">
+        <v>2011</v>
+      </c>
+      <c r="O25" s="69">
+        <v>2012</v>
+      </c>
+      <c r="P25" s="69">
+        <v>2013</v>
+      </c>
+      <c r="Q25" s="69">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C26">
+        <v>14.8</v>
+      </c>
+      <c r="D26">
+        <v>14.5</v>
+      </c>
+      <c r="E26">
+        <v>12.6</v>
+      </c>
+      <c r="F26">
+        <v>11.8</v>
+      </c>
+      <c r="G26">
+        <v>11.4</v>
+      </c>
+      <c r="H26">
+        <v>9.02</v>
+      </c>
+      <c r="I26">
+        <v>10.79</v>
+      </c>
+      <c r="J26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K26">
+        <v>9.1</v>
+      </c>
+      <c r="L26">
+        <v>9.6</v>
+      </c>
+      <c r="M26">
+        <v>7.81</v>
+      </c>
+      <c r="N26">
+        <v>8.9</v>
+      </c>
+      <c r="O26">
+        <v>7.61</v>
+      </c>
+      <c r="P26">
+        <v>6.23</v>
+      </c>
+      <c r="Q26">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C27">
+        <v>29.1</v>
+      </c>
+      <c r="D27">
+        <v>28.7</v>
+      </c>
+      <c r="E27">
+        <v>27.1</v>
+      </c>
+      <c r="F27">
+        <v>27.6</v>
+      </c>
+      <c r="G27">
+        <v>25.6</v>
+      </c>
+      <c r="H27">
+        <v>22.14</v>
+      </c>
+      <c r="I27">
+        <v>23.15</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>20.6</v>
+      </c>
+      <c r="L27">
+        <v>19.3</v>
+      </c>
+      <c r="M27">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N27">
+        <v>17.87</v>
+      </c>
+      <c r="O27">
+        <v>17.34</v>
+      </c>
+      <c r="P27">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="Q27">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C28">
+        <v>14.5</v>
+      </c>
+      <c r="D28">
+        <v>14.4</v>
+      </c>
+      <c r="E28">
+        <v>14.7</v>
+      </c>
+      <c r="F28">
+        <v>15.9</v>
+      </c>
+      <c r="G28">
+        <v>14.4</v>
+      </c>
+      <c r="H28">
+        <v>13.25</v>
+      </c>
+      <c r="I28">
+        <v>12.5</v>
+      </c>
+      <c r="J28">
+        <v>11.3</v>
+      </c>
+      <c r="K28">
+        <v>11.6</v>
+      </c>
+      <c r="L28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M28">
+        <v>11.37</v>
+      </c>
+      <c r="N28">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>9.81</v>
+      </c>
+      <c r="P28">
+        <v>10.09</v>
+      </c>
+      <c r="Q28">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="167" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E29" s="166">
+        <f>E26/I35</f>
+        <v>1.125</v>
+      </c>
+      <c r="F29" s="166">
+        <f t="shared" ref="F29:O29" si="1">F26/J35</f>
+        <v>0.78145695364238421</v>
+      </c>
+      <c r="G29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.96610169491525422</v>
+      </c>
+      <c r="H29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="I29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.89916666666666656</v>
+      </c>
+      <c r="J29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.79279279279279291</v>
+      </c>
+      <c r="K29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.93814432989690721</v>
+      </c>
+      <c r="L29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.96969696969696961</v>
+      </c>
+      <c r="M29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.88749999999999984</v>
+      </c>
+      <c r="N29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.67938931297709926</v>
+      </c>
+      <c r="O29" s="166">
+        <f t="shared" si="1"/>
+        <v>0.66754385964912277</v>
+      </c>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+    </row>
+    <row r="31" spans="2:17" ht="20">
+      <c r="B31" s="47" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="39" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="39" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="68" t="s">
         <v>2207</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C34" s="68" t="s">
         <v>2206</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D34" s="68" t="s">
         <v>2205</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E34" s="68" t="s">
         <v>2204</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F34" s="68" t="s">
         <v>2203</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G34" s="68" t="s">
         <v>2202</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H34" s="68" t="s">
         <v>2201</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I34" s="69">
         <v>2002</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J34" s="69">
         <v>2003</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K34" s="69">
         <v>2004</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L34" s="69">
         <v>2005</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M34" s="69">
         <v>2006</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N34" s="69">
         <v>2007</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O34" s="69">
         <v>2008</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P34" s="69">
         <v>2009</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="Q34" s="69">
         <v>2010</v>
       </c>
-      <c r="R19" s="69">
+      <c r="R34" s="69">
         <v>2011</v>
       </c>
-      <c r="S19" s="69">
+      <c r="S34" s="69">
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="39" t="s">
+    <row r="35" spans="2:19">
+      <c r="B35" s="39" t="s">
         <v>2200</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C35" s="39" t="s">
         <v>2199</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D35" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E35" s="39" t="s">
         <v>2191</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F35" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G35" s="39" t="s">
         <v>2189</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H35" s="39" t="s">
         <v>2188</v>
       </c>
-      <c r="I20" s="70">
+      <c r="I35" s="70">
         <v>11.2</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J35" s="70">
         <v>15.1</v>
       </c>
-      <c r="K20" s="70">
+      <c r="K35" s="70">
         <v>11.8</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L35" s="70">
         <v>9.6</v>
       </c>
-      <c r="M20" s="70">
+      <c r="M35" s="70">
         <v>12</v>
       </c>
-      <c r="N20" s="70">
+      <c r="N35" s="70">
         <v>11.1</v>
       </c>
-      <c r="O20" s="70">
+      <c r="O35" s="70">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P20" s="70">
+      <c r="P35" s="70">
         <v>9.9</v>
       </c>
-      <c r="Q20" s="70">
+      <c r="Q35" s="70">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R20" s="70">
+      <c r="R35" s="70">
         <v>13.1</v>
       </c>
-      <c r="S20" s="70">
+      <c r="S35" s="70">
         <v>11.4</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="39" t="s">
+    <row r="36" spans="2:19">
+      <c r="B36" s="39" t="s">
         <v>2198</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C36" s="39" t="s">
         <v>2197</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D36" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E36" s="39" t="s">
         <v>2191</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F36" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G36" s="39" t="s">
         <v>2189</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H36" s="39" t="s">
         <v>2188</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I36" s="70">
         <v>8.1</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J36" s="70">
         <v>10.9</v>
       </c>
-      <c r="K21" s="67" t="s">
+      <c r="K36" s="169">
+        <f>ROUND(K35*K40, 1)</f>
+        <v>8.4</v>
+      </c>
+      <c r="L36" s="70">
+        <v>6.8</v>
+      </c>
+      <c r="M36" s="70">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N36" s="70">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O36" s="70">
+        <v>7</v>
+      </c>
+      <c r="P36" s="169">
+        <f t="shared" ref="P36:Q36" si="2">ROUND(P35*P40, 1)</f>
+        <v>7.6</v>
+      </c>
+      <c r="Q36" s="169">
+        <f t="shared" si="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="R36" s="70">
+        <v>11.1</v>
+      </c>
+      <c r="S36" s="169">
+        <f>ROUND(S35*S40, 1)</f>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="39" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>2189</v>
+      </c>
+      <c r="H37" s="39" t="s">
         <v>2188</v>
       </c>
-      <c r="L21" s="70">
-        <v>6.8</v>
-      </c>
-      <c r="M21" s="70">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N21" s="70">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O21" s="70">
-        <v>7</v>
-      </c>
-      <c r="P21" s="67" t="s">
+      <c r="I37" s="70">
+        <v>6.6</v>
+      </c>
+      <c r="J37" s="70">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K37" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="Q21" s="67" t="s">
+      <c r="L37" s="70">
+        <v>6.1</v>
+      </c>
+      <c r="M37" s="70">
+        <v>7.5</v>
+      </c>
+      <c r="N37" s="70">
+        <v>7.7</v>
+      </c>
+      <c r="O37" s="70">
+        <v>5.4</v>
+      </c>
+      <c r="P37" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="R21" s="70">
-        <v>11.1</v>
-      </c>
-      <c r="S21" s="67" t="s">
+      <c r="Q37" s="67" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22" s="39" t="s">
-        <v>2196</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>2195</v>
-      </c>
-      <c r="D22" s="39" t="s">
+      <c r="R37" s="70">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S37" s="67" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="39" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E38" s="39" t="s">
         <v>2191</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F38" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G38" s="39" t="s">
         <v>2189</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H38" s="39" t="s">
         <v>2188</v>
       </c>
-      <c r="I22" s="70">
-        <v>6.6</v>
-      </c>
-      <c r="J22" s="70">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K22" s="67" t="s">
+      <c r="I38" s="70">
+        <v>5.8</v>
+      </c>
+      <c r="J38" s="70">
+        <v>6</v>
+      </c>
+      <c r="K38" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="L22" s="70">
-        <v>6.1</v>
-      </c>
-      <c r="M22" s="70">
-        <v>7.5</v>
-      </c>
-      <c r="N22" s="70">
-        <v>7.7</v>
-      </c>
-      <c r="O22" s="70">
-        <v>5.4</v>
-      </c>
-      <c r="P22" s="67" t="s">
+      <c r="L38" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="M38" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="Q22" s="67" t="s">
+      <c r="N38" s="70">
+        <v>8.4</v>
+      </c>
+      <c r="O38" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="R22" s="70">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S22" s="67" t="s">
+      <c r="P38" s="67" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23" s="39" t="s">
-        <v>2194</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>2193</v>
-      </c>
-      <c r="D23" s="39" t="s">
+      <c r="Q38" s="67" t="s">
+        <v>2188</v>
+      </c>
+      <c r="R38" s="67" t="s">
+        <v>2188</v>
+      </c>
+      <c r="S38" s="67" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="39" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E39" s="39" t="s">
         <v>2191</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F39" s="39" t="s">
         <v>2190</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G39" s="39" t="s">
         <v>2189</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H39" s="39" t="s">
         <v>2188</v>
       </c>
-      <c r="I23" s="70">
-        <v>5.8</v>
-      </c>
-      <c r="J23" s="70">
-        <v>6</v>
-      </c>
-      <c r="K23" s="67" t="s">
+      <c r="I39" s="70">
+        <v>12.4</v>
+      </c>
+      <c r="J39" s="70">
+        <v>15.1</v>
+      </c>
+      <c r="K39" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="L23" s="70">
-        <v>7.3</v>
-      </c>
-      <c r="M23" s="67" t="s">
+      <c r="L39" s="70">
+        <v>13.4</v>
+      </c>
+      <c r="M39" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="N23" s="70">
-        <v>8.4</v>
-      </c>
-      <c r="O23" s="67" t="s">
+      <c r="N39" s="70">
+        <v>16</v>
+      </c>
+      <c r="O39" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="P23" s="67" t="s">
+      <c r="P39" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="Q23" s="67" t="s">
+      <c r="Q39" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="R23" s="67" t="s">
+      <c r="R39" s="67" t="s">
         <v>2188</v>
       </c>
-      <c r="S23" s="67" t="s">
+      <c r="S39" s="67" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="39" t="s">
-        <v>2192</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>2190</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>2191</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>2190</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>2189</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>2188</v>
-      </c>
-      <c r="I24" s="70">
-        <v>12.4</v>
-      </c>
-      <c r="J24" s="70">
-        <v>15.1</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>2188</v>
-      </c>
-      <c r="L24" s="70">
-        <v>13.4</v>
-      </c>
-      <c r="M24" s="67" t="s">
-        <v>2188</v>
-      </c>
-      <c r="N24" s="70">
-        <v>16</v>
-      </c>
-      <c r="O24" s="67" t="s">
-        <v>2188</v>
-      </c>
-      <c r="P24" s="67" t="s">
-        <v>2188</v>
-      </c>
-      <c r="Q24" s="67" t="s">
-        <v>2188</v>
-      </c>
-      <c r="R24" s="67" t="s">
-        <v>2188</v>
-      </c>
-      <c r="S24" s="67" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="39" t="s">
-        <v>2187</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="39" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-    </row>
-    <row r="30" spans="2:19" ht="20">
-      <c r="B30" s="82" t="s">
-        <v>2276</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="B31" t="s">
-        <v>2187</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="38" t="s">
-        <v>2284</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-    </row>
-    <row r="33" spans="2:19">
-      <c r="B33" s="83" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C33" s="69">
-        <v>2002</v>
-      </c>
-      <c r="D33" s="69">
-        <v>2003</v>
-      </c>
-      <c r="E33" s="69">
-        <v>2004</v>
-      </c>
-      <c r="F33" s="69">
-        <v>2005</v>
-      </c>
-      <c r="G33" s="69">
-        <v>2006</v>
-      </c>
-      <c r="H33" s="69">
-        <v>2007</v>
-      </c>
-      <c r="I33" s="69">
-        <v>2008</v>
-      </c>
-      <c r="J33" s="69">
-        <v>2009</v>
-      </c>
-      <c r="K33" s="69">
-        <v>2010</v>
-      </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-    </row>
-    <row r="34" spans="2:19">
-      <c r="B34" s="80" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K34" s="84"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-    </row>
-    <row r="35" spans="2:19">
-      <c r="B35" s="80" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84">
-        <v>0.123</v>
-      </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="K35" s="84"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="B36" s="80" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="K36" s="84"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-    </row>
-    <row r="37" spans="2:19">
-      <c r="B37" s="80" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84">
-        <v>0.502</v>
-      </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" s="80" t="s">
-        <v>2281</v>
-      </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="K38" s="84"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-    </row>
-    <row r="39" spans="2:19">
-      <c r="B39" s="80" t="s">
-        <v>2282</v>
-      </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84">
-        <v>0.62</v>
-      </c>
-      <c r="K39" s="84"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-    </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="80" t="s">
-        <v>2283</v>
-      </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
+      <c r="B40" s="167" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="166">
+        <f>I36/I35</f>
+        <v>0.7232142857142857</v>
+      </c>
+      <c r="J40" s="166">
+        <f>J36/J35</f>
+        <v>0.72185430463576161</v>
+      </c>
+      <c r="K40" s="168">
+        <f>AVERAGE(J40,L40)</f>
+        <v>0.71509381898454749</v>
+      </c>
+      <c r="L40" s="166">
+        <f>L36/L35</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M40" s="166">
+        <f>M36/M35</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="N40" s="166">
+        <f>N36/N35</f>
+        <v>0.83783783783783794</v>
+      </c>
+      <c r="O40" s="166">
+        <f>O36/O35</f>
+        <v>0.72164948453608257</v>
+      </c>
+      <c r="P40" s="168">
+        <f>O40+((R40-O40)/3)</f>
+        <v>0.76354240444899146</v>
+      </c>
+      <c r="Q40" s="168">
+        <f>P40+((R40-O40)/3)</f>
+        <v>0.80543532436190035</v>
+      </c>
+      <c r="R40" s="166">
+        <f>R36/R35</f>
+        <v>0.84732824427480913</v>
+      </c>
+      <c r="S40" s="168">
+        <f>R40</f>
+        <v>0.84732824427480913</v>
+      </c>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="81" t="s">
-        <v>2220</v>
-      </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85">
-        <v>0.35</v>
-      </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="K41" s="85"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="166"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="166"/>
+      <c r="R41" s="166"/>
+      <c r="S41" s="166"/>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -39351,8 +39560,10 @@
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
     </row>
-    <row r="43" spans="2:19">
-      <c r="B43" s="38"/>
+    <row r="43" spans="2:19" ht="20">
+      <c r="B43" s="82" t="s">
+        <v>2273</v>
+      </c>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
@@ -39372,58 +39583,26 @@
       <c r="S43" s="38"/>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="38" t="s">
-        <v>2285</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="B44" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>2375</v>
+      </c>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="83" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C45" s="69">
-        <v>2002</v>
-      </c>
-      <c r="D45" s="69">
-        <v>2003</v>
-      </c>
-      <c r="E45" s="69">
-        <v>2004</v>
-      </c>
-      <c r="F45" s="69">
-        <v>2005</v>
-      </c>
-      <c r="G45" s="69">
-        <v>2006</v>
-      </c>
-      <c r="H45" s="69">
-        <v>2007</v>
-      </c>
-      <c r="I45" s="69">
-        <v>2008</v>
-      </c>
-      <c r="J45" s="69">
-        <v>2009</v>
-      </c>
-      <c r="K45" s="69">
-        <v>2010</v>
-      </c>
+      <c r="B45" s="38" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
@@ -39434,22 +39613,36 @@
       <c r="S45" s="38"/>
     </row>
     <row r="46" spans="2:19">
-      <c r="B46" s="80" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="K46" s="84"/>
+      <c r="B46" s="83" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C46" s="69">
+        <v>2002</v>
+      </c>
+      <c r="D46" s="69">
+        <v>2003</v>
+      </c>
+      <c r="E46" s="69">
+        <v>2004</v>
+      </c>
+      <c r="F46" s="69">
+        <v>2005</v>
+      </c>
+      <c r="G46" s="69">
+        <v>2006</v>
+      </c>
+      <c r="H46" s="69">
+        <v>2007</v>
+      </c>
+      <c r="I46" s="69">
+        <v>2008</v>
+      </c>
+      <c r="J46" s="69">
+        <v>2009</v>
+      </c>
+      <c r="K46" s="69">
+        <v>2010</v>
+      </c>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
@@ -39461,11 +39654,11 @@
     </row>
     <row r="47" spans="2:19">
       <c r="B47" s="80" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="C47" s="84"/>
       <c r="D47" s="84">
-        <v>0.97</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E47" s="84"/>
       <c r="F47" s="84"/>
@@ -39473,7 +39666,7 @@
       <c r="H47" s="84"/>
       <c r="I47" s="84"/>
       <c r="J47" s="84">
-        <v>0.95</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K47" s="84"/>
       <c r="L47" s="38"/>
@@ -39487,11 +39680,11 @@
     </row>
     <row r="48" spans="2:19">
       <c r="B48" s="80" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="C48" s="84"/>
       <c r="D48" s="84">
-        <v>0.97799999999999998</v>
+        <v>0.123</v>
       </c>
       <c r="E48" s="84"/>
       <c r="F48" s="84"/>
@@ -39499,7 +39692,7 @@
       <c r="H48" s="84"/>
       <c r="I48" s="84"/>
       <c r="J48" s="84">
-        <v>0.96699999999999997</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="38"/>
@@ -39513,11 +39706,11 @@
     </row>
     <row r="49" spans="2:19">
       <c r="B49" s="80" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="C49" s="84"/>
       <c r="D49" s="84">
-        <v>0.96199999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E49" s="84"/>
       <c r="F49" s="84"/>
@@ -39525,7 +39718,7 @@
       <c r="H49" s="84"/>
       <c r="I49" s="84"/>
       <c r="J49" s="84">
-        <v>0.97399999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="K49" s="84"/>
       <c r="L49" s="38"/>
@@ -39539,11 +39732,11 @@
     </row>
     <row r="50" spans="2:19">
       <c r="B50" s="80" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="C50" s="84"/>
       <c r="D50" s="84">
-        <v>0.97599999999999998</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="E50" s="84"/>
       <c r="F50" s="84"/>
@@ -39551,7 +39744,7 @@
       <c r="H50" s="84"/>
       <c r="I50" s="84"/>
       <c r="J50" s="84">
-        <v>0.97799999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="K50" s="84"/>
       <c r="L50" s="38"/>
@@ -39565,11 +39758,11 @@
     </row>
     <row r="51" spans="2:19">
       <c r="B51" s="80" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="C51" s="84"/>
       <c r="D51" s="84">
-        <v>0.98699999999999999</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E51" s="84"/>
       <c r="F51" s="84"/>
@@ -39577,7 +39770,7 @@
       <c r="H51" s="84"/>
       <c r="I51" s="84"/>
       <c r="J51" s="84">
-        <v>0.96699999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="K51" s="84"/>
       <c r="L51" s="38"/>
@@ -39591,11 +39784,11 @@
     </row>
     <row r="52" spans="2:19">
       <c r="B52" s="80" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="C52" s="84"/>
       <c r="D52" s="84">
-        <v>0.96199999999999997</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E52" s="84"/>
       <c r="F52" s="84"/>
@@ -39603,7 +39796,7 @@
       <c r="H52" s="84"/>
       <c r="I52" s="84"/>
       <c r="J52" s="84">
-        <v>0.95199999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="K52" s="84"/>
       <c r="L52" s="38"/>
@@ -39616,22 +39809,22 @@
       <c r="S52" s="38"/>
     </row>
     <row r="53" spans="2:19">
-      <c r="B53" s="81" t="s">
-        <v>2220</v>
-      </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="K53" s="85"/>
+      <c r="B53" s="80" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="K53" s="84"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" s="38"/>
@@ -39642,16 +39835,22 @@
       <c r="S53" s="38"/>
     </row>
     <row r="54" spans="2:19">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
+      <c r="B54" s="81" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85">
+        <v>0.35</v>
+      </c>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="K54" s="85"/>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
@@ -39661,21 +39860,350 @@
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
     </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+    </row>
     <row r="56" spans="2:19">
-      <c r="F56" s="50"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
     </row>
     <row r="57" spans="2:19">
-      <c r="F57" s="50"/>
+      <c r="B57" s="38" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="83" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C58" s="69">
+        <v>2002</v>
+      </c>
+      <c r="D58" s="69">
+        <v>2003</v>
+      </c>
+      <c r="E58" s="69">
+        <v>2004</v>
+      </c>
+      <c r="F58" s="69">
+        <v>2005</v>
+      </c>
+      <c r="G58" s="69">
+        <v>2006</v>
+      </c>
+      <c r="H58" s="69">
+        <v>2007</v>
+      </c>
+      <c r="I58" s="69">
+        <v>2008</v>
+      </c>
+      <c r="J58" s="69">
+        <v>2009</v>
+      </c>
+      <c r="K58" s="69">
+        <v>2010</v>
+      </c>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" s="80" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="K59" s="84"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+    </row>
+    <row r="60" spans="2:19">
+      <c r="B60" s="80" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84">
+        <v>0.97</v>
+      </c>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="K60" s="84"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="B61" s="80" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K61" s="84"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="B62" s="80" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="84">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K62" s="84"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+    </row>
+    <row r="63" spans="2:19">
+      <c r="B63" s="80" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K63" s="84"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+    </row>
+    <row r="64" spans="2:19">
+      <c r="B64" s="80" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K64" s="84"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+    </row>
+    <row r="65" spans="2:19">
+      <c r="B65" s="80" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K65" s="84"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="B66" s="81" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K66" s="85"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+    </row>
+    <row r="67" spans="2:19">
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="F69" s="50"/>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="F70" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C27" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
+    <hyperlink ref="C33" r:id="rId1"/>
+    <hyperlink ref="C44" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -39700,20 +40228,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28">
       <c r="A1" s="32" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
       <c r="B3" s="47" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -39736,7 +40264,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -39756,7 +40284,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -39776,7 +40304,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="C8">
         <f>SUM(C6:C7)</f>
@@ -39801,7 +40329,7 @@
     </row>
     <row r="11" spans="1:7" ht="20">
       <c r="B11" s="47" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -39809,16 +40337,16 @@
         <v>2187</v>
       </c>
       <c r="C12" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="5" customHeight="1"/>
     <row r="14" spans="1:7">
       <c r="B14" s="102" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -39831,7 +40359,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="C16">
         <v>47</v>
@@ -39839,7 +40367,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="C17">
         <v>27</v>
@@ -39847,7 +40375,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -39855,7 +40383,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -39863,7 +40391,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="C20">
         <v>17</v>
@@ -39871,7 +40399,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -39879,7 +40407,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -39887,7 +40415,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -39929,12 +40457,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30">
       <c r="A1" s="48" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20">
       <c r="B3" s="47" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -39942,7 +40470,7 @@
         <v>2187</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -39982,7 +40510,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -40017,7 +40545,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="C7">
         <f>C6</f>
@@ -40062,20 +40590,20 @@
     </row>
     <row r="10" spans="1:12" ht="20">
       <c r="B10" s="47" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="104" customHeight="1">
       <c r="B12" s="165" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="C12" s="165"/>
       <c r="D12" s="165"/>
@@ -40093,7 +40621,7 @@
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="B14" s="47" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -40101,39 +40629,39 @@
         <v>2187</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="7" customHeight="1"/>
     <row r="17" spans="2:8">
       <c r="B17" s="71" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="C17" s="71" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F17" s="73" t="s">
         <v>2300</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="G17" s="73" t="s">
         <v>2301</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="H17" s="73" t="s">
         <v>2302</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>2303</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>2304</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="C18" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="D18" s="41">
         <v>34574</v>
@@ -40153,10 +40681,10 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="65" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D19" s="103">
         <v>34193</v>
@@ -40176,10 +40704,10 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="C20" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="D20" s="41">
         <v>31274</v>
@@ -40199,10 +40727,10 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="C21" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D21" s="41">
         <v>23296</v>
@@ -40222,10 +40750,10 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="C22" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="D22" s="41">
         <v>25259</v>
@@ -40245,10 +40773,10 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="C23" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D23" s="41">
         <v>23273</v>
@@ -40268,10 +40796,10 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="C24" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D24" s="41">
         <v>29006</v>
@@ -40291,10 +40819,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="C25" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="D25" s="41">
         <v>24843</v>
@@ -40314,10 +40842,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="C26" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="D26" s="41">
         <v>23233</v>
@@ -40337,10 +40865,10 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="C27" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="D27" s="41">
         <v>34430</v>
@@ -40360,10 +40888,10 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="C28" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D28" s="41">
         <v>24686</v>
@@ -40383,10 +40911,10 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="C29" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="D29" s="41">
         <v>20553</v>
@@ -40406,10 +40934,10 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="C30" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="D30" s="41">
         <v>15860</v>
@@ -40429,10 +40957,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="C31" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="D31" s="41">
         <v>19373</v>
@@ -40452,10 +40980,10 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="C32" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="D32" s="41">
         <v>21756</v>
@@ -40475,10 +41003,10 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="C33" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="D33" s="41">
         <v>19769</v>
@@ -40498,10 +41026,10 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="C34" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="D34" s="41">
         <v>16894</v>
@@ -40521,10 +41049,10 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="C35" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="D35" s="41">
         <v>10133</v>
@@ -40544,10 +41072,10 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="C36" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="D36" s="41">
         <v>17767</v>
@@ -40567,10 +41095,10 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="C37" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="D37" s="41">
         <v>15672</v>
@@ -40590,10 +41118,10 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="C38" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="D38" s="41">
         <v>10497</v>
@@ -40613,10 +41141,10 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="C39" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="D39" s="41">
         <v>17854</v>
@@ -40636,10 +41164,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="C40" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D40" s="41">
         <v>18344</v>
@@ -40659,10 +41187,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="C41" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="D41" s="41">
         <v>15512</v>
@@ -40682,10 +41210,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="C42" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="D42" s="41">
         <v>13651</v>
@@ -40705,10 +41233,10 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="C43" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="D43" s="41">
         <v>6449</v>
@@ -40728,10 +41256,10 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="C44" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="D44" s="41">
         <v>5379</v>
@@ -40751,10 +41279,10 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="C45" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D45" s="41">
         <v>8575</v>
@@ -40774,10 +41302,10 @@
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1">
       <c r="B46" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="C46" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="D46" s="41">
         <v>7128</v>
@@ -40797,10 +41325,10 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="C47" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="D47" s="41">
         <v>4998</v>
@@ -40821,7 +41349,7 @@
     <row r="48" spans="2:8" ht="4" customHeight="1"/>
     <row r="49" spans="2:8">
       <c r="B49" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="C49" s="46" t="str">
         <f>LEFT(B49, FIND(" ", B49))</f>
@@ -40845,7 +41373,7 @@
     </row>
     <row r="50" spans="2:8">
       <c r="C50" s="99" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="D50" s="100">
         <f>SUM(D18:D47)</f>
@@ -40907,7 +41435,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28">
       <c r="A1" s="32" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -40915,12 +41443,12 @@
         <v>2187</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="71" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="C4" s="71">
         <v>2003</v>
@@ -41019,7 +41547,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="96" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="98">
@@ -41165,7 +41693,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H648" sqref="H648"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -47683,7 +48211,7 @@
         <v>1</v>
       </c>
       <c r="T116" s="91" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="117" spans="1:20" hidden="1">
@@ -60437,7 +60965,7 @@
         <v>1</v>
       </c>
       <c r="T343" s="88" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -60499,7 +61027,7 @@
         <v>1</v>
       </c>
       <c r="T344" s="88" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -60561,7 +61089,7 @@
         <v>1</v>
       </c>
       <c r="T345" s="88" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="346" spans="1:20" hidden="1">
@@ -60959,7 +61487,7 @@
         <v>1</v>
       </c>
       <c r="T352" s="88" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="353" spans="1:20">
@@ -61021,7 +61549,7 @@
         <v>1</v>
       </c>
       <c r="T353" s="88" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="354" spans="1:20">
@@ -61083,7 +61611,7 @@
         <v>1</v>
       </c>
       <c r="T354" s="88" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="355" spans="1:20" hidden="1">
@@ -76563,7 +77091,7 @@
         <v>1</v>
       </c>
       <c r="T630" s="91" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="631" spans="1:20" hidden="1">

--- a/data/MDG Data.xlsx
+++ b/data/MDG Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="999" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="999" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Indicators" sheetId="7" r:id="rId1"/>
@@ -8354,6 +8354,71 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8381,46 +8446,40 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8432,73 +8491,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="92">
@@ -9232,11 +9232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089218568"/>
-        <c:axId val="2089218920"/>
+        <c:axId val="-2143166440"/>
+        <c:axId val="-2142767176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089218568"/>
+        <c:axId val="-2143166440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9245,7 +9245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089218920"/>
+        <c:crossAx val="-2142767176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9253,7 +9253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089218920"/>
+        <c:axId val="-2142767176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9264,7 +9264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089218568"/>
+        <c:crossAx val="-2143166440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9431,11 +9431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125398248"/>
-        <c:axId val="2125394184"/>
+        <c:axId val="-2142819880"/>
+        <c:axId val="-2142816808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125398248"/>
+        <c:axId val="-2142819880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9445,7 +9445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125394184"/>
+        <c:crossAx val="-2142816808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9453,7 +9453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125394184"/>
+        <c:axId val="-2142816808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9464,7 +9464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125398248"/>
+        <c:crossAx val="-2142819880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9695,11 +9695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143024696"/>
-        <c:axId val="-2142856328"/>
+        <c:axId val="-2141825720"/>
+        <c:axId val="-2143175032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143024696"/>
+        <c:axId val="-2141825720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9709,7 +9709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142856328"/>
+        <c:crossAx val="-2143175032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9717,7 +9717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142856328"/>
+        <c:axId val="-2143175032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9728,7 +9728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143024696"/>
+        <c:crossAx val="-2141825720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9862,11 +9862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127166008"/>
-        <c:axId val="2127168952"/>
+        <c:axId val="-2143204120"/>
+        <c:axId val="-2143235416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127166008"/>
+        <c:axId val="-2143204120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9875,7 +9875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127168952"/>
+        <c:crossAx val="-2143235416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9883,7 +9883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127168952"/>
+        <c:axId val="-2143235416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9894,7 +9894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127166008"/>
+        <c:crossAx val="-2143204120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10056,11 +10056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127216344"/>
-        <c:axId val="2127219432"/>
+        <c:axId val="-2142390072"/>
+        <c:axId val="-2142989416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127216344"/>
+        <c:axId val="-2142390072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10070,7 +10070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127219432"/>
+        <c:crossAx val="-2142989416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10078,7 +10078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127219432"/>
+        <c:axId val="-2142989416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10089,7 +10089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127216344"/>
+        <c:crossAx val="-2142390072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32868,10 +32868,10 @@
     <row r="4" spans="1:8">
       <c r="A4" s="20"/>
       <c r="B4" s="104"/>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="140" t="s">
         <v>2379</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="140" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="107"/>
@@ -32884,8 +32884,8 @@
       <c r="B5" s="105" t="s">
         <v>2378</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="108">
         <v>2011</v>
       </c>
@@ -32902,8 +32902,8 @@
     <row r="6" spans="1:8" ht="16" thickBot="1">
       <c r="A6" s="20"/>
       <c r="B6" s="106"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
       <c r="E6" s="109"/>
       <c r="F6" s="109"/>
       <c r="G6" s="109"/>
@@ -32955,57 +32955,57 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="20"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="20"/>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="148"/>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="128"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="127" t="s">
         <v>2382</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="127" t="s">
         <v>2383</v>
       </c>
-      <c r="E12" s="153">
+      <c r="E12" s="155">
         <v>0.29699999999999999</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="137" t="s">
+      <c r="H12" s="127" t="s">
         <v>24</v>
       </c>
     </row>
@@ -33014,34 +33014,34 @@
       <c r="B13" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
         <v>2384</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="127" t="s">
         <v>2382</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="127" t="s">
         <v>2385</v>
       </c>
-      <c r="E14" s="153">
+      <c r="E14" s="155">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="137" t="s">
+      <c r="H14" s="127" t="s">
         <v>24</v>
       </c>
     </row>
@@ -33050,211 +33050,211 @@
       <c r="B15" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
     </row>
     <row r="16" spans="1:8" ht="74" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="137">
+      <c r="E16" s="127">
         <v>32.799999999999997</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="137" t="s">
+      <c r="G16" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="137" t="s">
+      <c r="H16" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" thickBot="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="20"/>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="136" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="135">
+      <c r="E18" s="130">
         <v>-1.73</v>
       </c>
-      <c r="F18" s="135">
+      <c r="F18" s="130">
         <v>-2.37</v>
       </c>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="130" t="s">
         <v>2387</v>
       </c>
-      <c r="H18" s="135" t="s">
+      <c r="H18" s="130" t="s">
         <v>2387</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22">
       <c r="A19" s="20"/>
-      <c r="B19" s="146"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="6" t="s">
         <v>2386</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20"/>
-      <c r="B20" s="146"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="20"/>
-      <c r="B21" s="146"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="20"/>
-      <c r="B22" s="146"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
     </row>
     <row r="23" spans="1:8" ht="16" thickBot="1">
       <c r="A23" s="20"/>
-      <c r="B23" s="130"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
     </row>
     <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="136" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="135">
+      <c r="E24" s="130">
         <v>7.3</v>
       </c>
-      <c r="F24" s="135">
+      <c r="F24" s="130">
         <v>2.5</v>
       </c>
-      <c r="G24" s="135">
+      <c r="G24" s="130">
         <v>1.8</v>
       </c>
-      <c r="H24" s="135" t="s">
+      <c r="H24" s="130" t="s">
         <v>2389</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" thickBot="1">
       <c r="A25" s="20"/>
-      <c r="B25" s="130"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="10" t="s">
         <v>2388</v>
       </c>
-      <c r="D25" s="158"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
     </row>
     <row r="26" spans="1:8" ht="44" customHeight="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="135">
+      <c r="G26" s="130">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H26" s="135" t="s">
+      <c r="H26" s="130" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" thickBot="1">
       <c r="A27" s="20"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="20"/>
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="133" t="s">
+      <c r="D28" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="135" t="s">
+      <c r="E28" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="135" t="s">
+      <c r="F28" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="135" t="s">
+      <c r="G28" s="130" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -33263,49 +33263,49 @@
     </row>
     <row r="29" spans="1:8" ht="22">
       <c r="A29" s="20"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
       <c r="H29" s="6" t="s">
         <v>2390</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22">
       <c r="A30" s="20"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="6" t="s">
         <v>2391</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" thickBot="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
       <c r="H31" s="10" t="s">
         <v>2392</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22">
       <c r="A32" s="20"/>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="136" t="s">
         <v>2393</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="132" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -33323,11 +33323,11 @@
     </row>
     <row r="33" spans="1:8" ht="22">
       <c r="A33" s="20"/>
-      <c r="B33" s="146"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="156"/>
+      <c r="D33" s="157"/>
       <c r="E33" s="6" t="s">
         <v>2396</v>
       </c>
@@ -33343,11 +33343,11 @@
     </row>
     <row r="34" spans="1:8" ht="55">
       <c r="A34" s="20"/>
-      <c r="B34" s="146"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="6" t="s">
         <v>2394</v>
       </c>
-      <c r="D34" s="156"/>
+      <c r="D34" s="157"/>
       <c r="E34" s="6" t="s">
         <v>2397</v>
       </c>
@@ -33363,11 +33363,11 @@
     </row>
     <row r="35" spans="1:8" ht="66">
       <c r="A35" s="20"/>
-      <c r="B35" s="146"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="156"/>
+      <c r="D35" s="157"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -33377,9 +33377,9 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="20"/>
-      <c r="B36" s="146"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="156"/>
+      <c r="D36" s="157"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -33387,9 +33387,9 @@
     </row>
     <row r="37" spans="1:8" ht="16" thickBot="1">
       <c r="A37" s="20"/>
-      <c r="B37" s="130"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="134"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -33419,90 +33419,90 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="20"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="145"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="20"/>
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="125"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="148"/>
     </row>
     <row r="41" spans="1:8" ht="16" thickBot="1">
       <c r="A41" s="20"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="128"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="151"/>
     </row>
     <row r="42" spans="1:8" ht="39" customHeight="1">
       <c r="A42" s="20"/>
-      <c r="B42" s="139" t="s">
+      <c r="B42" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="137" t="s">
+      <c r="D42" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="137" t="s">
+      <c r="E42" s="127" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="4">
         <v>36.9</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="155">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H42" s="137" t="s">
+      <c r="H42" s="127" t="s">
         <v>2406</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" thickBot="1">
       <c r="A43" s="20"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
       <c r="F43" s="2" t="s">
         <v>2405</v>
       </c>
-      <c r="G43" s="154"/>
-      <c r="H43" s="138"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="129"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="20"/>
-      <c r="B44" s="139" t="s">
+      <c r="B44" s="124" t="s">
         <v>2407</v>
       </c>
-      <c r="C44" s="137" t="s">
+      <c r="C44" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="137" t="s">
+      <c r="D44" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="137" t="s">
+      <c r="E44" s="127" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="4">
         <v>25.6</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="155">
         <v>0.28399999999999997</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -33511,60 +33511,60 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="20"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
       <c r="F45" s="4" t="s">
         <v>2405</v>
       </c>
-      <c r="G45" s="155"/>
+      <c r="G45" s="162"/>
       <c r="H45" s="4" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="20"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="155"/>
+      <c r="G46" s="162"/>
       <c r="H46" s="4" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23" thickBot="1">
       <c r="A47" s="20"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="154"/>
+      <c r="G47" s="156"/>
       <c r="H47" s="2" t="s">
         <v>2411</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="20"/>
-      <c r="B48" s="139" t="s">
+      <c r="B48" s="124" t="s">
         <v>2412</v>
       </c>
-      <c r="C48" s="137" t="s">
+      <c r="C48" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="137" t="s">
+      <c r="D48" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="137" t="s">
+      <c r="E48" s="127" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="4">
         <v>30.9</v>
       </c>
-      <c r="G48" s="162">
+      <c r="G48" s="152">
         <v>0.3</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -33572,14 +33572,14 @@
       </c>
     </row>
     <row r="49" spans="2:10" s="21" customFormat="1">
-      <c r="B49" s="140"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
       <c r="F49" s="4" t="s">
         <v>2405</v>
       </c>
-      <c r="G49" s="163"/>
+      <c r="G49" s="153"/>
       <c r="H49" s="4" t="s">
         <v>2414</v>
       </c>
@@ -33587,78 +33587,78 @@
       <c r="J49"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="140"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="163"/>
+      <c r="G50" s="153"/>
       <c r="H50" s="4" t="s">
         <v>2415</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="23" thickBot="1">
-      <c r="B51" s="141"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="164"/>
+      <c r="G51" s="154"/>
       <c r="H51" s="2" t="s">
         <v>2411</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="28" customHeight="1">
-      <c r="B52" s="139" t="s">
+      <c r="B52" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="137" t="s">
+      <c r="C52" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="137" t="s">
+      <c r="D52" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="137" t="s">
+      <c r="E52" s="127" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="4">
         <v>63.1</v>
       </c>
-      <c r="G52" s="153">
+      <c r="G52" s="155">
         <v>0.59499999999999997</v>
       </c>
-      <c r="H52" s="137" t="s">
+      <c r="H52" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="16" thickBot="1">
-      <c r="B53" s="141"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="138"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
       <c r="F53" s="2" t="s">
         <v>2405</v>
       </c>
-      <c r="G53" s="154"/>
-      <c r="H53" s="138"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="129"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="139" t="s">
+      <c r="B54" s="124" t="s">
         <v>2416</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="137" t="s">
+      <c r="D54" s="127" t="s">
         <v>2417</v>
       </c>
-      <c r="E54" s="137" t="s">
+      <c r="E54" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="137" t="s">
+      <c r="F54" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="137" t="s">
+      <c r="G54" s="127" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -33666,70 +33666,70 @@
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="140"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
       <c r="H55" s="4" t="s">
         <v>2419</v>
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="140"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="4" t="s">
         <v>2420</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="16" thickBot="1">
-      <c r="B57" s="141"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="120"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="122"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="145"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="125"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="147"/>
+      <c r="H59" s="148"/>
     </row>
     <row r="60" spans="2:10" ht="16" thickBot="1">
-      <c r="B60" s="126"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="127"/>
-      <c r="H60" s="128"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="151"/>
     </row>
     <row r="61" spans="2:10" ht="45">
-      <c r="B61" s="139" t="s">
+      <c r="B61" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="137" t="s">
+      <c r="C61" s="127" t="s">
         <v>45</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -33738,58 +33738,58 @@
       <c r="E61" s="4">
         <v>4.88</v>
       </c>
-      <c r="F61" s="137" t="s">
+      <c r="F61" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="137" t="s">
+      <c r="G61" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="137" t="s">
+      <c r="H61" s="127" t="s">
         <v>2424</v>
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="140"/>
-      <c r="C62" s="142"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="128"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>2423</v>
       </c>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="142"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="128"/>
     </row>
     <row r="63" spans="2:10" ht="31" thickBot="1">
-      <c r="B63" s="141"/>
-      <c r="C63" s="138"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="13" t="s">
         <v>2422</v>
       </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="138"/>
-      <c r="H63" s="138"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="129"/>
     </row>
     <row r="64" spans="2:10" ht="45">
       <c r="B64" s="3" t="s">
         <v>2425</v>
       </c>
-      <c r="C64" s="137" t="s">
+      <c r="C64" s="127" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>2427</v>
       </c>
-      <c r="E64" s="153">
+      <c r="E64" s="155">
         <v>2.3E-2</v>
       </c>
-      <c r="F64" s="153">
+      <c r="F64" s="155">
         <v>2.3E-2</v>
       </c>
-      <c r="G64" s="153">
+      <c r="G64" s="155">
         <v>2.3E-2</v>
       </c>
-      <c r="H64" s="137" t="s">
+      <c r="H64" s="127" t="s">
         <v>2428</v>
       </c>
     </row>
@@ -33797,17 +33797,17 @@
       <c r="B65" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="C65" s="138"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="13" t="s">
         <v>2422</v>
       </c>
-      <c r="E65" s="154"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="138"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="129"/>
     </row>
     <row r="66" spans="2:8" ht="45">
-      <c r="B66" s="139" t="s">
+      <c r="B66" s="124" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -33819,10 +33819,10 @@
       <c r="E66" s="110">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F66" s="137" t="s">
+      <c r="F66" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="137" t="s">
+      <c r="G66" s="127" t="s">
         <v>24</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -33830,7 +33830,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="22">
-      <c r="B67" s="140"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="4" t="s">
         <v>2429</v>
       </c>
@@ -33838,14 +33838,14 @@
       <c r="E67" s="4" t="s">
         <v>2433</v>
       </c>
-      <c r="F67" s="142"/>
-      <c r="G67" s="142"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
       <c r="H67" s="4" t="s">
         <v>2435</v>
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="140"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="4" t="s">
         <v>2430</v>
       </c>
@@ -33853,32 +33853,32 @@
         <v>4</v>
       </c>
       <c r="E68" s="11"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="142"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
       <c r="H68" s="11"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="140"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5" t="s">
         <v>2432</v>
       </c>
       <c r="E69" s="11"/>
-      <c r="F69" s="142"/>
-      <c r="G69" s="142"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="2:8" ht="16" thickBot="1">
-      <c r="B70" s="141"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="12"/>
       <c r="D70" s="2"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="138"/>
-      <c r="G70" s="138"/>
+      <c r="F70" s="129"/>
+      <c r="G70" s="129"/>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="2:8" ht="45">
-      <c r="B71" s="139" t="s">
+      <c r="B71" s="124" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -33890,10 +33890,10 @@
       <c r="E71" s="110">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F71" s="137" t="s">
+      <c r="F71" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G71" s="137" t="s">
+      <c r="G71" s="127" t="s">
         <v>24</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -33901,7 +33901,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="22">
-      <c r="B72" s="140"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="4" t="s">
         <v>48</v>
       </c>
@@ -33909,38 +33909,38 @@
       <c r="E72" s="4" t="s">
         <v>2433</v>
       </c>
-      <c r="F72" s="142"/>
-      <c r="G72" s="142"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
       <c r="H72" s="4" t="s">
         <v>2439</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="22">
-      <c r="B73" s="140"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="11"/>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
       <c r="H73" s="4" t="s">
         <v>2440</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="16" thickBot="1">
-      <c r="B74" s="141"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13" t="s">
         <v>2437</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="138"/>
-      <c r="G74" s="138"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" ht="44">
-      <c r="B75" s="129" t="s">
+      <c r="B75" s="136" t="s">
         <v>2441</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -33949,13 +33949,13 @@
       <c r="D75" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="135" t="s">
+      <c r="E75" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="135" t="s">
+      <c r="F75" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="135" t="s">
+      <c r="G75" s="130" t="s">
         <v>24</v>
       </c>
       <c r="H75" s="6" t="s">
@@ -33963,67 +33963,67 @@
       </c>
     </row>
     <row r="76" spans="2:8" ht="44">
-      <c r="B76" s="146"/>
+      <c r="B76" s="137"/>
       <c r="C76" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>2442</v>
       </c>
-      <c r="E76" s="147"/>
-      <c r="F76" s="147"/>
-      <c r="G76" s="147"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="139"/>
       <c r="H76" s="6" t="s">
         <v>2444</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="34" thickBot="1">
-      <c r="B77" s="130"/>
+      <c r="B77" s="138"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
-      <c r="G77" s="136"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
+      <c r="G77" s="131"/>
       <c r="H77" s="10" t="s">
         <v>2445</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="139" t="s">
+      <c r="B78" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="137" t="s">
+      <c r="C78" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="137" t="s">
+      <c r="D78" s="127" t="s">
         <v>2446</v>
       </c>
-      <c r="E78" s="137" t="s">
+      <c r="E78" s="127" t="s">
         <v>24</v>
       </c>
       <c r="F78" s="4">
         <v>11.2</v>
       </c>
-      <c r="G78" s="137" t="s">
+      <c r="G78" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="137" t="s">
+      <c r="H78" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="16" thickBot="1">
-      <c r="B79" s="141"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="138"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="129"/>
       <c r="F79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G79" s="138"/>
-      <c r="H79" s="138"/>
+      <c r="G79" s="129"/>
+      <c r="H79" s="129"/>
     </row>
     <row r="80" spans="2:8" ht="30">
-      <c r="B80" s="139" t="s">
+      <c r="B80" s="124" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -34046,7 +34046,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="44">
-      <c r="B81" s="140"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="4" t="s">
         <v>54</v>
       </c>
@@ -34065,7 +34065,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" ht="45">
-      <c r="B82" s="140"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -34080,7 +34080,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="30">
-      <c r="B83" s="140"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="5" t="s">
         <v>55</v>
       </c>
@@ -34099,7 +34099,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" ht="22">
-      <c r="B84" s="140"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="11"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -34114,7 +34114,7 @@
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="140"/>
+      <c r="B85" s="125"/>
       <c r="C85" s="11"/>
       <c r="D85" s="5" t="s">
         <v>4</v>
@@ -34125,7 +34125,7 @@
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="140"/>
+      <c r="B86" s="125"/>
       <c r="C86" s="11"/>
       <c r="D86" s="5" t="s">
         <v>58</v>
@@ -34136,7 +34136,7 @@
       <c r="H86" s="11"/>
     </row>
     <row r="87" spans="2:8" ht="16" thickBot="1">
-      <c r="B87" s="141"/>
+      <c r="B87" s="126"/>
       <c r="C87" s="12"/>
       <c r="D87" s="2"/>
       <c r="E87" s="12"/>
@@ -34145,36 +34145,36 @@
       <c r="H87" s="12"/>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="120"/>
-      <c r="C88" s="121"/>
-      <c r="D88" s="121"/>
-      <c r="E88" s="121"/>
-      <c r="F88" s="121"/>
-      <c r="G88" s="121"/>
-      <c r="H88" s="122"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="144"/>
+      <c r="E88" s="144"/>
+      <c r="F88" s="144"/>
+      <c r="G88" s="144"/>
+      <c r="H88" s="145"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="123" t="s">
+      <c r="B89" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="125"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="147"/>
+      <c r="G89" s="147"/>
+      <c r="H89" s="148"/>
     </row>
     <row r="90" spans="2:8" ht="16" thickBot="1">
-      <c r="B90" s="126"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="128"/>
+      <c r="B90" s="149"/>
+      <c r="C90" s="150"/>
+      <c r="D90" s="150"/>
+      <c r="E90" s="150"/>
+      <c r="F90" s="150"/>
+      <c r="G90" s="150"/>
+      <c r="H90" s="151"/>
     </row>
     <row r="91" spans="2:8" ht="30">
-      <c r="B91" s="129" t="s">
+      <c r="B91" s="136" t="s">
         <v>75</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -34192,12 +34192,12 @@
       <c r="G91" s="6">
         <v>2.9</v>
       </c>
-      <c r="H91" s="135" t="s">
+      <c r="H91" s="130" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="60">
-      <c r="B92" s="146"/>
+      <c r="B92" s="137"/>
       <c r="C92" s="9" t="s">
         <v>76</v>
       </c>
@@ -34211,10 +34211,10 @@
       <c r="G92" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H92" s="147"/>
+      <c r="H92" s="139"/>
     </row>
     <row r="93" spans="2:8" ht="75">
-      <c r="B93" s="146"/>
+      <c r="B93" s="137"/>
       <c r="C93" s="9" t="s">
         <v>77</v>
       </c>
@@ -34224,10 +34224,10 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="147"/>
+      <c r="H93" s="139"/>
     </row>
     <row r="94" spans="2:8" ht="31" thickBot="1">
-      <c r="B94" s="130"/>
+      <c r="B94" s="138"/>
       <c r="C94" s="10"/>
       <c r="D94" s="14" t="s">
         <v>80</v>
@@ -34235,25 +34235,25 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="136"/>
+      <c r="H94" s="131"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="139" t="s">
+      <c r="B95" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="137" t="s">
+      <c r="C95" s="127" t="s">
         <v>53</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="137" t="s">
+      <c r="E95" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="137" t="s">
+      <c r="F95" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="137">
+      <c r="G95" s="127">
         <v>92.2</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -34261,113 +34261,113 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="140"/>
-      <c r="C96" s="142"/>
+      <c r="B96" s="125"/>
+      <c r="C96" s="128"/>
       <c r="D96" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="142"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="142"/>
+      <c r="E96" s="128"/>
+      <c r="F96" s="128"/>
+      <c r="G96" s="128"/>
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="2:8" ht="44">
-      <c r="B97" s="140"/>
-      <c r="C97" s="142"/>
+      <c r="B97" s="125"/>
+      <c r="C97" s="128"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
-      <c r="G97" s="142"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="128"/>
+      <c r="G97" s="128"/>
       <c r="H97" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="140"/>
-      <c r="C98" s="142"/>
+      <c r="B98" s="125"/>
+      <c r="C98" s="128"/>
       <c r="D98" s="11"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="142"/>
+      <c r="E98" s="128"/>
+      <c r="F98" s="128"/>
+      <c r="G98" s="128"/>
       <c r="H98" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="140"/>
-      <c r="C99" s="142"/>
+      <c r="B99" s="125"/>
+      <c r="C99" s="128"/>
       <c r="D99" s="11"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="142"/>
-      <c r="G99" s="142"/>
+      <c r="E99" s="128"/>
+      <c r="F99" s="128"/>
+      <c r="G99" s="128"/>
       <c r="H99" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="140"/>
-      <c r="C100" s="142"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="128"/>
       <c r="D100" s="11"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="142"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="2:8" ht="33">
-      <c r="B101" s="140"/>
-      <c r="C101" s="142"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="128"/>
       <c r="D101" s="11"/>
-      <c r="E101" s="142"/>
-      <c r="F101" s="142"/>
-      <c r="G101" s="142"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="128"/>
+      <c r="G101" s="128"/>
       <c r="H101" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="140"/>
-      <c r="C102" s="142"/>
+      <c r="B102" s="125"/>
+      <c r="C102" s="128"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="142"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="142"/>
+      <c r="E102" s="128"/>
+      <c r="F102" s="128"/>
+      <c r="G102" s="128"/>
       <c r="H102" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="140"/>
-      <c r="C103" s="142"/>
+      <c r="B103" s="125"/>
+      <c r="C103" s="128"/>
       <c r="D103" s="11"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="142"/>
-      <c r="G103" s="142"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="128"/>
+      <c r="G103" s="128"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="2:8" ht="33">
-      <c r="B104" s="140"/>
-      <c r="C104" s="142"/>
+      <c r="B104" s="125"/>
+      <c r="C104" s="128"/>
       <c r="D104" s="11"/>
-      <c r="E104" s="142"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="142"/>
+      <c r="E104" s="128"/>
+      <c r="F104" s="128"/>
+      <c r="G104" s="128"/>
       <c r="H104" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="16" thickBot="1">
-      <c r="B105" s="141"/>
-      <c r="C105" s="138"/>
+      <c r="B105" s="126"/>
+      <c r="C105" s="129"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="138"/>
-      <c r="F105" s="138"/>
-      <c r="G105" s="138"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+      <c r="G105" s="129"/>
       <c r="H105" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="139" t="s">
+      <c r="B106" s="124" t="s">
         <v>94</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -34390,7 +34390,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="33">
-      <c r="B107" s="140"/>
+      <c r="B107" s="125"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>98</v>
@@ -34409,7 +34409,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="110">
-      <c r="B108" s="140"/>
+      <c r="B108" s="125"/>
       <c r="C108" s="4" t="s">
         <v>96</v>
       </c>
@@ -34420,7 +34420,7 @@
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="140"/>
+      <c r="B109" s="125"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>99</v>
@@ -34431,7 +34431,7 @@
       <c r="H109" s="11"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="140"/>
+      <c r="B110" s="125"/>
       <c r="C110" s="11"/>
       <c r="D110" s="5" t="s">
         <v>4</v>
@@ -34442,7 +34442,7 @@
       <c r="H110" s="11"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="140"/>
+      <c r="B111" s="125"/>
       <c r="C111" s="11"/>
       <c r="D111" s="5" t="s">
         <v>100</v>
@@ -34453,7 +34453,7 @@
       <c r="H111" s="11"/>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="140"/>
+      <c r="B112" s="125"/>
       <c r="C112" s="11"/>
       <c r="D112" s="4"/>
       <c r="E112" s="11"/>
@@ -34462,7 +34462,7 @@
       <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8" ht="16" thickBot="1">
-      <c r="B113" s="141"/>
+      <c r="B113" s="126"/>
       <c r="C113" s="12"/>
       <c r="D113" s="2"/>
       <c r="E113" s="12"/>
@@ -34471,7 +34471,7 @@
       <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="B114" s="139" t="s">
+      <c r="B114" s="124" t="s">
         <v>105</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -34494,7 +34494,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="22">
-      <c r="B115" s="140"/>
+      <c r="B115" s="125"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
         <v>107</v>
@@ -34511,7 +34511,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="B116" s="140"/>
+      <c r="B116" s="125"/>
       <c r="C116" s="4" t="s">
         <v>106</v>
       </c>
@@ -34524,7 +34524,7 @@
       <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8" ht="16" thickBot="1">
-      <c r="B117" s="141"/>
+      <c r="B117" s="126"/>
       <c r="C117" s="12"/>
       <c r="D117" s="13" t="s">
         <v>108</v>
@@ -34539,7 +34539,7 @@
       <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="B118" s="129" t="s">
+      <c r="B118" s="136" t="s">
         <v>110</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -34548,10 +34548,10 @@
       <c r="D118" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E118" s="135">
+      <c r="E118" s="130">
         <v>96</v>
       </c>
-      <c r="F118" s="135">
+      <c r="F118" s="130">
         <v>92</v>
       </c>
       <c r="G118" s="6" t="s">
@@ -34562,13 +34562,13 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="33">
-      <c r="B119" s="146"/>
+      <c r="B119" s="137"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E119" s="147"/>
-      <c r="F119" s="147"/>
+      <c r="E119" s="139"/>
+      <c r="F119" s="139"/>
       <c r="G119" s="6" t="s">
         <v>9</v>
       </c>
@@ -34577,75 +34577,75 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="55">
-      <c r="B120" s="146"/>
+      <c r="B120" s="137"/>
       <c r="C120" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="147"/>
-      <c r="F120" s="147"/>
+      <c r="E120" s="139"/>
+      <c r="F120" s="139"/>
       <c r="G120" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="B121" s="146"/>
+      <c r="B121" s="137"/>
       <c r="C121" s="6"/>
       <c r="D121" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="147"/>
-      <c r="F121" s="147"/>
+      <c r="E121" s="139"/>
+      <c r="F121" s="139"/>
       <c r="G121" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" ht="55">
-      <c r="B122" s="146"/>
+      <c r="B122" s="137"/>
       <c r="C122" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E122" s="147"/>
-      <c r="F122" s="147"/>
+      <c r="E122" s="139"/>
+      <c r="F122" s="139"/>
       <c r="G122" s="6" t="s">
         <v>119</v>
       </c>
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" ht="22">
-      <c r="B123" s="146"/>
+      <c r="B123" s="137"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="147"/>
-      <c r="F123" s="147"/>
+      <c r="E123" s="139"/>
+      <c r="F123" s="139"/>
       <c r="G123" s="6" t="s">
         <v>120</v>
       </c>
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" ht="16" thickBot="1">
-      <c r="B124" s="130"/>
+      <c r="B124" s="138"/>
       <c r="C124" s="10"/>
       <c r="D124" s="8"/>
-      <c r="E124" s="136"/>
-      <c r="F124" s="136"/>
+      <c r="E124" s="131"/>
+      <c r="F124" s="131"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="20"/>
-      <c r="B125" s="139" t="s">
+      <c r="B125" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="137" t="s">
+      <c r="C125" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D125" s="137" t="s">
+      <c r="D125" s="127" t="s">
         <v>124</v>
       </c>
       <c r="E125" s="4">
@@ -34654,44 +34654,44 @@
       <c r="F125" s="4">
         <v>70</v>
       </c>
-      <c r="G125" s="137" t="s">
+      <c r="G125" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H125" s="137" t="s">
+      <c r="H125" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="20"/>
-      <c r="B126" s="140"/>
-      <c r="C126" s="142"/>
-      <c r="D126" s="142"/>
+      <c r="B126" s="125"/>
+      <c r="C126" s="128"/>
+      <c r="D126" s="128"/>
       <c r="E126" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G126" s="142"/>
-      <c r="H126" s="142"/>
+      <c r="G126" s="128"/>
+      <c r="H126" s="128"/>
     </row>
     <row r="127" spans="1:8" ht="23" thickBot="1">
       <c r="A127" s="20"/>
-      <c r="B127" s="141"/>
-      <c r="C127" s="138"/>
-      <c r="D127" s="138"/>
+      <c r="B127" s="126"/>
+      <c r="C127" s="129"/>
+      <c r="D127" s="129"/>
       <c r="E127" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F127" s="12"/>
-      <c r="G127" s="138"/>
-      <c r="H127" s="138"/>
+      <c r="G127" s="129"/>
+      <c r="H127" s="129"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="B128" s="139" t="s">
+      <c r="B128" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="137" t="s">
+      <c r="C128" s="127" t="s">
         <v>123</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -34703,16 +34703,16 @@
       <c r="F128" s="4">
         <v>10.5</v>
       </c>
-      <c r="G128" s="137" t="s">
+      <c r="G128" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H128" s="137" t="s">
+      <c r="H128" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="140"/>
-      <c r="C129" s="142"/>
+      <c r="B129" s="125"/>
+      <c r="C129" s="128"/>
       <c r="D129" s="4" t="s">
         <v>127</v>
       </c>
@@ -34720,21 +34720,21 @@
         <v>101</v>
       </c>
       <c r="F129" s="4"/>
-      <c r="G129" s="142"/>
-      <c r="H129" s="142"/>
+      <c r="G129" s="128"/>
+      <c r="H129" s="128"/>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="140"/>
-      <c r="C130" s="142"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="128"/>
       <c r="D130" s="11"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="142"/>
-      <c r="H130" s="142"/>
+      <c r="G130" s="128"/>
+      <c r="H130" s="128"/>
     </row>
     <row r="131" spans="2:8" ht="16" thickBot="1">
-      <c r="B131" s="141"/>
-      <c r="C131" s="138"/>
+      <c r="B131" s="126"/>
+      <c r="C131" s="129"/>
       <c r="D131" s="12"/>
       <c r="E131" s="2">
         <v>7.2</v>
@@ -34742,8 +34742,8 @@
       <c r="F131" s="2">
         <v>16.2</v>
       </c>
-      <c r="G131" s="138"/>
-      <c r="H131" s="138"/>
+      <c r="G131" s="129"/>
+      <c r="H131" s="129"/>
     </row>
     <row r="132" spans="2:8" ht="16" thickBot="1">
       <c r="B132" s="1" t="s">
@@ -34769,10 +34769,10 @@
       </c>
     </row>
     <row r="133" spans="2:8" ht="44">
-      <c r="B133" s="139" t="s">
+      <c r="B133" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="137" t="s">
+      <c r="C133" s="127" t="s">
         <v>131</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -34781,10 +34781,10 @@
       <c r="E133" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F133" s="137" t="s">
+      <c r="F133" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G133" s="137" t="s">
+      <c r="G133" s="127" t="s">
         <v>24</v>
       </c>
       <c r="H133" s="4" t="s">
@@ -34792,128 +34792,128 @@
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="140"/>
-      <c r="C134" s="142"/>
+      <c r="B134" s="125"/>
+      <c r="C134" s="128"/>
       <c r="D134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F134" s="142"/>
-      <c r="G134" s="142"/>
+      <c r="F134" s="128"/>
+      <c r="G134" s="128"/>
       <c r="H134" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="140"/>
-      <c r="C135" s="142"/>
+      <c r="B135" s="125"/>
+      <c r="C135" s="128"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F135" s="142"/>
-      <c r="G135" s="142"/>
+      <c r="F135" s="128"/>
+      <c r="G135" s="128"/>
       <c r="H135" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="2:8" ht="179" customHeight="1">
-      <c r="B136" s="140"/>
-      <c r="C136" s="142"/>
+      <c r="B136" s="125"/>
+      <c r="C136" s="128"/>
       <c r="D136" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F136" s="142"/>
-      <c r="G136" s="142"/>
+      <c r="F136" s="128"/>
+      <c r="G136" s="128"/>
       <c r="H136" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="140"/>
-      <c r="C137" s="142"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="128"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F137" s="142"/>
-      <c r="G137" s="142"/>
+      <c r="F137" s="128"/>
+      <c r="G137" s="128"/>
       <c r="H137" s="11"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="140"/>
-      <c r="C138" s="142"/>
+      <c r="B138" s="125"/>
+      <c r="C138" s="128"/>
       <c r="D138" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E138" s="4"/>
-      <c r="F138" s="142"/>
-      <c r="G138" s="142"/>
+      <c r="F138" s="128"/>
+      <c r="G138" s="128"/>
       <c r="H138" s="11"/>
     </row>
     <row r="139" spans="2:8" ht="33">
-      <c r="B139" s="140"/>
-      <c r="C139" s="142"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="128"/>
       <c r="D139" s="11"/>
       <c r="E139" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F139" s="142"/>
-      <c r="G139" s="142"/>
+      <c r="F139" s="128"/>
+      <c r="G139" s="128"/>
       <c r="H139" s="11"/>
     </row>
     <row r="140" spans="2:8">
-      <c r="B140" s="140"/>
-      <c r="C140" s="142"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="128"/>
       <c r="D140" s="11"/>
       <c r="E140" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F140" s="142"/>
-      <c r="G140" s="142"/>
+      <c r="F140" s="128"/>
+      <c r="G140" s="128"/>
       <c r="H140" s="11"/>
     </row>
     <row r="141" spans="2:8">
-      <c r="B141" s="140"/>
-      <c r="C141" s="142"/>
+      <c r="B141" s="125"/>
+      <c r="C141" s="128"/>
       <c r="D141" s="11"/>
       <c r="E141" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F141" s="142"/>
-      <c r="G141" s="142"/>
+      <c r="F141" s="128"/>
+      <c r="G141" s="128"/>
       <c r="H141" s="11"/>
     </row>
     <row r="142" spans="2:8">
-      <c r="B142" s="140"/>
-      <c r="C142" s="142"/>
+      <c r="B142" s="125"/>
+      <c r="C142" s="128"/>
       <c r="D142" s="11"/>
       <c r="E142" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F142" s="142"/>
-      <c r="G142" s="142"/>
+      <c r="F142" s="128"/>
+      <c r="G142" s="128"/>
       <c r="H142" s="11"/>
     </row>
     <row r="143" spans="2:8" ht="16" thickBot="1">
-      <c r="B143" s="141"/>
-      <c r="C143" s="138"/>
+      <c r="B143" s="126"/>
+      <c r="C143" s="129"/>
       <c r="D143" s="12"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="138"/>
-      <c r="G143" s="138"/>
+      <c r="F143" s="129"/>
+      <c r="G143" s="129"/>
       <c r="H143" s="12"/>
     </row>
     <row r="144" spans="2:8">
-      <c r="B144" s="139" t="s">
+      <c r="B144" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="137" t="s">
+      <c r="C144" s="127" t="s">
         <v>131</v>
       </c>
       <c r="D144" s="4" t="s">
@@ -34933,8 +34933,8 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="23" thickBot="1">
-      <c r="B145" s="141"/>
-      <c r="C145" s="138"/>
+      <c r="B145" s="126"/>
+      <c r="C145" s="129"/>
       <c r="D145" s="13" t="s">
         <v>150</v>
       </c>
@@ -34955,15 +34955,15 @@
       <c r="B146" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C146" s="137" t="s">
+      <c r="C146" s="127" t="s">
         <v>131</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
-      <c r="G146" s="137"/>
+      <c r="E146" s="127"/>
+      <c r="F146" s="127"/>
+      <c r="G146" s="127"/>
       <c r="H146" s="4" t="s">
         <v>156</v>
       </c>
@@ -34973,35 +34973,35 @@
       <c r="B147" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C147" s="142"/>
+      <c r="C147" s="128"/>
       <c r="D147" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E147" s="142"/>
-      <c r="F147" s="142"/>
-      <c r="G147" s="142"/>
+      <c r="E147" s="128"/>
+      <c r="F147" s="128"/>
+      <c r="G147" s="128"/>
       <c r="H147" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="88">
       <c r="B148" s="114"/>
-      <c r="C148" s="142"/>
+      <c r="C148" s="128"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="142"/>
-      <c r="F148" s="142"/>
-      <c r="G148" s="142"/>
+      <c r="E148" s="128"/>
+      <c r="F148" s="128"/>
+      <c r="G148" s="128"/>
       <c r="H148" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16" thickBot="1">
       <c r="B149" s="115"/>
-      <c r="C149" s="138"/>
+      <c r="C149" s="129"/>
       <c r="D149" s="12"/>
-      <c r="E149" s="138"/>
-      <c r="F149" s="138"/>
-      <c r="G149" s="138"/>
+      <c r="E149" s="129"/>
+      <c r="F149" s="129"/>
+      <c r="G149" s="129"/>
       <c r="H149" s="2" t="s">
         <v>159</v>
       </c>
@@ -35028,137 +35028,137 @@
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8" ht="28" customHeight="1">
-      <c r="B151" s="139" t="s">
+      <c r="B151" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="C151" s="137" t="s">
+      <c r="C151" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="D151" s="137" t="s">
+      <c r="D151" s="127" t="s">
         <v>165</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F151" s="137" t="s">
+      <c r="F151" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="G151" s="137" t="s">
+      <c r="G151" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="H151" s="137"/>
+      <c r="H151" s="127"/>
     </row>
     <row r="152" spans="1:8" ht="16" thickBot="1">
-      <c r="B152" s="141"/>
-      <c r="C152" s="138"/>
-      <c r="D152" s="138"/>
+      <c r="B152" s="126"/>
+      <c r="C152" s="129"/>
+      <c r="D152" s="129"/>
       <c r="E152" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F152" s="138"/>
-      <c r="G152" s="138"/>
-      <c r="H152" s="138"/>
+      <c r="F152" s="129"/>
+      <c r="G152" s="129"/>
+      <c r="H152" s="129"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="B153" s="120"/>
-      <c r="C153" s="121"/>
-      <c r="D153" s="121"/>
-      <c r="E153" s="121"/>
-      <c r="F153" s="121"/>
-      <c r="G153" s="121"/>
-      <c r="H153" s="122"/>
+      <c r="B153" s="143"/>
+      <c r="C153" s="144"/>
+      <c r="D153" s="144"/>
+      <c r="E153" s="144"/>
+      <c r="F153" s="144"/>
+      <c r="G153" s="144"/>
+      <c r="H153" s="145"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="B154" s="123" t="s">
+      <c r="B154" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="C154" s="124"/>
-      <c r="D154" s="124"/>
-      <c r="E154" s="124"/>
-      <c r="F154" s="124"/>
-      <c r="G154" s="124"/>
-      <c r="H154" s="125"/>
+      <c r="C154" s="147"/>
+      <c r="D154" s="147"/>
+      <c r="E154" s="147"/>
+      <c r="F154" s="147"/>
+      <c r="G154" s="147"/>
+      <c r="H154" s="148"/>
     </row>
     <row r="155" spans="1:8" ht="16" thickBot="1">
-      <c r="B155" s="126"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="127"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="127"/>
-      <c r="G155" s="127"/>
-      <c r="H155" s="128"/>
+      <c r="B155" s="149"/>
+      <c r="C155" s="150"/>
+      <c r="D155" s="150"/>
+      <c r="E155" s="150"/>
+      <c r="F155" s="150"/>
+      <c r="G155" s="150"/>
+      <c r="H155" s="151"/>
     </row>
     <row r="156" spans="1:8" ht="44" customHeight="1">
-      <c r="B156" s="139" t="s">
+      <c r="B156" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="C156" s="137" t="s">
+      <c r="C156" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="D156" s="150" t="s">
+      <c r="D156" s="158" t="s">
         <v>56</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F156" s="137" t="s">
+      <c r="F156" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G156" s="137" t="s">
+      <c r="G156" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H156" s="137" t="s">
+      <c r="H156" s="127" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="B157" s="140"/>
-      <c r="C157" s="142"/>
-      <c r="D157" s="151"/>
+      <c r="B157" s="125"/>
+      <c r="C157" s="128"/>
+      <c r="D157" s="163"/>
       <c r="E157" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F157" s="142"/>
-      <c r="G157" s="142"/>
-      <c r="H157" s="142"/>
+      <c r="F157" s="128"/>
+      <c r="G157" s="128"/>
+      <c r="H157" s="128"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="B158" s="140"/>
-      <c r="C158" s="142"/>
-      <c r="D158" s="151"/>
+      <c r="B158" s="125"/>
+      <c r="C158" s="128"/>
+      <c r="D158" s="163"/>
       <c r="E158" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F158" s="142"/>
-      <c r="G158" s="142"/>
-      <c r="H158" s="142"/>
+      <c r="F158" s="128"/>
+      <c r="G158" s="128"/>
+      <c r="H158" s="128"/>
     </row>
     <row r="159" spans="1:8" ht="16" thickBot="1">
-      <c r="B159" s="141"/>
-      <c r="C159" s="138"/>
-      <c r="D159" s="152"/>
+      <c r="B159" s="126"/>
+      <c r="C159" s="129"/>
+      <c r="D159" s="159"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="138"/>
-      <c r="G159" s="138"/>
-      <c r="H159" s="138"/>
+      <c r="F159" s="129"/>
+      <c r="G159" s="129"/>
+      <c r="H159" s="129"/>
     </row>
     <row r="160" spans="1:8" ht="44">
-      <c r="B160" s="139" t="s">
+      <c r="B160" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="C160" s="137" t="s">
+      <c r="C160" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="137" t="s">
+      <c r="D160" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E160" s="137" t="s">
+      <c r="E160" s="127" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G160" s="137" t="s">
+      <c r="G160" s="127" t="s">
         <v>24</v>
       </c>
       <c r="H160" s="4" t="s">
@@ -35166,25 +35166,25 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="B161" s="140"/>
-      <c r="C161" s="142"/>
-      <c r="D161" s="142"/>
-      <c r="E161" s="142"/>
+      <c r="B161" s="125"/>
+      <c r="C161" s="128"/>
+      <c r="D161" s="128"/>
+      <c r="E161" s="128"/>
       <c r="F161" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G161" s="142"/>
+      <c r="G161" s="128"/>
       <c r="H161" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="56" thickBot="1">
-      <c r="B162" s="141"/>
-      <c r="C162" s="138"/>
-      <c r="D162" s="138"/>
-      <c r="E162" s="138"/>
+      <c r="B162" s="126"/>
+      <c r="C162" s="129"/>
+      <c r="D162" s="129"/>
+      <c r="E162" s="129"/>
       <c r="F162" s="12"/>
-      <c r="G162" s="138"/>
+      <c r="G162" s="129"/>
       <c r="H162" s="2" t="s">
         <v>183</v>
       </c>
@@ -35210,22 +35210,22 @@
       <c r="B164" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="C164" s="135" t="s">
+      <c r="C164" s="130" t="s">
         <v>2447</v>
       </c>
-      <c r="D164" s="133" t="s">
+      <c r="D164" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="E164" s="148">
+      <c r="E164" s="134">
         <v>0.33</v>
       </c>
-      <c r="F164" s="148">
+      <c r="F164" s="134">
         <v>0.33</v>
       </c>
-      <c r="G164" s="148">
+      <c r="G164" s="134">
         <v>0.33</v>
       </c>
-      <c r="H164" s="148">
+      <c r="H164" s="134">
         <v>0.33</v>
       </c>
     </row>
@@ -35233,51 +35233,51 @@
       <c r="B165" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="C165" s="136"/>
-      <c r="D165" s="134"/>
-      <c r="E165" s="149"/>
-      <c r="F165" s="149"/>
-      <c r="G165" s="149"/>
-      <c r="H165" s="149"/>
+      <c r="C165" s="131"/>
+      <c r="D165" s="133"/>
+      <c r="E165" s="135"/>
+      <c r="F165" s="135"/>
+      <c r="G165" s="135"/>
+      <c r="H165" s="135"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="20"/>
-      <c r="B166" s="120"/>
-      <c r="C166" s="121"/>
-      <c r="D166" s="121"/>
-      <c r="E166" s="121"/>
-      <c r="F166" s="121"/>
-      <c r="G166" s="121"/>
-      <c r="H166" s="122"/>
+      <c r="B166" s="143"/>
+      <c r="C166" s="144"/>
+      <c r="D166" s="144"/>
+      <c r="E166" s="144"/>
+      <c r="F166" s="144"/>
+      <c r="G166" s="144"/>
+      <c r="H166" s="145"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="20"/>
-      <c r="B167" s="123" t="s">
+      <c r="B167" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="C167" s="124"/>
-      <c r="D167" s="124"/>
-      <c r="E167" s="124"/>
-      <c r="F167" s="124"/>
-      <c r="G167" s="124"/>
-      <c r="H167" s="125"/>
+      <c r="C167" s="147"/>
+      <c r="D167" s="147"/>
+      <c r="E167" s="147"/>
+      <c r="F167" s="147"/>
+      <c r="G167" s="147"/>
+      <c r="H167" s="148"/>
     </row>
     <row r="168" spans="1:8" ht="16" thickBot="1">
       <c r="A168" s="20"/>
-      <c r="B168" s="126"/>
-      <c r="C168" s="127"/>
-      <c r="D168" s="127"/>
-      <c r="E168" s="127"/>
-      <c r="F168" s="127"/>
-      <c r="G168" s="127"/>
-      <c r="H168" s="128"/>
+      <c r="B168" s="149"/>
+      <c r="C168" s="150"/>
+      <c r="D168" s="150"/>
+      <c r="E168" s="150"/>
+      <c r="F168" s="150"/>
+      <c r="G168" s="150"/>
+      <c r="H168" s="151"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="20"/>
-      <c r="B169" s="129" t="s">
+      <c r="B169" s="136" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="135" t="s">
+      <c r="C169" s="130" t="s">
         <v>190</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -35286,50 +35286,50 @@
       <c r="E169" s="16">
         <v>0.44</v>
       </c>
-      <c r="F169" s="135" t="s">
+      <c r="F169" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="G169" s="135" t="s">
+      <c r="G169" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="H169" s="135" t="s">
+      <c r="H169" s="130" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="20"/>
-      <c r="B170" s="146"/>
-      <c r="C170" s="147"/>
+      <c r="B170" s="137"/>
+      <c r="C170" s="139"/>
       <c r="D170" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E170" s="6"/>
-      <c r="F170" s="147"/>
-      <c r="G170" s="147"/>
-      <c r="H170" s="147"/>
+      <c r="F170" s="139"/>
+      <c r="G170" s="139"/>
+      <c r="H170" s="139"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="20"/>
-      <c r="B171" s="146"/>
-      <c r="C171" s="147"/>
+      <c r="B171" s="137"/>
+      <c r="C171" s="139"/>
       <c r="D171" s="6"/>
       <c r="E171" s="16">
         <v>0.41</v>
       </c>
-      <c r="F171" s="147"/>
-      <c r="G171" s="147"/>
-      <c r="H171" s="147"/>
+      <c r="F171" s="139"/>
+      <c r="G171" s="139"/>
+      <c r="H171" s="139"/>
     </row>
     <row r="172" spans="1:8" ht="16" thickBot="1">
-      <c r="B172" s="130"/>
-      <c r="C172" s="136"/>
+      <c r="B172" s="138"/>
+      <c r="C172" s="131"/>
       <c r="D172" s="14" t="s">
         <v>193</v>
       </c>
       <c r="E172" s="10"/>
-      <c r="F172" s="136"/>
-      <c r="G172" s="136"/>
-      <c r="H172" s="136"/>
+      <c r="F172" s="131"/>
+      <c r="G172" s="131"/>
+      <c r="H172" s="131"/>
     </row>
     <row r="173" spans="1:8" ht="34" thickBot="1">
       <c r="B173" s="112" t="s">
@@ -35355,39 +35355,39 @@
       </c>
     </row>
     <row r="174" spans="1:8" ht="164" customHeight="1">
-      <c r="B174" s="129" t="s">
+      <c r="B174" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="135" t="s">
+      <c r="C174" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D174" s="133" t="s">
+      <c r="D174" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="E174" s="135" t="s">
+      <c r="E174" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F174" s="135" t="s">
+      <c r="F174" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G174" s="135" t="s">
+      <c r="G174" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H174" s="135" t="s">
+      <c r="H174" s="130" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="16" thickBot="1">
-      <c r="B175" s="130"/>
-      <c r="C175" s="136"/>
-      <c r="D175" s="134"/>
-      <c r="E175" s="136"/>
-      <c r="F175" s="136"/>
-      <c r="G175" s="136"/>
-      <c r="H175" s="136"/>
+      <c r="B175" s="138"/>
+      <c r="C175" s="131"/>
+      <c r="D175" s="133"/>
+      <c r="E175" s="131"/>
+      <c r="F175" s="131"/>
+      <c r="G175" s="131"/>
+      <c r="H175" s="131"/>
     </row>
     <row r="176" spans="1:8" ht="33">
-      <c r="B176" s="129" t="s">
+      <c r="B176" s="136" t="s">
         <v>202</v>
       </c>
       <c r="C176" s="6" t="s">
@@ -35399,10 +35399,10 @@
       <c r="E176" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F176" s="135" t="s">
+      <c r="F176" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G176" s="135" t="s">
+      <c r="G176" s="130" t="s">
         <v>176</v>
       </c>
       <c r="H176" s="6" t="s">
@@ -35410,7 +35410,7 @@
       </c>
     </row>
     <row r="177" spans="2:8" ht="99">
-      <c r="B177" s="146"/>
+      <c r="B177" s="137"/>
       <c r="C177" s="6" t="s">
         <v>203</v>
       </c>
@@ -35418,49 +35418,49 @@
       <c r="E177" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F177" s="147"/>
-      <c r="G177" s="147"/>
+      <c r="F177" s="139"/>
+      <c r="G177" s="139"/>
       <c r="H177" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="178" spans="2:8">
-      <c r="B178" s="146"/>
+      <c r="B178" s="137"/>
       <c r="C178" s="6"/>
       <c r="D178" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E178" s="7"/>
-      <c r="F178" s="147"/>
-      <c r="G178" s="147"/>
+      <c r="F178" s="139"/>
+      <c r="G178" s="139"/>
       <c r="H178" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="179" spans="2:8">
-      <c r="B179" s="146"/>
+      <c r="B179" s="137"/>
       <c r="C179" s="7"/>
       <c r="D179" s="9" t="s">
         <v>205</v>
       </c>
       <c r="E179" s="7"/>
-      <c r="F179" s="147"/>
-      <c r="G179" s="147"/>
+      <c r="F179" s="139"/>
+      <c r="G179" s="139"/>
       <c r="H179" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="16" thickBot="1">
-      <c r="B180" s="130"/>
+      <c r="B180" s="138"/>
       <c r="C180" s="8"/>
       <c r="D180" s="10"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="136"/>
-      <c r="G180" s="136"/>
+      <c r="F180" s="131"/>
+      <c r="G180" s="131"/>
       <c r="H180" s="10"/>
     </row>
     <row r="181" spans="2:8" ht="30">
-      <c r="B181" s="129" t="s">
+      <c r="B181" s="136" t="s">
         <v>210</v>
       </c>
       <c r="C181" s="6" t="s">
@@ -35469,13 +35469,13 @@
       <c r="D181" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E181" s="135" t="s">
+      <c r="E181" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="F181" s="135" t="s">
+      <c r="F181" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G181" s="135" t="s">
+      <c r="G181" s="130" t="s">
         <v>24</v>
       </c>
       <c r="H181" s="6" t="s">
@@ -35483,40 +35483,40 @@
       </c>
     </row>
     <row r="182" spans="2:8" ht="55">
-      <c r="B182" s="146"/>
+      <c r="B182" s="137"/>
       <c r="C182" s="6" t="s">
         <v>212</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="147"/>
-      <c r="F182" s="147"/>
-      <c r="G182" s="147"/>
+      <c r="E182" s="139"/>
+      <c r="F182" s="139"/>
+      <c r="G182" s="139"/>
       <c r="H182" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="183" spans="2:8">
-      <c r="B183" s="146"/>
+      <c r="B183" s="137"/>
       <c r="C183" s="6"/>
       <c r="D183" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E183" s="147"/>
-      <c r="F183" s="147"/>
-      <c r="G183" s="147"/>
+      <c r="E183" s="139"/>
+      <c r="F183" s="139"/>
+      <c r="G183" s="139"/>
       <c r="H183" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="184" spans="2:8" ht="16" thickBot="1">
-      <c r="B184" s="130"/>
+      <c r="B184" s="138"/>
       <c r="C184" s="8"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="136"/>
-      <c r="F184" s="136"/>
-      <c r="G184" s="136"/>
+      <c r="E184" s="131"/>
+      <c r="F184" s="131"/>
+      <c r="G184" s="131"/>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="2:8" ht="16" thickBot="1">
@@ -35539,107 +35539,107 @@
       </c>
     </row>
     <row r="186" spans="2:8">
-      <c r="B186" s="120"/>
-      <c r="C186" s="121"/>
-      <c r="D186" s="121"/>
-      <c r="E186" s="121"/>
-      <c r="F186" s="121"/>
-      <c r="G186" s="121"/>
-      <c r="H186" s="122"/>
+      <c r="B186" s="143"/>
+      <c r="C186" s="144"/>
+      <c r="D186" s="144"/>
+      <c r="E186" s="144"/>
+      <c r="F186" s="144"/>
+      <c r="G186" s="144"/>
+      <c r="H186" s="145"/>
     </row>
     <row r="187" spans="2:8">
-      <c r="B187" s="123" t="s">
+      <c r="B187" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="C187" s="124"/>
-      <c r="D187" s="124"/>
-      <c r="E187" s="124"/>
-      <c r="F187" s="124"/>
-      <c r="G187" s="124"/>
-      <c r="H187" s="125"/>
+      <c r="C187" s="147"/>
+      <c r="D187" s="147"/>
+      <c r="E187" s="147"/>
+      <c r="F187" s="147"/>
+      <c r="G187" s="147"/>
+      <c r="H187" s="148"/>
     </row>
     <row r="188" spans="2:8" ht="16" thickBot="1">
-      <c r="B188" s="126"/>
-      <c r="C188" s="127"/>
-      <c r="D188" s="127"/>
-      <c r="E188" s="127"/>
-      <c r="F188" s="127"/>
-      <c r="G188" s="127"/>
-      <c r="H188" s="128"/>
+      <c r="B188" s="149"/>
+      <c r="C188" s="150"/>
+      <c r="D188" s="150"/>
+      <c r="E188" s="150"/>
+      <c r="F188" s="150"/>
+      <c r="G188" s="150"/>
+      <c r="H188" s="151"/>
     </row>
     <row r="189" spans="2:8" ht="30">
-      <c r="B189" s="139" t="s">
+      <c r="B189" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="137"/>
+      <c r="C189" s="127"/>
       <c r="D189" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E189" s="137" t="s">
+      <c r="E189" s="127" t="s">
         <v>223</v>
       </c>
       <c r="F189" s="17">
         <v>1805853</v>
       </c>
-      <c r="G189" s="137" t="s">
+      <c r="G189" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="H189" s="137" t="s">
+      <c r="H189" s="127" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="190" spans="2:8" ht="30">
-      <c r="B190" s="140"/>
-      <c r="C190" s="142"/>
+      <c r="B190" s="125"/>
+      <c r="C190" s="128"/>
       <c r="D190" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E190" s="142"/>
+      <c r="E190" s="128"/>
       <c r="F190" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G190" s="142"/>
-      <c r="H190" s="142"/>
+      <c r="G190" s="128"/>
+      <c r="H190" s="128"/>
     </row>
     <row r="191" spans="2:8" ht="30">
-      <c r="B191" s="140"/>
-      <c r="C191" s="142"/>
+      <c r="B191" s="125"/>
+      <c r="C191" s="128"/>
       <c r="D191" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E191" s="142"/>
+      <c r="E191" s="128"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
+      <c r="G191" s="128"/>
+      <c r="H191" s="128"/>
     </row>
     <row r="192" spans="2:8">
-      <c r="B192" s="140"/>
-      <c r="C192" s="142"/>
+      <c r="B192" s="125"/>
+      <c r="C192" s="128"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="142"/>
+      <c r="E192" s="128"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="142"/>
-      <c r="H192" s="142"/>
+      <c r="G192" s="128"/>
+      <c r="H192" s="128"/>
     </row>
     <row r="193" spans="2:8" ht="30">
-      <c r="B193" s="140"/>
-      <c r="C193" s="142"/>
+      <c r="B193" s="125"/>
+      <c r="C193" s="128"/>
       <c r="D193" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E193" s="142"/>
+      <c r="E193" s="128"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="142"/>
-      <c r="H193" s="142"/>
+      <c r="G193" s="128"/>
+      <c r="H193" s="128"/>
     </row>
     <row r="194" spans="2:8" ht="16" thickBot="1">
-      <c r="B194" s="141"/>
-      <c r="C194" s="138"/>
+      <c r="B194" s="126"/>
+      <c r="C194" s="129"/>
       <c r="D194" s="12"/>
-      <c r="E194" s="138"/>
+      <c r="E194" s="129"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="138"/>
-      <c r="H194" s="138"/>
+      <c r="G194" s="129"/>
+      <c r="H194" s="129"/>
     </row>
     <row r="195" spans="2:8" ht="31" thickBot="1">
       <c r="B195" s="1" t="s">
@@ -35663,141 +35663,141 @@
       </c>
     </row>
     <row r="196" spans="2:8">
-      <c r="B196" s="139" t="s">
+      <c r="B196" s="124" t="s">
         <v>230</v>
       </c>
-      <c r="C196" s="137"/>
+      <c r="C196" s="127"/>
       <c r="D196" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E196" s="137">
+      <c r="E196" s="127">
         <v>0.86</v>
       </c>
-      <c r="F196" s="137">
+      <c r="F196" s="127">
         <v>0.79</v>
       </c>
-      <c r="G196" s="137">
+      <c r="G196" s="127">
         <v>0.71</v>
       </c>
-      <c r="H196" s="137">
+      <c r="H196" s="127">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="197" spans="2:8" ht="16" thickBot="1">
-      <c r="B197" s="141"/>
-      <c r="C197" s="138"/>
+      <c r="B197" s="126"/>
+      <c r="C197" s="129"/>
       <c r="D197" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E197" s="138"/>
-      <c r="F197" s="138"/>
-      <c r="G197" s="138"/>
-      <c r="H197" s="138"/>
+      <c r="E197" s="129"/>
+      <c r="F197" s="129"/>
+      <c r="G197" s="129"/>
+      <c r="H197" s="129"/>
     </row>
     <row r="198" spans="2:8">
-      <c r="B198" s="120"/>
-      <c r="C198" s="121"/>
-      <c r="D198" s="121"/>
-      <c r="E198" s="121"/>
-      <c r="F198" s="121"/>
-      <c r="G198" s="121"/>
-      <c r="H198" s="122"/>
+      <c r="B198" s="143"/>
+      <c r="C198" s="144"/>
+      <c r="D198" s="144"/>
+      <c r="E198" s="144"/>
+      <c r="F198" s="144"/>
+      <c r="G198" s="144"/>
+      <c r="H198" s="145"/>
     </row>
     <row r="199" spans="2:8">
-      <c r="B199" s="123" t="s">
+      <c r="B199" s="146" t="s">
         <v>233</v>
       </c>
-      <c r="C199" s="124"/>
-      <c r="D199" s="124"/>
-      <c r="E199" s="124"/>
-      <c r="F199" s="124"/>
-      <c r="G199" s="124"/>
-      <c r="H199" s="125"/>
+      <c r="C199" s="147"/>
+      <c r="D199" s="147"/>
+      <c r="E199" s="147"/>
+      <c r="F199" s="147"/>
+      <c r="G199" s="147"/>
+      <c r="H199" s="148"/>
     </row>
     <row r="200" spans="2:8" ht="16" thickBot="1">
-      <c r="B200" s="126"/>
-      <c r="C200" s="127"/>
-      <c r="D200" s="127"/>
-      <c r="E200" s="127"/>
-      <c r="F200" s="127"/>
-      <c r="G200" s="127"/>
-      <c r="H200" s="128"/>
+      <c r="B200" s="149"/>
+      <c r="C200" s="150"/>
+      <c r="D200" s="150"/>
+      <c r="E200" s="150"/>
+      <c r="F200" s="150"/>
+      <c r="G200" s="150"/>
+      <c r="H200" s="151"/>
     </row>
     <row r="201" spans="2:8" ht="30">
-      <c r="B201" s="139" t="s">
+      <c r="B201" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="C201" s="137" t="s">
+      <c r="C201" s="127" t="s">
         <v>235</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E201" s="137" t="s">
+      <c r="E201" s="127" t="s">
         <v>24</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G201" s="137" t="s">
+      <c r="G201" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H201" s="143" t="s">
+      <c r="H201" s="164" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="202" spans="2:8" ht="22">
-      <c r="B202" s="140"/>
-      <c r="C202" s="142"/>
+      <c r="B202" s="125"/>
+      <c r="C202" s="128"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="142"/>
+      <c r="E202" s="128"/>
       <c r="F202" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G202" s="142"/>
-      <c r="H202" s="144"/>
+      <c r="G202" s="128"/>
+      <c r="H202" s="165"/>
     </row>
     <row r="203" spans="2:8" ht="23" thickBot="1">
-      <c r="B203" s="141"/>
-      <c r="C203" s="138"/>
+      <c r="B203" s="126"/>
+      <c r="C203" s="129"/>
       <c r="D203" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E203" s="138"/>
+      <c r="E203" s="129"/>
       <c r="F203" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G203" s="138"/>
-      <c r="H203" s="145"/>
+      <c r="G203" s="129"/>
+      <c r="H203" s="166"/>
     </row>
     <row r="204" spans="2:8">
-      <c r="B204" s="120"/>
-      <c r="C204" s="121"/>
-      <c r="D204" s="121"/>
-      <c r="E204" s="121"/>
-      <c r="F204" s="121"/>
-      <c r="G204" s="121"/>
-      <c r="H204" s="122"/>
+      <c r="B204" s="143"/>
+      <c r="C204" s="144"/>
+      <c r="D204" s="144"/>
+      <c r="E204" s="144"/>
+      <c r="F204" s="144"/>
+      <c r="G204" s="144"/>
+      <c r="H204" s="145"/>
     </row>
     <row r="205" spans="2:8">
-      <c r="B205" s="123" t="s">
+      <c r="B205" s="146" t="s">
         <v>2448</v>
       </c>
-      <c r="C205" s="124"/>
-      <c r="D205" s="124"/>
-      <c r="E205" s="124"/>
-      <c r="F205" s="124"/>
-      <c r="G205" s="124"/>
-      <c r="H205" s="125"/>
+      <c r="C205" s="147"/>
+      <c r="D205" s="147"/>
+      <c r="E205" s="147"/>
+      <c r="F205" s="147"/>
+      <c r="G205" s="147"/>
+      <c r="H205" s="148"/>
     </row>
     <row r="206" spans="2:8" ht="16" thickBot="1">
-      <c r="B206" s="126"/>
-      <c r="C206" s="127"/>
-      <c r="D206" s="127"/>
-      <c r="E206" s="127"/>
-      <c r="F206" s="127"/>
-      <c r="G206" s="127"/>
-      <c r="H206" s="128"/>
+      <c r="B206" s="149"/>
+      <c r="C206" s="150"/>
+      <c r="D206" s="150"/>
+      <c r="E206" s="150"/>
+      <c r="F206" s="150"/>
+      <c r="G206" s="150"/>
+      <c r="H206" s="151"/>
     </row>
     <row r="207" spans="2:8" ht="31" thickBot="1">
       <c r="B207" s="112" t="s">
@@ -35823,36 +35823,36 @@
       </c>
     </row>
     <row r="208" spans="2:8" ht="59" customHeight="1">
-      <c r="B208" s="129" t="s">
+      <c r="B208" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="C208" s="131" t="s">
+      <c r="C208" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="D208" s="133" t="s">
+      <c r="D208" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="E208" s="135" t="s">
+      <c r="E208" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F208" s="135" t="s">
+      <c r="F208" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G208" s="135" t="s">
+      <c r="G208" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H208" s="135">
+      <c r="H208" s="130">
         <v>23</v>
       </c>
     </row>
     <row r="209" spans="2:8" ht="16" thickBot="1">
-      <c r="B209" s="130"/>
-      <c r="C209" s="132"/>
-      <c r="D209" s="134"/>
-      <c r="E209" s="136"/>
-      <c r="F209" s="136"/>
-      <c r="G209" s="136"/>
-      <c r="H209" s="136"/>
+      <c r="B209" s="138"/>
+      <c r="C209" s="168"/>
+      <c r="D209" s="133"/>
+      <c r="E209" s="131"/>
+      <c r="F209" s="131"/>
+      <c r="G209" s="131"/>
+      <c r="H209" s="131"/>
     </row>
     <row r="210" spans="2:8" ht="31" thickBot="1">
       <c r="B210" s="112" t="s">
@@ -35974,6 +35974,208 @@
     </row>
   </sheetData>
   <mergeCells count="226">
+    <mergeCell ref="B204:H204"/>
+    <mergeCell ref="B205:H205"/>
+    <mergeCell ref="B206:H206"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="H196:H197"/>
+    <mergeCell ref="B198:H198"/>
+    <mergeCell ref="B199:H199"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="G201:G203"/>
+    <mergeCell ref="H201:H203"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="G196:G197"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B188:H188"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="F181:F184"/>
+    <mergeCell ref="G181:G184"/>
+    <mergeCell ref="B186:H186"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="B176:B180"/>
+    <mergeCell ref="F176:F180"/>
+    <mergeCell ref="G176:G180"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="G169:G172"/>
+    <mergeCell ref="H169:H172"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="G156:G159"/>
+    <mergeCell ref="H156:H159"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="H128:H131"/>
+    <mergeCell ref="B133:B143"/>
+    <mergeCell ref="C133:C143"/>
+    <mergeCell ref="F133:F143"/>
+    <mergeCell ref="G133:G143"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="G146:G149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="E95:E105"/>
+    <mergeCell ref="C95:C105"/>
+    <mergeCell ref="F95:F105"/>
+    <mergeCell ref="G95:G105"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="F66:F70"/>
+    <mergeCell ref="G66:G70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="B160:B162"/>
     <mergeCell ref="C160:C162"/>
     <mergeCell ref="D160:D162"/>
@@ -35998,208 +36200,6 @@
     <mergeCell ref="C125:C127"/>
     <mergeCell ref="D125:D127"/>
     <mergeCell ref="B106:B113"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="H18:H23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="F66:F70"/>
-    <mergeCell ref="G66:G70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="E95:E105"/>
-    <mergeCell ref="C95:C105"/>
-    <mergeCell ref="F95:F105"/>
-    <mergeCell ref="G95:G105"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="G146:G149"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="B133:B143"/>
-    <mergeCell ref="C133:C143"/>
-    <mergeCell ref="F133:F143"/>
-    <mergeCell ref="G133:G143"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="G156:G159"/>
-    <mergeCell ref="H156:H159"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="G169:G172"/>
-    <mergeCell ref="H169:H172"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="B176:B180"/>
-    <mergeCell ref="F176:F180"/>
-    <mergeCell ref="G176:G180"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B188:H188"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="G189:G194"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="E181:E184"/>
-    <mergeCell ref="F181:F184"/>
-    <mergeCell ref="G181:G184"/>
-    <mergeCell ref="B186:H186"/>
-    <mergeCell ref="H196:H197"/>
-    <mergeCell ref="B198:H198"/>
-    <mergeCell ref="B199:H199"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="G201:G203"/>
-    <mergeCell ref="H201:H203"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B206:H206"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="H208:H209"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="_ftn1" display="KOSOVO[1] DATA"/>
@@ -38534,7 +38534,7 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -39056,55 +39056,55 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="121" t="s">
         <v>2460</v>
       </c>
-      <c r="E29" s="166">
+      <c r="E29" s="120">
         <f>E26/I35</f>
         <v>1.125</v>
       </c>
-      <c r="F29" s="166">
+      <c r="F29" s="120">
         <f t="shared" ref="F29:O29" si="1">F26/J35</f>
         <v>0.78145695364238421</v>
       </c>
-      <c r="G29" s="166">
+      <c r="G29" s="120">
         <f t="shared" si="1"/>
         <v>0.96610169491525422</v>
       </c>
-      <c r="H29" s="166">
+      <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>0.93958333333333333</v>
       </c>
-      <c r="I29" s="166">
+      <c r="I29" s="120">
         <f t="shared" si="1"/>
         <v>0.89916666666666656</v>
       </c>
-      <c r="J29" s="166">
+      <c r="J29" s="120">
         <f t="shared" si="1"/>
         <v>0.79279279279279291</v>
       </c>
-      <c r="K29" s="166">
+      <c r="K29" s="120">
         <f t="shared" si="1"/>
         <v>0.93814432989690721</v>
       </c>
-      <c r="L29" s="166">
+      <c r="L29" s="120">
         <f t="shared" si="1"/>
         <v>0.96969696969696961</v>
       </c>
-      <c r="M29" s="166">
+      <c r="M29" s="120">
         <f t="shared" si="1"/>
         <v>0.88749999999999984</v>
       </c>
-      <c r="N29" s="166">
+      <c r="N29" s="120">
         <f t="shared" si="1"/>
         <v>0.67938931297709926</v>
       </c>
-      <c r="O29" s="166">
+      <c r="O29" s="120">
         <f t="shared" si="1"/>
         <v>0.66754385964912277</v>
       </c>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="166"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
     </row>
     <row r="31" spans="2:17" ht="20">
       <c r="B31" s="47" t="s">
@@ -39267,7 +39267,7 @@
       <c r="J36" s="70">
         <v>10.9</v>
       </c>
-      <c r="K36" s="169">
+      <c r="K36" s="123">
         <f>ROUND(K35*K40, 1)</f>
         <v>8.4</v>
       </c>
@@ -39283,18 +39283,18 @@
       <c r="O36" s="70">
         <v>7</v>
       </c>
-      <c r="P36" s="169">
+      <c r="P36" s="123">
         <f t="shared" ref="P36:Q36" si="2">ROUND(P35*P40, 1)</f>
         <v>7.6</v>
       </c>
-      <c r="Q36" s="169">
+      <c r="Q36" s="123">
         <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
       <c r="R36" s="70">
         <v>11.1</v>
       </c>
-      <c r="S36" s="169">
+      <c r="S36" s="123">
         <f>ROUND(S35*S40, 1)</f>
         <v>9.6999999999999993</v>
       </c>
@@ -39468,7 +39468,7 @@
       </c>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="121" t="s">
         <v>2453</v>
       </c>
       <c r="C40" s="38"/>
@@ -39477,47 +39477,47 @@
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="166">
+      <c r="I40" s="120">
         <f>I36/I35</f>
         <v>0.7232142857142857</v>
       </c>
-      <c r="J40" s="166">
+      <c r="J40" s="120">
         <f>J36/J35</f>
         <v>0.72185430463576161</v>
       </c>
-      <c r="K40" s="168">
+      <c r="K40" s="122">
         <f>AVERAGE(J40,L40)</f>
         <v>0.71509381898454749</v>
       </c>
-      <c r="L40" s="166">
+      <c r="L40" s="120">
         <f>L36/L35</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="M40" s="166">
+      <c r="M40" s="120">
         <f>M36/M35</f>
         <v>0.73333333333333339</v>
       </c>
-      <c r="N40" s="166">
+      <c r="N40" s="120">
         <f>N36/N35</f>
         <v>0.83783783783783794</v>
       </c>
-      <c r="O40" s="166">
+      <c r="O40" s="120">
         <f>O36/O35</f>
         <v>0.72164948453608257</v>
       </c>
-      <c r="P40" s="168">
+      <c r="P40" s="122">
         <f>O40+((R40-O40)/3)</f>
         <v>0.76354240444899146</v>
       </c>
-      <c r="Q40" s="168">
+      <c r="Q40" s="122">
         <f>P40+((R40-O40)/3)</f>
         <v>0.80543532436190035</v>
       </c>
-      <c r="R40" s="166">
+      <c r="R40" s="120">
         <f>R36/R35</f>
         <v>0.84732824427480913</v>
       </c>
-      <c r="S40" s="168">
+      <c r="S40" s="122">
         <f>R40</f>
         <v>0.84732824427480913</v>
       </c>
@@ -39530,17 +39530,17 @@
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="166"/>
-      <c r="R41" s="166"/>
-      <c r="S41" s="166"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
     </row>
     <row r="42" spans="2:19">
       <c r="D42" s="38"/>
@@ -40602,17 +40602,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="104" customHeight="1">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="169" t="s">
         <v>2212</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
     </row>
     <row r="13" spans="1:12">
       <c r="C13" s="49"/>
